--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,1299 +424,1299 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Centro</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B2" t="str">
-        <v>R$ 40.000</v>
+        <v>R$ 80.000</v>
       </c>
       <c r="C2" t="str">
-        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMWAIjqyXIiw5Z2_bOizcy_h_sLJFqEOpAMzlEVgyPzktZQdCtEPLQ1VgMUI9prz4KglANI-NGB-8kaRbdOBX5vi11swQk2wuyAXXnM9zvw8UDOi/2d-165jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
       </c>
       <c r="D2" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E2" t="str">
-        <v>Box</v>
+        <v>Terreno</v>
       </c>
       <c r="F2" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/box-a-venda-bairro-centro-em-santa-cruz-do-sul/BOX-001</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B3" t="str">
-        <v>R$ 115.674</v>
+        <v>R$ 85.900</v>
       </c>
       <c r="C3" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCCuY6Cqg8TsctZbeyepmqAY4sZ0WU5oB7d0Kak/img2481jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
       </c>
       <c r="D3" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E3" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F3" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-931</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>João Alves</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B4" t="str">
-        <v>R$ 119.465</v>
+        <v>R$ 96.000</v>
       </c>
       <c r="C4" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvhiQEqEl1YSUg7gs2yd5CqiIvTF0WphoWC6aMWg/ferq7832jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
       </c>
       <c r="D4" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E4" t="str">
         <v>Terreno</v>
       </c>
       <c r="F4" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-785</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Country</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B5" t="str">
-        <v>R$ 120.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C5" t="str">
-        <v>Imagem nao encontrada</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
       </c>
       <c r="D5" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E5" t="str">
         <v>Terreno</v>
       </c>
       <c r="F5" t="str">
-        <v>https://www.karnoppimoveis.com.br</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B6" t="str">
-        <v>R$ 125.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C6" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrhcgAtCT9VykumlVGic4SuHZwjB0VpJoQz1RQ5E/terrenosantacruzlinhasantacruz3jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
       </c>
       <c r="D6" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E6" t="str">
         <v>Terreno</v>
       </c>
       <c r="F6" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-904</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Country</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B7" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C7" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QDulg6m_FSgtNPSn07J65lYEHM9F1UChrtU5j3M0/img0723jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
       </c>
       <c r="D7" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E7" t="str">
         <v>Terreno</v>
       </c>
       <c r="F7" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1270</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Country</v>
+        <v>Avenida, Santa Cruz Do Sul</v>
       </c>
       <c r="B8" t="str">
-        <v>R$ 130.000</v>
+        <v>Por: R$ 139.000</v>
       </c>
       <c r="C8" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4GZgrB70WiU0PCa0yhQ43b0tcfQFyQ/lotps9jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
       </c>
       <c r="D8" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E8" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F8" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1289</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Country</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B9" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C9" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4Pdfs67rlETtIiHl68d2VOHnjKB0V7xoajSe3Dc/2jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
       </c>
       <c r="D9" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E9" t="str">
         <v>Terreno</v>
       </c>
       <c r="F9" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1293</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Country</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B10" t="str">
-        <v>R$ 135.000</v>
+        <v>R$ 150.000</v>
       </c>
       <c r="C10" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7hbOot5k5KUrgqaa2mfZVCBuUoZ0TwFrD6e4OPE/foto01jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
       </c>
       <c r="D10" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E10" t="str">
         <v>Terreno</v>
       </c>
       <c r="F10" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1075</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Country</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B11" t="str">
-        <v>R$ 138.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C11" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoNg_vNkEmsvVQ9hVi6mXFNaolKZ1VWloSVOVRyo/dji0356jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
       </c>
       <c r="D11" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E11" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F11" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1110</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Avenida</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B12" t="str">
-        <v>R$ 139.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C12" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QILcgnb77Sj3UzGCrmyb5muD4Es91SIBrPgdNh_g/img-20240619-wa0063jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
       </c>
       <c r="D12" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E12" t="str">
-        <v>Sala Comercial</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F12" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-36m2-bairro-avenida-em-santa-cruz-do-sul/SC-067</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B13" t="str">
-        <v>R$ 145.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C13" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7ocxY2CaVKVEchmlOhnvU9Y3k950UTdrvLB59Aw/img9982jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
       </c>
       <c r="D13" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E13" t="str">
         <v>Terreno</v>
       </c>
       <c r="F13" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-1245</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Country</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B14" t="str">
-        <v>R$ 160.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C14" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qpra-7CA1VbsrsikNGsk4hNgmtKd1TTtr0J1Plx8/whatsappimage2024-12-19at153004jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
       </c>
       <c r="D14" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E14" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F14" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1301</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Country</v>
+        <v>Independência, Santa Cruz Do Sul</v>
       </c>
       <c r="B15" t="str">
-        <v>R$ 165.000</v>
+        <v>R$ 181.000</v>
       </c>
       <c r="C15" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QBtbn4p-TSzqV_YBs9R8oy1ipMr50WzBoUfS6Ex4/img0718jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
       </c>
       <c r="D15" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E15" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F15" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1276</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Arroio Grande</v>
+        <v>Universitário, Santa Cruz Do Sul</v>
       </c>
       <c r="B16" t="str">
-        <v>R$ 179.000</v>
+        <v>R$ 185.000</v>
       </c>
       <c r="C16" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYOafEuAECot1TXl1hFloSrlozZ51Uttr3X78ouQ/terrenohv1jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
       </c>
       <c r="D16" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E16" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="F16" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/T-1097</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B17" t="str">
-        <v>R$ 180.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C17" t="str">
-        <v>Imagem nao encontrada</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
       </c>
       <c r="D17" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E17" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F17" t="str">
-        <v>https://www.karnoppimoveis.com.br</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Centro</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B18" t="str">
-        <v>R$ 180.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C18" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvvbBXFm6QjX6AnjVuqnua7bokkF0V_9r3hp6v-o/img4832jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
       </c>
       <c r="D18" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E18" t="str">
-        <v>Sala Comercial</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F18" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-44m2-bairro-centro-em-santa-cruz-do-sul/SC-071</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Centro</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B19" t="str">
-        <v>R$ 180.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C19" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrrlwHWCywuQ1EgfklcYZkieX1N51Wz9oFtlkRLg/img4837jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
       </c>
       <c r="D19" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E19" t="str">
-        <v>Sala Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F19" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-41m2-bairro-centro-em-santa-cruz-do-sul/SC-072</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>João Alves</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B20" t="str">
-        <v>R$ 180.000</v>
+        <v>R$ 80.000</v>
       </c>
       <c r="C20" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qnvin7A_zy3zF-hdkheknKnZuLM90WpJoF39Dz0o/aaajpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
       </c>
       <c r="D20" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E20" t="str">
         <v>Terreno</v>
       </c>
       <c r="F20" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-1285</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Country</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B21" t="str">
-        <v>R$ 190.000</v>
+        <v>R$ 85.900</v>
       </c>
       <c r="C21" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4IewnEDklPzqI6eaBKZ4Kne2ElF1SbRrUYwD8lc/semplacajpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
       </c>
       <c r="D21" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E21" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F21" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-979</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Santo Inácio</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B22" t="str">
-        <v>R$ 195.000</v>
+        <v>R$ 96.000</v>
       </c>
       <c r="C22" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ocm7aGyhfwt7RmU2weoE9i4Eh91W0FoSWhw8VI/dji0071jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
       </c>
       <c r="D22" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E22" t="str">
         <v>Terreno</v>
       </c>
       <c r="F22" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-966</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>São João</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B23" t="str">
-        <v>R$ 195.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C23" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ojQLRmze32qm_gkej9G8haGTHB0WR1o5HnFASI/whatsappimage2024-11-27at1851191jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
       </c>
       <c r="D23" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E23" t="str">
         <v>Terreno</v>
       </c>
       <c r="F23" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/T-1295</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Country</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B24" t="str">
-        <v>R$ 196.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C24" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvlYR6w6ywrz78uCbG5-4mxh3nMZ0WrJo6bwL6YI/20230829155544jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
       </c>
       <c r="D24" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E24" t="str">
         <v>Terreno</v>
       </c>
       <c r="F24" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1185</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Esmeralda</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B25" t="str">
-        <v>R$ 198.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C25" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QEIeekzlLdNT0o2cMGoYoFZn4jNB0VfZrlztW76A/whatsappimage2025-01-16at1418111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
       </c>
       <c r="D25" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E25" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F25" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/2D-876</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>São João</v>
+        <v>Avenida, Santa Cruz Do Sul</v>
       </c>
       <c r="B26" t="str">
-        <v>R$ 208.000</v>
+        <v>Por: R$ 139.000</v>
       </c>
       <c r="C26" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q0OBGYtEKmlxU7FekOue3W_YY7EB0WIRoOCSPFA0/whatsappimage2024-08-23at155706jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
       </c>
       <c r="D26" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E26" t="str">
-        <v>Geminado</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F26" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/GEM-115</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Country</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B27" t="str">
-        <v>R$ 210.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C27" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QbtauC4FK5LpFDeCtjVZHFXlZwnB0VSBob1EzN5E/image00016jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
       </c>
       <c r="D27" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E27" t="str">
         <v>Terreno</v>
       </c>
       <c r="F27" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-901</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Country</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B28" t="str">
-        <v>R$ 210.000</v>
+        <v>R$ 150.000</v>
       </c>
       <c r="C28" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3qdQvGGrm3ukkyhbGt9HBGaYjNB0UhRr9PU81Jc/image00017jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
       </c>
       <c r="D28" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E28" t="str">
         <v>Terreno</v>
       </c>
       <c r="F28" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-902</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Country</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B29" t="str">
-        <v>R$ 215.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C29" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QIGnuUy_1O3y14ye1hN6pJAFplU51UGVoYeD8fpA/img7412jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
       </c>
       <c r="D29" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E29" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F29" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1128</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B30" t="str">
-        <v>R$ 216.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C30" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QfiDxa4_0WgqqcqB6FcZZJXaPrMd0VzFoR54mArM/todos2jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
       </c>
       <c r="D30" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E30" t="str">
-        <v>Geminado</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F30" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/GEM-118</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Country</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B31" t="str">
-        <v>R$ 220.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C31" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCEe6kAk6gpkTKC0WmlpS9aWTEd1WztoK6RGZv4/1000210888jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
       </c>
       <c r="D31" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E31" t="str">
         <v>Terreno</v>
       </c>
       <c r="F31" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1310</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Country</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B32" t="str">
-        <v>R$ 223.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C32" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qhpj-Iznzm700o6crlZYmpYYoXY51X7doRWwwIos/img0297jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
       </c>
       <c r="D32" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E32" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F32" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1076</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Country</v>
+        <v>Independência, Santa Cruz Do Sul</v>
       </c>
       <c r="B33" t="str">
-        <v>R$ 225.000</v>
+        <v>R$ 181.000</v>
       </c>
       <c r="C33" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvqkhY-HLSzwasyELDad4lPimI6F1VRxrieLWR0k/img7416jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
       </c>
       <c r="D33" t="str">
-        <v>karnoppimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E33" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F33" t="str">
-        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1129</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Santuário</v>
+        <v>Universitário, Santa Cruz Do Sul</v>
       </c>
       <c r="B34" t="str">
-        <v>R$ 59.900</v>
+        <v>R$ 185.000</v>
       </c>
       <c r="C34" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIGARClmKRUTVMujreinpGtYuLdF0VUlrkncPTdY/whatsappimage2022-02-14at1028384jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
       </c>
       <c r="D34" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E34" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="F34" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santuario-em-santa-cruz-do-sul/162416548</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pedreira</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B35" t="str">
-        <v>R$ 60.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C35" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcFfgLb5F40tkA5e1NRgXFGZmHAF0SIVrTCFRs2w/863383f4-902e-45fe-9a53-bcfd7a8209cejpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
       </c>
       <c r="D35" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E35" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F35" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-pedreira-em-santa-cruz-do-sul/162416632</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Várzea</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B36" t="str">
-        <v>R$ 60.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C36" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDoEebFmbmzylGjctxUm5-vdZjc51WPZoNw47F_U/terv2jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
       </c>
       <c r="D36" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E36" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F36" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-varzea-em-santa-cruz-do-sul/FS25</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Distrito Industrial</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B37" t="str">
-        <v>R$ 71.280</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C37" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Kb_bd91WyRKvQfqCxQ7nb3StmxNPA/1719168911020402599424018912747962894774627ojpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
       </c>
       <c r="D37" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E37" t="str">
         <v>Terreno</v>
       </c>
       <c r="F37" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/6827</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Distrito Industrial</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B38" t="str">
-        <v>R$ 79.000</v>
+        <v>R$ 80.000</v>
       </c>
       <c r="C38" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_ojh6wAl5PqVPHd1emnvBFfWVA91Ul9rqivBpTM/5907ad55-58eb-4f91-9cfc-642cd17c1168jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
       </c>
       <c r="D38" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E38" t="str">
         <v>Terreno</v>
       </c>
       <c r="F38" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/162416643</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Esmeralda</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B39" t="str">
-        <v>R$ 80.000</v>
+        <v>R$ 85.900</v>
       </c>
       <c r="C39" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0BiuYp50C-Ubw6clu2ev2xdXwtF0Utdr3oT826I/whatsappimage2021-11-29at105302jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
       </c>
       <c r="D39" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E39" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F39" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/BM21</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B40" t="str">
-        <v>R$ 90.000</v>
+        <v>R$ 96.000</v>
       </c>
       <c r="C40" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnplPYjgFVXqUDQj1Dcmo0ygXVQZ0WwloEmCgWnM/img20220119144924710hdrjpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
       </c>
       <c r="D40" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E40" t="str">
         <v>Terreno</v>
       </c>
       <c r="F40" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF109</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Esmeralda</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B41" t="str">
-        <v>R$ 95.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C41" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcPfBom-EdMvrvbj7hWduhNcYEnB1SV1rdAL24k4/whatsappimage2023-08-28at1213111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
       </c>
       <c r="D41" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E41" t="str">
         <v>Terreno</v>
       </c>
       <c r="F41" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/LK130</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B42" t="str">
-        <v>R$ 95.760</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C42" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QrjZh7A7EwnUkM1k1-8ku9KBuQr50TQBrqCgGelE/51709c12-8f50-4b5a-a93a-d13849beb3dfjpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
       </c>
       <c r="D42" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E42" t="str">
         <v>Terreno</v>
       </c>
       <c r="F42" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB319</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>João Alves</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B43" t="str">
-        <v>R$ 96.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C43" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHmbRbZ-bVau68ihrlde3qxeJM4Z0Se5rXU43kO8/fbb3dbf7-29a1-432e-89b2-5991f4349337jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
       </c>
       <c r="D43" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E43" t="str">
         <v>Terreno</v>
       </c>
       <c r="F43" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416672</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Esmeralda</v>
+        <v>Avenida, Santa Cruz Do Sul</v>
       </c>
       <c r="B44" t="str">
-        <v>R$ 99.000</v>
+        <v>Por: R$ 139.000</v>
       </c>
       <c r="C44" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEF15Vqq4gY06xU4_L0jGwytpg/whatsappimage2023-02-02at1241111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
       </c>
       <c r="D44" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E44" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F44" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF228</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Esmeralda</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B45" t="str">
-        <v>R$ 99.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C45" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGV2uR142b1ihQFw7ynRx7Gaw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
       </c>
       <c r="D45" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E45" t="str">
         <v>Terreno</v>
       </c>
       <c r="F45" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF229</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Esmeralda</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B46" t="str">
-        <v>R$ 99.000</v>
+        <v>R$ 150.000</v>
       </c>
       <c r="C46" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVRbt0_Qe1SxQ4yr3S7ZqOSw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
       </c>
       <c r="D46" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E46" t="str">
         <v>Terreno</v>
       </c>
       <c r="F46" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF230</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Esmeralda</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B47" t="str">
-        <v>R$ 99.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C47" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVBTqr_aaqShU-Pb28PF2nUA/whatsappimage2023-02-02at1241111jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
       </c>
       <c r="D47" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E47" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F47" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF231</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>São João</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B48" t="str">
-        <v>R$ 102.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C48" t="str">
-        <v>https://s01.jetimgs.com/tnkeSI8oLcluoxvThNeBKaKvSXFW0x2Qejo1tC81xu6An8sEP3rTHaUAubabOgFvrG6MjgiZSN_-xKBrYYlWjnRe1yau5vzDyIiIG-Q1hFvuzq7BGRFmpF29hsWAT2d-jw/20150916073407jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
       </c>
       <c r="D48" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E48" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F48" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/6995</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B49" t="str">
-        <v>R$ 106.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C49" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd_rCxiQpBiX3J45YQIx4En90n_I66-7DNj0b27EQmWKRro/7919554e-d449-461c-a4b3-3d0a989df32ejpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
       </c>
       <c r="D49" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E49" t="str">
         <v>Terreno</v>
       </c>
       <c r="F49" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB290</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>João Alves</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B50" t="str">
-        <v>R$ 108.200</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C50" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXufOEt_6yj3bwmD12t9I8phmk791VZtoIh3D94A/acdf5bba-1b92-423a-a110-e2b76dfbe2e0jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
       </c>
       <c r="D50" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E50" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F50" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB307</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>João Alves</v>
+        <v>Independência, Santa Cruz Do Sul</v>
       </c>
       <c r="B51" t="str">
-        <v>R$ 110.000</v>
+        <v>R$ 181.000</v>
       </c>
       <c r="C51" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDua_YpAqVWWb-yCEbFg4hfbnTM90V2Brie79w40/whatsappimage2021-07-20at1044352jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
       </c>
       <c r="D51" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E51" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F51" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/MF056</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Esmeralda</v>
+        <v>Universitário, Santa Cruz Do Sul</v>
       </c>
       <c r="B52" t="str">
-        <v>R$ 110.000</v>
+        <v>R$ 185.000</v>
       </c>
       <c r="C52" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0NfAE9mFRDpU4pbVTJbX05low_B0UGFrklrvW60/ce8f08a6-4af3-4ede-9518-6197966205cfjpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
       </c>
       <c r="D52" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E52" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="F52" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF145</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Aliança</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B53" t="str">
-        <v>R$ 110.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C53" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcKjh4rmUmvStjPdtxJ7oiicpzY50Uu9rz_H6CmM/terrenoallesgutjpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
       </c>
       <c r="D53" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E53" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F53" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB41</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>João Alves</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B54" t="str">
-        <v>R$ 110.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C54" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7jng_F_ywjslOnasiie3E-D2g950UPloTy2_P5w/8c813453-6deb-4236-bc1e-3cc0f5fb7de5jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
       </c>
       <c r="D54" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E54" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F54" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416673</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>João Alves</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B55" t="str">
-        <v>R$ 116.999</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C55" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbogeUwCVg1VVbOnbW2m5KpZpvQd1VGZoaTVGU44/img-20241220-wa0076jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
       </c>
       <c r="D55" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E55" t="str">
         <v>Terreno</v>
       </c>
       <c r="F55" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/BR002</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Country</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B56" t="str">
-        <v>R$ 120.000</v>
+        <v>R$ 80.000</v>
       </c>
       <c r="C56" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0PqBd_rCxiQatmn1T4Ib_2g_xnMZGi2itDsk-f0bW_El2BKoAo/8d2546f9-5d4e-487d-8822-c7faede8dd3ajpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
       </c>
       <c r="D56" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E56" t="str">
         <v>Terreno</v>
       </c>
       <c r="F56" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/NE016</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B57" t="str">
-        <v>R$ 123.500</v>
+        <v>R$ 85.900</v>
       </c>
       <c r="C57" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoOgv6rAlmjr0whgsBTZmlZfp1AZ0UIJrnbn9u-8/whatsappimage2022-09-26at092649jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
       </c>
       <c r="D57" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E57" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F57" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/LKG02</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Arroio Grande</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B58" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 96.000</v>
       </c>
       <c r="C58" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjqDfkpk6CwVV7Bj7CtcXlWh3jQ50WCloOg4U258/fb695008-2b19-4e71-8006-ba12a1e381a4jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
       </c>
       <c r="D58" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E58" t="str">
         <v>Terreno</v>
       </c>
       <c r="F58" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS2001</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Linha Travessa Aeroporto</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B59" t="str">
-        <v>R$ 130.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C59" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7iBg_VH6WvusYlYtejcZEok4Q391VzpoZwV0D04/chacarajpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
       </c>
       <c r="D59" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E59" t="str">
         <v>Terreno</v>
       </c>
       <c r="F59" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-travessa-aeroporto-em-santa-cruz-do-sul/AE190</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Aliança</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B60" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C60" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUGeffbCaOsSa8rZqlWnX-2Du7R91ULZoI4ZKPiA/terrenoallesgut1jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
       </c>
       <c r="D60" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E60" t="str">
         <v>Terreno</v>
       </c>
       <c r="F60" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB40</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rio Pardinho</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B61" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C61" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHoFP3Jly5Ssl85hUS7cpavhpNdB0WtJoT2VSJdE/whatsappimage2025-01-14at1550171jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
       </c>
       <c r="D61" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E61" t="str">
         <v>Terreno</v>
       </c>
       <c r="F61" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-rio-pardinho-em-santa-cruz-do-sul/Ale65</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Monte Verde</v>
+        <v>Avenida, Santa Cruz Do Sul</v>
       </c>
       <c r="B62" t="str">
-        <v>R$ 133.800</v>
+        <v>Por: R$ 139.000</v>
       </c>
       <c r="C62" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhc8G15fpLvWfrlRU4ab3dbR6N6Q/monteverdeb1-15jpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
       </c>
       <c r="D62" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E62" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F62" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/JS560</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Linha Santa Cruz</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B63" t="str">
-        <v>R$ 135.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C63" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QprZg0r405cprc-H6Oj-4RCFmVdF0Tsxr7TvCjDM/e9576d06-9a91-4cca-939a-45c0afac57ddjpg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
       </c>
       <c r="D63" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E63" t="str">
         <v>Terreno</v>
       </c>
       <c r="F63" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF263</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Faxinal Menino Deus</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B64" t="str">
-        <v>R$ 140.000</v>
+        <v>R$ 150.000</v>
       </c>
       <c r="C64" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnigvI57zWzpqGnYMNMc4FKl3Qz51V3RrkBDojVE/29979665-e91b-4d79-9c1f-32f6e09cf85cjpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
       </c>
       <c r="D64" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E64" t="str">
         <v>Terreno</v>
       </c>
       <c r="F64" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-faxinal-menino-deus-em-santa-cruz-do-sul/162416631</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Esmeralda</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B65" t="str">
-        <v>R$ 140.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C65" t="str">
-        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5tgRHF8T4uU6HaA1Rd_pGpfuLY90Wg9oMeum34U/whatsappimage2024-07-03at114536jpeg.webp</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
       </c>
       <c r="D65" t="str">
-        <v>borbaimoveis</v>
+        <v>creditoreal</v>
       </c>
       <c r="E65" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F65" t="str">
-        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/val34</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B66" t="str">
-        <v>R$ 80.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C66" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
       </c>
       <c r="D66" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E66" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F66" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1724,19 +1724,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B67" t="str">
-        <v>R$ 85.900</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C67" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
       </c>
       <c r="D67" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E67" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F67" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1744,19 +1744,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B68" t="str">
-        <v>R$ 96.000</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C68" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
       </c>
       <c r="D68" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E68" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F68" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1764,19 +1764,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Independência, Santa Cruz Do Sul</v>
       </c>
       <c r="B69" t="str">
-        <v>Sob consulta</v>
+        <v>R$ 181.000</v>
       </c>
       <c r="C69" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
       </c>
       <c r="D69" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E69" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F69" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1784,19 +1784,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Universitário, Santa Cruz Do Sul</v>
       </c>
       <c r="B70" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 185.000</v>
       </c>
       <c r="C70" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
       </c>
       <c r="D70" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E70" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="F70" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1804,19 +1804,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B71" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C71" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
       </c>
       <c r="D71" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E71" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F71" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Avenida, Santa Cruz Do Sul</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B72" t="str">
-        <v>Por: R$ 139.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C72" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
       </c>
       <c r="D72" t="str">
         <v>creditoreal</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Germânia, Santa Cruz Do Sul</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B73" t="str">
-        <v>R$ 145.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C73" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
       </c>
       <c r="D73" t="str">
         <v>creditoreal</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B74" t="str">
-        <v>R$ 150.000</v>
+        <v>R$ 80.000</v>
       </c>
       <c r="C74" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
       </c>
       <c r="D74" t="str">
         <v>creditoreal</v>
@@ -1887,10 +1887,10 @@
         <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B75" t="str">
-        <v>R$ 160.000</v>
+        <v>R$ 85.900</v>
       </c>
       <c r="C75" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
       </c>
       <c r="D75" t="str">
         <v>creditoreal</v>
@@ -1904,19 +1904,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B76" t="str">
-        <v>R$ 165.000</v>
+        <v>R$ 96.000</v>
       </c>
       <c r="C76" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
       </c>
       <c r="D76" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E76" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F76" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Germânia, Santa Cruz Do Sul</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B77" t="str">
-        <v>R$ 170.000</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C77" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
       </c>
       <c r="D77" t="str">
         <v>creditoreal</v>
@@ -1944,19 +1944,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B78" t="str">
-        <v>R$ 170.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C78" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
       </c>
       <c r="D78" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E78" t="str">
-        <v>Casa</v>
+        <v>Terreno</v>
       </c>
       <c r="F78" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1964,19 +1964,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Independência, Santa Cruz Do Sul</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B79" t="str">
-        <v>R$ 181.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C79" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
       </c>
       <c r="D79" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E79" t="str">
-        <v>Casa</v>
+        <v>Terreno</v>
       </c>
       <c r="F79" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -1984,19 +1984,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Avenida, Santa Cruz Do Sul</v>
       </c>
       <c r="B80" t="str">
-        <v>R$ 185.000</v>
+        <v>Por: R$ 139.000</v>
       </c>
       <c r="C80" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
       </c>
       <c r="D80" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E80" t="str">
-        <v>Apartamento</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F80" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B81" t="str">
-        <v>R$ 195.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C81" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
       </c>
       <c r="D81" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E81" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F81" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -2024,19 +2024,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B82" t="str">
-        <v>Sob consulta</v>
+        <v>R$ 150.000</v>
       </c>
       <c r="C82" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
       </c>
       <c r="D82" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E82" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F82" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -2044,19 +2044,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B83" t="str">
-        <v>R$ 195.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C83" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
       </c>
       <c r="D83" t="str">
         <v>creditoreal</v>
       </c>
       <c r="E83" t="str">
-        <v>Terreno</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F83" t="str">
         <v>https://www.creditoreal.com.br</v>
@@ -2064,817 +2064,167 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Universitário</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B84" t="str">
-        <v>R$ 205.000,00</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C84" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005025_86548.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
       </c>
       <c r="D84" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E84" t="str">
-        <v>Apartamento</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F84" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005025</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Universitário</v>
+        <v>Germânia, Santa Cruz Do Sul</v>
       </c>
       <c r="B85" t="str">
-        <v>R$ 210.000,00</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C85" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1447901_138120.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
       </c>
       <c r="D85" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E85" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F85" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/1447901</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Universitário</v>
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
       </c>
       <c r="B86" t="str">
-        <v>R$ 215.000,00</v>
+        <v>R$ 170.000</v>
       </c>
       <c r="C86" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005026_86549.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
       </c>
       <c r="D86" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E86" t="str">
-        <v>Apartamento</v>
+        <v>Casa</v>
       </c>
       <c r="F86" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005026</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Renascença</v>
+        <v>Independência, Santa Cruz Do Sul</v>
       </c>
       <c r="B87" t="str">
-        <v>R$ 224.160,87</v>
+        <v>R$ 181.000</v>
       </c>
       <c r="C87" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012361_159405.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
       </c>
       <c r="D87" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E87" t="str">
-        <v>Terreno</v>
+        <v>Casa</v>
       </c>
       <c r="F87" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Renascenca/Santa-Cruz-Do-Sul/RS/10012361</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Santo Inácio</v>
+        <v>Universitário, Santa Cruz Do Sul</v>
       </c>
       <c r="B88" t="str">
-        <v>R$ 230.000,00</v>
+        <v>R$ 185.000</v>
       </c>
       <c r="C88" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/158601_131433.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
       </c>
       <c r="D88" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E88" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="F88" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/158601</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Centro</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B89" t="str">
-        <v>R$ 240.000,00</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C89" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011968_147449.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
       </c>
       <c r="D89" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E89" t="str">
-        <v>Kitnet</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F89" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Kitnet/Centro/Santa-Cruz-Do-Sul/RS/10011968</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Centro</v>
+        <v>Centro, Santa Cruz Do Sul</v>
       </c>
       <c r="B90" t="str">
-        <v>R$ 240.000,00</v>
+        <v>Sob consulta</v>
       </c>
       <c r="C90" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10003667_167079.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
       </c>
       <c r="D90" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E90" t="str">
-        <v>Apartamento</v>
+        <v>Sala/Conjunto Comercial</v>
       </c>
       <c r="F90" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10003667</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Universitário</v>
+        <v>Renascença, Santa Cruz Do Sul</v>
       </c>
       <c r="B91" t="str">
-        <v>R$ 245.000,00</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C91" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31024_133771.jpg</v>
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
       </c>
       <c r="D91" t="str">
-        <v>imobel</v>
+        <v>creditoreal</v>
       </c>
       <c r="E91" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F91" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/31024</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B92" t="str">
-        <v>R$ 245.000,00</v>
-      </c>
-      <c r="C92" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/9999966_168354.jpg</v>
-      </c>
-      <c r="D92" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E92" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F92" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/9999966</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B93" t="str">
-        <v>R$ 248.000,00</v>
-      </c>
-      <c r="C93" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/258601_162112.jpg</v>
-      </c>
-      <c r="D93" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E93" t="str">
-        <v>Alvenaria</v>
-      </c>
-      <c r="F93" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Alvenaria/Centro/Santa-Cruz-Do-Sul/RS/258601</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B94" t="str">
-        <v>R$ 250.000,00</v>
-      </c>
-      <c r="C94" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2692701_159670.jpg</v>
-      </c>
-      <c r="D94" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E94" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F94" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2692701</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B95" t="str">
-        <v>R$ 259.000,00</v>
-      </c>
-      <c r="C95" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012676_168123.jpg</v>
-      </c>
-      <c r="D95" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E95" t="str">
-        <v>Sala Comercial</v>
-      </c>
-      <c r="F95" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10012676</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B96" t="str">
-        <v>R$ 265.000,00</v>
-      </c>
-      <c r="C96" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1208403_134957.jpg</v>
-      </c>
-      <c r="D96" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E96" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F96" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1208403</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>Santo Inácio</v>
-      </c>
-      <c r="B97" t="str">
-        <v>R$ 270.000,00</v>
-      </c>
-      <c r="C97" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011726_137618.jpg</v>
-      </c>
-      <c r="D97" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E97" t="str">
-        <v>Terreno</v>
-      </c>
-      <c r="F97" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10011726</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>Avenida</v>
-      </c>
-      <c r="B98" t="str">
-        <v>R$ 276.000,00</v>
-      </c>
-      <c r="C98" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1545701_94932.jpg</v>
-      </c>
-      <c r="D98" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E98" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F98" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/1545701</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B99" t="str">
-        <v>R$ 280.000,00</v>
-      </c>
-      <c r="C99" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10010883_149021.jpg</v>
-      </c>
-      <c r="D99" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E99" t="str">
-        <v>Sala Comercial</v>
-      </c>
-      <c r="F99" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10010883</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>Universitário</v>
-      </c>
-      <c r="B100" t="str">
-        <v>R$ 280.000,00</v>
-      </c>
-      <c r="C100" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011932_146006.jpg</v>
-      </c>
-      <c r="D100" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E100" t="str">
-        <v>Terreno</v>
-      </c>
-      <c r="F100" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10011932</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Santo Inácio</v>
-      </c>
-      <c r="B101" t="str">
-        <v>R$ 280.000,00</v>
-      </c>
-      <c r="C101" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012655_167569.jpg</v>
-      </c>
-      <c r="D101" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E101" t="str">
-        <v>Chale</v>
-      </c>
-      <c r="F101" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10012655</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B102" t="str">
-        <v>R$ 280.000,00</v>
-      </c>
-      <c r="C102" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10004210_152143.jpg</v>
-      </c>
-      <c r="D102" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E102" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F102" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10004210</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B103" t="str">
-        <v>R$ 285.000,00</v>
-      </c>
-      <c r="C103" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/467503_154417.jpg</v>
-      </c>
-      <c r="D103" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E103" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F103" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/467503</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B104" t="str">
-        <v>R$ 285.000,00</v>
-      </c>
-      <c r="C104" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/322204_162101.jpg</v>
-      </c>
-      <c r="D104" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E104" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F104" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/322204</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B105" t="str">
-        <v>R$ 286.500,00</v>
-      </c>
-      <c r="C105" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1492401_112321.jpg</v>
-      </c>
-      <c r="D105" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E105" t="str">
-        <v>Sala Comercial</v>
-      </c>
-      <c r="F105" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/1492401</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>Goiás</v>
-      </c>
-      <c r="B106" t="str">
-        <v>R$ 289.863,83</v>
-      </c>
-      <c r="C106" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011744_138938.jpg</v>
-      </c>
-      <c r="D106" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E106" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F106" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Goias/Santa-Cruz-Do-Sul/RS/10011744</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>Avenida</v>
-      </c>
-      <c r="B107" t="str">
-        <v>R$ 290.000,00</v>
-      </c>
-      <c r="C107" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31008_165692.jpg</v>
-      </c>
-      <c r="D107" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E107" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F107" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31008</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B108" t="str">
-        <v>R$ 290.000,00</v>
-      </c>
-      <c r="C108" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/220501_122461.jpg</v>
-      </c>
-      <c r="D108" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E108" t="str">
-        <v>Chale</v>
-      </c>
-      <c r="F108" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Centro/Santa-Cruz-Do-Sul/RS/220501</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B109" t="str">
-        <v>R$ 290.000,00</v>
-      </c>
-      <c r="C109" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2019701_165126.jpg</v>
-      </c>
-      <c r="D109" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E109" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F109" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2019701</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>Universitário</v>
-      </c>
-      <c r="B110" t="str">
-        <v>R$ 290.000,00</v>
-      </c>
-      <c r="C110" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012074_150861.jpg</v>
-      </c>
-      <c r="D110" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E110" t="str">
-        <v>Terreno</v>
-      </c>
-      <c r="F110" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10012074</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B111" t="str">
-        <v>R$ 292.500,00</v>
-      </c>
-      <c r="C111" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012413_163832.jpg</v>
-      </c>
-      <c r="D111" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E111" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F111" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10012413</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B112" t="str">
-        <v>R$ 295.000,00</v>
-      </c>
-      <c r="C112" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1502_158230.jpg</v>
-      </c>
-      <c r="D112" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E112" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F112" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1502</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B113" t="str">
-        <v>R$ 299.000,00</v>
-      </c>
-      <c r="C113" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012507_163993.jpg</v>
-      </c>
-      <c r="D113" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E113" t="str">
-        <v>Terreno</v>
-      </c>
-      <c r="F113" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Centro/Santa-Cruz-Do-Sul/RS/10012507</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>Avenida</v>
-      </c>
-      <c r="B114" t="str">
-        <v>R$ 300.000,00</v>
-      </c>
-      <c r="C114" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31004_160983.jpg</v>
-      </c>
-      <c r="D114" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E114" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F114" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31004</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>Centro</v>
-      </c>
-      <c r="B115" t="str">
-        <v>R$ 300.000,00</v>
-      </c>
-      <c r="C115" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/131002_165623.jpg</v>
-      </c>
-      <c r="D115" t="str">
-        <v>imobel</v>
-      </c>
-      <c r="E115" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F115" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/131002</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>Bom Fim, Santa Cruz do Sul</v>
-      </c>
-      <c r="B116" t="str">
-        <v>R$ 280.000,00</v>
-      </c>
-      <c r="D116" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E116" t="str">
-        <v>Amplo Terreno Próximo ao Quartel</v>
-      </c>
-      <c r="F116" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>Santo Inácio, Santa Cruz do Sul</v>
-      </c>
-      <c r="B117" t="str">
-        <v>R$ 240.000,00</v>
-      </c>
-      <c r="D117" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E117" t="str">
-        <v>Apartamento no Santo Inácio / 1 dorm.</v>
-      </c>
-      <c r="F117" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>Avenida, Santa Cruz do Sul</v>
-      </c>
-      <c r="B118" t="str">
-        <v>R$ 208.000,00</v>
-      </c>
-      <c r="D118" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E118" t="str">
-        <v>Apartamento JK no Bairro Avenida / 1 dorm.</v>
-      </c>
-      <c r="F118" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>Linha João Alves, Santa Cruz do Sul</v>
-      </c>
-      <c r="B119" t="str">
-        <v>R$ 245.000,00</v>
-      </c>
-      <c r="D119" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E119" t="str">
-        <v>Geminado novo na João Alves / 2 dorm.</v>
-      </c>
-      <c r="F119" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>Linha João Alves, Santa Cruz do Sul</v>
-      </c>
-      <c r="B120" t="str">
-        <v>R$ 245.000,00</v>
-      </c>
-      <c r="D120" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E120" t="str">
-        <v>Geminado Novo com 02 Dormitórios / 2 dorm.</v>
-      </c>
-      <c r="F120" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>Country , Santa Cruz do Sul</v>
-      </c>
-      <c r="B121" t="str">
-        <v>R$ 212.000,00</v>
-      </c>
-      <c r="D121" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E121" t="str">
-        <v>Terreno Pronto para Construir no Green Village</v>
-      </c>
-      <c r="F121" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>Independência , Santa Cruz do Sul</v>
-      </c>
-      <c r="B122" t="str">
-        <v>R$ 225.000,00</v>
-      </c>
-      <c r="D122" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E122" t="str">
-        <v>Excelente Apartamento Pertinho da Unisc / 1 dorm.</v>
-      </c>
-      <c r="F122" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>Santo Inácio, Santa Cruz do Sul</v>
-      </c>
-      <c r="B123" t="str">
-        <v>R$ 300.000,00</v>
-      </c>
-      <c r="D123" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E123" t="str">
-        <v>Alvenaria no Santo Inácio / 3 dorm.</v>
-      </c>
-      <c r="F123" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>Jardim Europa, Santa Cruz do Sul</v>
-      </c>
-      <c r="B124" t="str">
-        <v>R$ 281.421,00</v>
-      </c>
-      <c r="D124" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E124" t="str">
-        <v>Amplo Terreno no Jardim Europa</v>
-      </c>
-      <c r="F124" t="str">
-        <v>.margin-bottom a</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>Jardim Europa, Santa Cruz do Sul</v>
-      </c>
-      <c r="B125" t="str">
-        <v>R$ 271.370,00</v>
-      </c>
-      <c r="D125" t="str">
-        <v>imoveismegha</v>
-      </c>
-      <c r="E125" t="str">
-        <v>Terreno no Jardim das Hortênsias</v>
-      </c>
-      <c r="F125" t="str">
-        <v>.margin-bottom a</v>
+        <v>https://www.creditoreal.com.br</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F422"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,362 +424,362 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Universitário</v>
+        <v>Centro</v>
       </c>
       <c r="B2" t="str">
-        <v>R$ 205.000,00</v>
+        <v>R$ 40.000</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005025_86548.jpg</v>
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMWAIjqyXIiw5Z2_bOizcy_h_sLJFqEOpAMzlEVgyPzktZQdCtEPLQ1VgMUI9prz4KglANI-NGB-8kaRbdOBX5vi11swQk2wuyAXXnM9zvw8UDOi/2d-165jpg.webp</v>
       </c>
       <c r="D2" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E2" t="str">
-        <v>Apartamento</v>
+        <v>Box</v>
       </c>
       <c r="F2" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005025</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/box-a-venda-bairro-centro-em-santa-cruz-do-sul/BOX-001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Universitário</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B3" t="str">
-        <v>R$ 210.000,00</v>
+        <v>R$ 115.674</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1447901_138120.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCCuY6Cqg8TsctZbeyepmqAY4sZ0WU5oB7d0Kak/img2481jpg.webp</v>
       </c>
       <c r="D3" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E3" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F3" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/1447901</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Universitário</v>
+        <v>João Alves</v>
       </c>
       <c r="B4" t="str">
-        <v>R$ 215.000,00</v>
+        <v>R$ 119.465</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005026_86549.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvhiQEqEl1YSUg7gs2yd5CqiIvTF0WphoWC6aMWg/ferq7832jpg.webp</v>
       </c>
       <c r="D4" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E4" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F4" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005026</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Renascença</v>
+        <v>Country</v>
       </c>
       <c r="B5" t="str">
-        <v>R$ 224.160,87</v>
+        <v>R$ 120.000</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012361_159405.jpg</v>
+        <v>Imagem nao encontrada</v>
       </c>
       <c r="D5" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E5" t="str">
         <v>Terreno</v>
       </c>
       <c r="F5" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Renascenca/Santa-Cruz-Do-Sul/RS/10012361</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Santo Inácio</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B6" t="str">
-        <v>R$ 230.000,00</v>
+        <v>R$ 125.000</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/158601_131433.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrhcgAtCT9VykumlVGic4SuHZwjB0VpJoQz1RQ5E/terrenosantacruzlinhasantacruz3jpeg.webp</v>
       </c>
       <c r="D6" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E6" t="str">
         <v>Terreno</v>
       </c>
       <c r="F6" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/158601</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B7" t="str">
-        <v>R$ 240.000,00</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011968_147449.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QDulg6m_FSgtNPSn07J65lYEHM9F1UChrtU5j3M0/img0723jpg.webp</v>
       </c>
       <c r="D7" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E7" t="str">
-        <v>Kitnet</v>
+        <v>Terreno</v>
       </c>
       <c r="F7" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Kitnet/Centro/Santa-Cruz-Do-Sul/RS/10011968</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B8" t="str">
-        <v>R$ 240.000,00</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10003667_167079.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4GZgrB70WiU0PCa0yhQ43b0tcfQFyQ/lotps9jpg.webp</v>
       </c>
       <c r="D8" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E8" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F8" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10003667</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Universitário</v>
+        <v>Country</v>
       </c>
       <c r="B9" t="str">
-        <v>R$ 245.000,00</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31024_133771.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4Pdfs67rlETtIiHl68d2VOHnjKB0V7xoajSe3Dc/2jpg.webp</v>
       </c>
       <c r="D9" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E9" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F9" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/31024</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B10" t="str">
-        <v>R$ 245.000,00</v>
+        <v>R$ 135.000</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/9999966_168354.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7hbOot5k5KUrgqaa2mfZVCBuUoZ0TwFrD6e4OPE/foto01jpg.webp</v>
       </c>
       <c r="D10" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E10" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F10" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/9999966</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B11" t="str">
-        <v>R$ 248.000,00</v>
+        <v>R$ 138.000</v>
       </c>
       <c r="C11" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/258601_162112.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoNg_vNkEmsvVQ9hVi6mXFNaolKZ1VWloSVOVRyo/dji0356jpg.webp</v>
       </c>
       <c r="D11" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E11" t="str">
-        <v>Alvenaria</v>
+        <v>Terreno</v>
       </c>
       <c r="F11" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Alvenaria/Centro/Santa-Cruz-Do-Sul/RS/258601</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Centro</v>
+        <v>Avenida</v>
       </c>
       <c r="B12" t="str">
-        <v>R$ 250.000,00</v>
+        <v>R$ 139.000</v>
       </c>
       <c r="C12" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2692701_159670.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QILcgnb77Sj3UzGCrmyb5muD4Es91SIBrPgdNh_g/img-20240619-wa0063jpg.webp</v>
       </c>
       <c r="D12" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E12" t="str">
-        <v>Apartamento</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="F12" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2692701</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-36m2-bairro-avenida-em-santa-cruz-do-sul/SC-067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Centro</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B13" t="str">
-        <v>R$ 259.000,00</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012676_168123.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7ocxY2CaVKVEchmlOhnvU9Y3k950UTdrvLB59Aw/img9982jpeg.webp</v>
       </c>
       <c r="D13" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E13" t="str">
-        <v>Sala Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F13" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10012676</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-1245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B14" t="str">
-        <v>R$ 265.000,00</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1208403_134957.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qpra-7CA1VbsrsikNGsk4hNgmtKd1TTtr0J1Plx8/whatsappimage2024-12-19at153004jpeg.webp</v>
       </c>
       <c r="D14" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E14" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F14" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1208403</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Santo Inácio</v>
+        <v>Country</v>
       </c>
       <c r="B15" t="str">
-        <v>R$ 270.000,00</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C15" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011726_137618.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QBtbn4p-TSzqV_YBs9R8oy1ipMr50WzBoUfS6Ex4/img0718jpg.webp</v>
       </c>
       <c r="D15" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E15" t="str">
         <v>Terreno</v>
       </c>
       <c r="F15" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10011726</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Avenida</v>
+        <v>Arroio Grande</v>
       </c>
       <c r="B16" t="str">
-        <v>R$ 276.000,00</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1545701_94932.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QDpiQHFB76_UtrWea9de20pY5XQ50ULhrgz3gG0g/c0af0389-45d8-4cb2-8bde-0ec2fe9e28bajpg.webp</v>
       </c>
       <c r="D16" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E16" t="str">
         <v>Apartamento</v>
       </c>
       <c r="F16" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/1545701</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/2D-</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Centro</v>
+        <v>Arroio Grande</v>
       </c>
       <c r="B17" t="str">
-        <v>R$ 280.000,00</v>
+        <v>R$ 179.000</v>
       </c>
       <c r="C17" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10010883_149021.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYOafEuAECot1TXl1hFloSrlozZ51Uttr3X78ouQ/terrenohv1jpeg.webp</v>
       </c>
       <c r="D17" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E17" t="str">
-        <v>Sala Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F17" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10010883</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/T-1097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Universitário</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B18" t="str">
-        <v>R$ 280.000,00</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C18" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011932_146006.jpg</v>
+        <v>Imagem nao encontrada</v>
       </c>
       <c r="D18" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E18" t="str">
         <v>Terreno</v>
       </c>
       <c r="F18" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10011932</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-1282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Santo Inácio</v>
+        <v>Centro</v>
       </c>
       <c r="B19" t="str">
-        <v>R$ 280.000,00</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C19" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012655_167569.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvvbBXFm6QjX6AnjVuqnua7bokkF0V_9r3hp6v-o/img4832jpeg.webp</v>
       </c>
       <c r="D19" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E19" t="str">
-        <v>Chale</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="F19" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10012655</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-44m2-bairro-centro-em-santa-cruz-do-sul/SC-071</v>
       </c>
     </row>
     <row r="20">
@@ -787,284 +787,8064 @@
         <v>Centro</v>
       </c>
       <c r="B20" t="str">
-        <v>R$ 280.000,00</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C20" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10004210_152143.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrrlwHWCywuQ1EgfklcYZkieX1N51Wz9oFtlkRLg/img4837jpeg.webp</v>
       </c>
       <c r="D20" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E20" t="str">
-        <v>Apartamento</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="F20" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10004210</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-41m2-bairro-centro-em-santa-cruz-do-sul/SC-072</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Centro</v>
+        <v>João Alves</v>
       </c>
       <c r="B21" t="str">
-        <v>R$ 285.000,00</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C21" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/467503_154417.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qnvin7A_zy3zF-hdkheknKnZuLM90WpJoF39Dz0o/aaajpg.webp</v>
       </c>
       <c r="D21" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E21" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F21" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/467503</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-1285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B22" t="str">
-        <v>R$ 285.000,00</v>
+        <v>R$ 190.000</v>
       </c>
       <c r="C22" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/322204_162101.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4IewnEDklPzqI6eaBKZ4Kne2ElF1SbRrUYwD8lc/semplacajpg.webp</v>
       </c>
       <c r="D22" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E22" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F22" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/322204</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-979</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Centro</v>
+        <v>Santo Inácio</v>
       </c>
       <c r="B23" t="str">
-        <v>R$ 286.500,00</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1492401_112321.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ocm7aGyhfwt7RmU2weoE9i4Eh91W0FoSWhw8VI/dji0071jpg.webp</v>
       </c>
       <c r="D23" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E23" t="str">
-        <v>Sala Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="F23" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/1492401</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Goiás</v>
+        <v>São João</v>
       </c>
       <c r="B24" t="str">
-        <v>R$ 289.863,83</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C24" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011744_138938.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ojQLRmze32qm_gkej9G8haGTHB0WR1o5HnFASI/whatsappimage2024-11-27at1851191jpeg.webp</v>
       </c>
       <c r="D24" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E24" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F24" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Goias/Santa-Cruz-Do-Sul/RS/10011744</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/T-1295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Avenida</v>
+        <v>Country</v>
       </c>
       <c r="B25" t="str">
-        <v>R$ 290.000,00</v>
+        <v>R$ 196.000</v>
       </c>
       <c r="C25" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31008_165692.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvlYR6w6ywrz78uCbG5-4mxh3nMZ0WrJo6bwL6YI/20230829155544jpg.webp</v>
       </c>
       <c r="D25" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E25" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F25" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31008</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Centro</v>
+        <v>Esmeralda</v>
       </c>
       <c r="B26" t="str">
-        <v>R$ 290.000,00</v>
+        <v>R$ 198.000</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/220501_122461.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QEIeekzlLdNT0o2cMGoYoFZn4jNB0VfZrlztW76A/whatsappimage2025-01-16at1418111jpeg.webp</v>
       </c>
       <c r="D26" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E26" t="str">
-        <v>Chale</v>
+        <v>Apartamento</v>
       </c>
       <c r="F26" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Centro/Santa-Cruz-Do-Sul/RS/220501</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/2D-876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Centro</v>
+        <v>São João</v>
       </c>
       <c r="B27" t="str">
-        <v>R$ 290.000,00</v>
+        <v>R$ 208.000</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2019701_165126.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q0OBGYtEKmlxU7FekOue3W_YY7EB0WIRoOCSPFA0/whatsappimage2024-08-23at155706jpeg.webp</v>
       </c>
       <c r="D27" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E27" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="F27" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2019701</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/GEM-115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Universitário</v>
+        <v>Country</v>
       </c>
       <c r="B28" t="str">
-        <v>R$ 290.000,00</v>
+        <v>R$ 210.000</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012074_150861.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QbtauC4FK5LpFDeCtjVZHFXlZwnB0VSBob1EzN5E/image00016jpeg.webp</v>
       </c>
       <c r="D28" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E28" t="str">
         <v>Terreno</v>
       </c>
       <c r="F28" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10012074</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-901</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B29" t="str">
-        <v>R$ 292.500,00</v>
+        <v>R$ 210.000</v>
       </c>
       <c r="C29" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012413_163832.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3qdQvGGrm3ukkyhbGt9HBGaYjNB0UhRr9PU81Jc/image00017jpeg.webp</v>
       </c>
       <c r="D29" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E29" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F29" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10012413</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-902</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Centro</v>
+        <v>Country</v>
       </c>
       <c r="B30" t="str">
-        <v>R$ 295.000,00</v>
+        <v>R$ 215.000</v>
       </c>
       <c r="C30" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1502_158230.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QIGnuUy_1O3y14ye1hN6pJAFplU51UGVoYeD8fpA/img7412jpg.webp</v>
       </c>
       <c r="D30" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E30" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F30" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1502</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Centro</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B31" t="str">
-        <v>R$ 299.000,00</v>
+        <v>R$ 216.000</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012507_163993.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QfiDxa4_0WgqqcqB6FcZZJXaPrMd0VzFoR54mArM/todos2jpg.webp</v>
       </c>
       <c r="D31" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E31" t="str">
-        <v>Terreno</v>
+        <v>Geminado</v>
       </c>
       <c r="F31" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Centro/Santa-Cruz-Do-Sul/RS/10012507</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/GEM-118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Avenida</v>
+        <v>Country</v>
       </c>
       <c r="B32" t="str">
-        <v>R$ 300.000,00</v>
+        <v>R$ 220.000</v>
       </c>
       <c r="C32" t="str">
-        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31004_160983.jpg</v>
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCEe6kAk6gpkTKC0WmlpS9aWTEd1WztoK6RGZv4/1000210888jpg.webp</v>
       </c>
       <c r="D32" t="str">
-        <v>imobel</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E32" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="F32" t="str">
-        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31004</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B33" t="str">
+        <v>R$ 223.000</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qhpj-Iznzm700o6crlZYmpYYoXY51X7doRWwwIos/img0297jpg.webp</v>
+      </c>
+      <c r="D33" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1076</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B34" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvqkhY-HLSzwasyELDad4lPimI6F1VRxrieLWR0k/img7416jpg.webp</v>
+      </c>
+      <c r="D34" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B35" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q5tg-fBgStHvFsndlChlnKniWHMF1VMdrj6kCSPo/d592f707-0659-4f42-bcef-2d1a9722e545jpg.webp</v>
+      </c>
+      <c r="D35" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/GEM-111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B36" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QntZ-HN51OrusjeisBZ6nBfdYrF90UYprlyP8iNQ/28d8deb6-d097-4e11-807b-c8a6953883f5jpeg.webp</v>
+      </c>
+      <c r="D36" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/T-1234</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B37" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoImn3ZG0RXxaLFkUdcfPq1luLV91UAxoE_p5VjQ/1000177823jpg.webp</v>
+      </c>
+      <c r="D37" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B38" t="str">
+        <v>R$ 235.000</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QcKGmE9gy61xLGmab5Cm2xaZmMgF0We1riUJ-nxY/img2891jpeg.webp</v>
+      </c>
+      <c r="D38" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-1207</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B39" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYBgfDNCk6_pMjNYrRReoEjmGw1F0TeJrEbI9tVA/a32e405a-4bf4-425a-ba9f-3565e7c9dfcejpg.webp</v>
+      </c>
+      <c r="D39" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-goias-em-santa-cruz-do-sul/1D-271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
         <v>Centro</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B40" t="str">
+        <v>R$ 245.000</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7ijvK67ku6QUmugEyr-pGzivA1B0VA9oQXImsvQ/fachadajpg.webp</v>
+      </c>
+      <c r="D40" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/1D-260</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B41" t="str">
+        <v>R$ 248.000</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QpjYuq7CliyrFbBdVe7_ZercuQwF0V8prr0FwpoA/01porticoefjpg.webp</v>
+      </c>
+      <c r="D41" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1190</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B42" t="str">
+        <v>R$ 249.000</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QLljuqhGK62pLO_j11Z9ZU2iYLXB0WmloBVB7wsE/whatsappimage2025-01-03at1545021jpeg.webp</v>
+      </c>
+      <c r="D42" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-3-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/3D-534</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B43" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QALZuC9klg3x6O5eNVJmZZGAvUsF1VSxob3Clf3A/t-853jpg.webp</v>
+      </c>
+      <c r="D43" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B44" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QhoixcsEzhWtFQ6kNBN9G8oiPVIB1WeNowcY7LT8/whatsappimage2024-08-12at173033jpeg.webp</v>
+      </c>
+      <c r="D44" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1273</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B45" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QZifQam_KOvp1jfa1zR850ynXo5F1VYpoS-GHQ-A/0a3b141f-baf6-45e7-9d53-4ca6811e6699jpg.webp</v>
+      </c>
+      <c r="D45" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/Gem-101</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B46" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QhtiR8iG7CzTUGqCsOufmm2nX0_51XfdooTUrlIM/1jpg.webp</v>
+      </c>
+      <c r="D46" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/GEM-098</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B47" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoDeQMm_Kw_xVexk1G182mmbuXKZ1VJlo7QV-BJo/dji0309jpg.webp</v>
+      </c>
+      <c r="D47" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1218</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B48" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHldOUr-ka-t64_iUlJnWizYGbUZ0Vx5oRSMFSLk/11njpeg.webp</v>
+      </c>
+      <c r="D48" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1262</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B49" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qfoew66CUtdyqDWF7ZKZX-9huo_51Vm5oLQ3pLjk/12njpeg.webp</v>
+      </c>
+      <c r="D49" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1263</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B50" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDR91RDu1PKd0lRkV2quiNpbawls0JA/fachadajpg.webp</v>
+      </c>
+      <c r="D50" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-645</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B51" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QsFmnXL_KxQulu7l6-p4WpeC4og91V-VoYgxv71E/9c58ee22-9792-41e8-a8b0-7c8b0ce4d163jpeg.webp</v>
+      </c>
+      <c r="D51" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/Gem-100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B52" t="str">
+        <v>R$ 266.000</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QsPhfcxkLy3rl-pjVTdfvlRkYov51WeVo6stswmU/b64b8b65-8e51-4347-b1e5-8a5dea24d319jpeg.webp</v>
+      </c>
+      <c r="D52" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-990</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B53" t="str">
+        <v>R$ 267.000</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8PfAisALtLx7rQZ79Jno1IH443F0TOBrPnxJS2o/img2483jpeg.webp</v>
+      </c>
+      <c r="D53" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-1169</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B54" t="str">
+        <v>R$ 268.000</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QXmGeCl7KGlrU8mebjB4m8-Hvvc91XnFopPgrUdk/whatsappimage2024-09-25at174014jpeg.webp</v>
+      </c>
+      <c r="D54" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/1D-270</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B55" t="str">
+        <v>R$ 270.190</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHl_DB7rWnorHSb1ihUE0b1pV-gPuQ/53b1a70d-b0e1-468a-9c70-94c1ee6b01e71jpg.webp</v>
+      </c>
+      <c r="D55" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/1D-194</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B56" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QkNkxI-6SFeWsTOe0jCeuBFZuVL51VAVo6f2YsN4/ddb02324-3ee7-4991-9256-6a9de4633a5fjpeg.webp</v>
+      </c>
+      <c r="D56" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/1D-247</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B57" t="str">
+        <v>R$ 278.000</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QICEffY9KC6UVjKdki5muZBiIHMB1URJr6PJzwSc/img3925jpeg.webp</v>
+      </c>
+      <c r="D57" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/T-1268</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B58" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYIegc781WuVKPXk16xkV2qurf5aXSeUSpQ/img2025jpg.webp</v>
+      </c>
+      <c r="D58" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-universitario-em-santa-cruz-do-sul/T-376</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B59" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDd805GT1_SfrVBkV2qutS5bFKkeiWw/fachadajpg.webp</v>
+      </c>
+      <c r="D59" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-661</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B60" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDd9rRHtKfWZ1FBgV2qutbZbANbD1Zw/fachadajpg.webp</v>
+      </c>
+      <c r="D60" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-652</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B61" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHkhbcG0mvs04yZrlBQFZb1fTF_yJA/img8647jpg.webp</v>
+      </c>
+      <c r="D61" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-685</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B62" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYBZh0hA6esotw3cMxR6W5GHZ3E90UKpoVxNNVKo/image00014jpeg.webp</v>
+      </c>
+      <c r="D62" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-974</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B63" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHulRHJ47ynvb7blk7VgZ1aeYlQF0TyZrdl7Y0H8/img0306jpg.webp</v>
+      </c>
+      <c r="D63" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-986</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B64" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8GnPPAFF-4Qb7Bk0iynZyiCWQ551UBhrm3rSvlU/image00007jpeg.webp</v>
+      </c>
+      <c r="D64" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1010</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B65" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrimnnZ_1w3x7wyeNtAio9FamTD51UXFrqleUzqk/95caa919-db04-4a7e-a9f8-537ed4631272jpeg.webp</v>
+      </c>
+      <c r="D65" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1064</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B66" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUGE-fVnkSjoboxm0tJhpFDhv3I50V6Frhe2RE_w/whatsappimage2023-11-30at105004jpeg.webp</v>
+      </c>
+      <c r="D66" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1213</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B67" t="str">
+        <v>R$ 287.000</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qntiu3SGKlfVUeicaOzb4cmm4bAF0W1Boa8IISMU/img0301jpg.webp</v>
+      </c>
+      <c r="D67" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-792</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B68" t="str">
+        <v>R$ 288.000</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8Pimk1k6tAXbQnhald6WxFiHUoB1WKNoAotLkDQ/belle-ville-09142035alencar-da-rosajpg.webp</v>
+      </c>
+      <c r="D68" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-971</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B69" t="str">
+        <v>R$ 288.000</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qbmmfq9CFG1zaQvg07YnP-9dntP91X3ForPkoTjs/image00004jpeg.webp</v>
+      </c>
+      <c r="D69" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1308</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B70" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHnB7J-1mnurfLgqlRQ4C70xeGr0zg/t-645jpg.webp</v>
+      </c>
+      <c r="D70" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-762</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B71" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHnB7EBrGntKPCaqyhQFQb08eM__DQ/t-645jpg.webp</v>
+      </c>
+      <c r="D71" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-763</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B72" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QsOhvMy_lmtS0grYUi6Y52vgHVd90UFhoctcUbp8/ubqt3406jpg.webp</v>
+      </c>
+      <c r="D72" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/GEM-086</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B73" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHnanXB9ExbTabai0e9bpBTkvMkF1TeZrLpWKNKI/image00005jpeg.webp</v>
+      </c>
+      <c r="D73" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/GEM-089</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B74" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7qlGbG7rFeRE7bgURV_OC9nXjU50VA9o6-DBcjI/dji0306jpg.webp</v>
+      </c>
+      <c r="D74" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1193</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B75" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QAOnR4o66wt1MO6hbSh_4mtZXE050UCtrvVkzLRQ/dio33921-copiajpg.webp</v>
+      </c>
+      <c r="D75" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1283</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B76" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QLjdv6q8S-lVLe9hVC6f45SbmDEZ0VfFoS8cDUw0/whatsappimage2024-11-06at1515551jpeg.webp</v>
+      </c>
+      <c r="D76" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/GEM-117</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B77" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPm-Mh_qWmTrfAarRpZd2Kuw6JF2sxs6xQ/img2292jpg.webp</v>
+      </c>
+      <c r="D77" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F77" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-650</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B78" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QpmBREkA7WrXbs5hs7Wav0vjnbIF0XeVovihOoCA/whatsappimage2024-05-31at054725jpeg.webp</v>
+      </c>
+      <c r="D78" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1049</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Linha João Alves</v>
+      </c>
+      <c r="B79" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8Fk_KqGK60U0DGAkdDnGa3iIo6Z0X3do74zc8-U/whatsappimage2024-03-27at54654pm2jpeg.webp</v>
+      </c>
+      <c r="D79" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-joao-alves-em-santa-cruz-do-sul/GEM-110</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B80" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QBoa-nc409VpKfCEEet5ZRTev1T51Tp9rwi8lFAc/tabelaaltosdoparquejpg.webp</v>
+      </c>
+      <c r="D80" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1121</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B81" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYDehnd6kg7wqsmCqmhgm26l3zIB1ShFrfTrHTiM/image00002jpegjpg.webp</v>
+      </c>
+      <c r="D81" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-bonfim-em-santa-cruz-do-sul/T-1130</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B82" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q0Dl-agGF5Mpq_SY6y7c5xdjpDc50TotrRfa4Ze0/01porticoefjpg.webp</v>
+      </c>
+      <c r="D82" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1297</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B83" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4KY-cp50mvsr4mbqCxU6rr06xXJrCw/photo-2021-07-24-08-46-33jpg.webp</v>
+      </c>
+      <c r="D83" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F83" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-940</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B84" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QbqD-k09kVVS7onk6bRgW5LZWU691V6JruIacrEg/image00013jpeg.webp</v>
+      </c>
+      <c r="D84" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F84" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-975</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B85" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qnlnws1H0Y6V0Y4n0esa4xGY4go51W0lrifMHyAc/photo-2021-07-24-08-46-33jpg.webp</v>
+      </c>
+      <c r="D85" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F85" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1114</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B86" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QcJbn_GA14zr0ure0TWk28uA4jId0VtFoBOlOVus/img0303jpg.webp</v>
+      </c>
+      <c r="D86" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F86" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1196</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B87" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q5uhf6k4FgzSt7Vea9FnHG2iGPMB0Wvhoet3MZ_Q/img0300jpg.webp</v>
+      </c>
+      <c r="D87" t="str">
+        <v>karnoppimoveis</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F87" t="str">
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1206</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Santuário</v>
+      </c>
+      <c r="B88" t="str">
+        <v>R$ 59.900</v>
+      </c>
+      <c r="C88" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIGARClmKRUTVMujreinpGtYuLdF0VUlrkncPTdY/whatsappimage2022-02-14at1028384jpeg.webp</v>
+      </c>
+      <c r="D88" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F88" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santuario-em-santa-cruz-do-sul/162416548</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Pedreira</v>
+      </c>
+      <c r="B89" t="str">
+        <v>R$ 60.000</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcFfgLb5F40tkA5e1NRgXFGZmHAF0SIVrTCFRs2w/863383f4-902e-45fe-9a53-bcfd7a8209cejpeg.webp</v>
+      </c>
+      <c r="D89" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F89" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-pedreira-em-santa-cruz-do-sul/162416632</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Várzea</v>
+      </c>
+      <c r="B90" t="str">
+        <v>R$ 60.000</v>
+      </c>
+      <c r="C90" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDoEebFmbmzylGjctxUm5-vdZjc51WPZoNw47F_U/terv2jpg.webp</v>
+      </c>
+      <c r="D90" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F90" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-varzea-em-santa-cruz-do-sul/FS25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B91" t="str">
+        <v>R$ 71.280</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Kb_bd91WyRKvQfqCxQ7nb3StmxNPA/1719168911020402599424018912747962894774627ojpg.webp</v>
+      </c>
+      <c r="D91" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F91" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/6827</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B92" t="str">
+        <v>R$ 79.000</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_ojh6wAl5PqVPHd1emnvBFfWVA91Ul9rqivBpTM/5907ad55-58eb-4f91-9cfc-642cd17c1168jpeg.webp</v>
+      </c>
+      <c r="D92" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F92" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/162416643</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B93" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0BiuYp50C-Ubw6clu2ev2xdXwtF0Utdr3oT826I/whatsappimage2021-11-29at105302jpeg.webp</v>
+      </c>
+      <c r="D93" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F93" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/BM21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B94" t="str">
+        <v>R$ 90.000</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnplPYjgFVXqUDQj1Dcmo0ygXVQZ0WwloEmCgWnM/img20220119144924710hdrjpg.webp</v>
+      </c>
+      <c r="D94" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F94" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF109</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B95" t="str">
+        <v>R$ 95.000</v>
+      </c>
+      <c r="C95" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcPfBom-EdMvrvbj7hWduhNcYEnB1SV1rdAL24k4/whatsappimage2023-08-28at1213111jpeg.webp</v>
+      </c>
+      <c r="D95" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F95" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/LK130</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B96" t="str">
+        <v>R$ 95.760</v>
+      </c>
+      <c r="C96" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QrjZh7A7EwnUkM1k1-8ku9KBuQr50TQBrqCgGelE/51709c12-8f50-4b5a-a93a-d13849beb3dfjpeg.webp</v>
+      </c>
+      <c r="D96" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F96" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB319</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B97" t="str">
+        <v>R$ 96.000</v>
+      </c>
+      <c r="C97" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHmbRbZ-bVau68ihrlde3qxeJM4Z0Se5rXU43kO8/fbb3dbf7-29a1-432e-89b2-5991f4349337jpeg.webp</v>
+      </c>
+      <c r="D97" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F97" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416672</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B98" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C98" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEF15Vqq4gY06xU4_L0jGwytpg/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+      <c r="D98" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F98" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF228</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B99" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C99" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGV2uR142b1ihQFw7ynRx7Gaw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+      <c r="D99" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F99" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF229</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B100" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C100" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVRbt0_Qe1SxQ4yr3S7ZqOSw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+      <c r="D100" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F100" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF230</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B101" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C101" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVBTqr_aaqShU-Pb28PF2nUA/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+      <c r="D101" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F101" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF231</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B102" t="str">
+        <v>R$ 102.000</v>
+      </c>
+      <c r="C102" t="str">
+        <v>https://s01.jetimgs.com/tnkeSI8oLcluoxvThNeBKaKvSXFW0x2Qejo1tC81xu6An8sEP3rTHaUAubabOgFvrG6MjgiZSN_-xKBrYYlWjnRe1yau5vzDyIiIG-Q1hFvuzq7BGRFmpF29hsWAT2d-jw/20150916073407jpg.webp</v>
+      </c>
+      <c r="D102" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F102" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/6995</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B103" t="str">
+        <v>R$ 106.000</v>
+      </c>
+      <c r="C103" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd_rCxiQpBiX3J45YQIx4En90n_I66-7DNj0b27EQmWKRro/7919554e-d449-461c-a4b3-3d0a989df32ejpeg.webp</v>
+      </c>
+      <c r="D103" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F103" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB290</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B104" t="str">
+        <v>R$ 108.200</v>
+      </c>
+      <c r="C104" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXufOEt_6yj3bwmD12t9I8phmk791VZtoIh3D94A/acdf5bba-1b92-423a-a110-e2b76dfbe2e0jpeg.webp</v>
+      </c>
+      <c r="D104" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F104" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB307</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B105" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C105" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDua_YpAqVWWb-yCEbFg4hfbnTM90V2Brie79w40/whatsappimage2021-07-20at1044352jpeg.webp</v>
+      </c>
+      <c r="D105" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F105" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/MF056</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B106" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C106" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0NfAE9mFRDpU4pbVTJbX05low_B0UGFrklrvW60/ce8f08a6-4af3-4ede-9518-6197966205cfjpg.webp</v>
+      </c>
+      <c r="D106" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F106" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF145</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B107" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C107" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcKjh4rmUmvStjPdtxJ7oiicpzY50Uu9rz_H6CmM/terrenoallesgutjpeg.webp</v>
+      </c>
+      <c r="D107" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F107" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB41</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B108" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C108" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7jng_F_ywjslOnasiie3E-D2g950UPloTy2_P5w/8c813453-6deb-4236-bc1e-3cc0f5fb7de5jpeg.webp</v>
+      </c>
+      <c r="D108" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F108" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416673</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B109" t="str">
+        <v>R$ 116.999</v>
+      </c>
+      <c r="C109" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbogeUwCVg1VVbOnbW2m5KpZpvQd1VGZoaTVGU44/img-20241220-wa0076jpg.webp</v>
+      </c>
+      <c r="D109" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F109" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/BR002</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B110" t="str">
+        <v>R$ 120.000</v>
+      </c>
+      <c r="C110" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0PqBd_rCxiQatmn1T4Ib_2g_xnMZGi2itDsk-f0bW_El2BKoAo/8d2546f9-5d4e-487d-8822-c7faede8dd3ajpg.webp</v>
+      </c>
+      <c r="D110" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F110" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/NE016</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B111" t="str">
+        <v>R$ 123.500</v>
+      </c>
+      <c r="C111" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoOgv6rAlmjr0whgsBTZmlZfp1AZ0UIJrnbn9u-8/whatsappimage2022-09-26at092649jpeg.webp</v>
+      </c>
+      <c r="D111" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F111" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/LKG02</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B112" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C112" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjqDfkpk6CwVV7Bj7CtcXlWh3jQ50WCloOg4U258/fb695008-2b19-4e71-8006-ba12a1e381a4jpg.webp</v>
+      </c>
+      <c r="D112" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F112" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS2001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Linha Travessa Aeroporto</v>
+      </c>
+      <c r="B113" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C113" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7iBg_VH6WvusYlYtejcZEok4Q391VzpoZwV0D04/chacarajpg.webp</v>
+      </c>
+      <c r="D113" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F113" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-travessa-aeroporto-em-santa-cruz-do-sul/AE190</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B114" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C114" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUGeffbCaOsSa8rZqlWnX-2Du7R91ULZoI4ZKPiA/terrenoallesgut1jpeg.webp</v>
+      </c>
+      <c r="D114" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F114" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB40</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Rio Pardinho</v>
+      </c>
+      <c r="B115" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C115" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHoFP3Jly5Ssl85hUS7cpavhpNdB0WtJoT2VSJdE/whatsappimage2025-01-14at1550171jpeg.webp</v>
+      </c>
+      <c r="D115" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F115" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-rio-pardinho-em-santa-cruz-do-sul/Ale65</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B116" t="str">
+        <v>R$ 133.800</v>
+      </c>
+      <c r="C116" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhc8G15fpLvWfrlRU4ab3dbR6N6Q/monteverdeb1-15jpg.webp</v>
+      </c>
+      <c r="D116" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F116" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/JS560</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B117" t="str">
+        <v>R$ 135.000</v>
+      </c>
+      <c r="C117" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QprZg0r405cprc-H6Oj-4RCFmVdF0Tsxr7TvCjDM/e9576d06-9a91-4cca-939a-45c0afac57ddjpg.webp</v>
+      </c>
+      <c r="D117" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F117" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF263</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Faxinal Menino Deus</v>
+      </c>
+      <c r="B118" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C118" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnigvI57zWzpqGnYMNMc4FKl3Qz51V3RrkBDojVE/29979665-e91b-4d79-9c1f-32f6e09cf85cjpeg.webp</v>
+      </c>
+      <c r="D118" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F118" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-faxinal-menino-deus-em-santa-cruz-do-sul/162416631</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B119" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C119" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5tgRHF8T4uU6HaA1Rd_pGpfuLY90Wg9oMeum34U/whatsappimage2024-07-03at114536jpeg.webp</v>
+      </c>
+      <c r="D119" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F119" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/val34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Rio Pardinho</v>
+      </c>
+      <c r="B120" t="str">
+        <v>R$ 150.000</v>
+      </c>
+      <c r="C120" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_cx5rWns1_CdqyhUGX71WxFODHg/7b48940e-ee2a-4d9c-8d3c-71d64abb8cd1jpg.webp</v>
+      </c>
+      <c r="D120" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F120" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-rio-pardinho-em-santa-cruz-do-sul/CI001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B121" t="str">
+        <v>R$ 150.000</v>
+      </c>
+      <c r="C121" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsOhQbb_kQ6plGjntTJlu2qm2nEB0U7Jrq9tp-Ew/2cb28157-1e3c-4930-a36a-81cc68a47c6ejpg.webp</v>
+      </c>
+      <c r="D121" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F121" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/T71</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B122" t="str">
+        <v>R$ 155.263</v>
+      </c>
+      <c r="C122" t="str">
+        <v>https://s01.jetimgs.com/tnkeSA8rKcluoxtJpNvBBNnhiY_Ioh2UrpsRKW_I_Zv7Kz5dnaStbZe1Sk18jVG-QO1MAVRUpF8em8fyDpBBWKRyFDhB7QU3EAP9T7M2adYn7ps0wZN9n2KqA8Tty4sxmA/santavitoriajpg.webp</v>
+      </c>
+      <c r="D122" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F122" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/3592</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B123" t="str">
+        <v>R$ 159.000</v>
+      </c>
+      <c r="C123" t="str">
+        <v>https://s01.jetimgs.com/tnkeSA8rKclupgtNpNhxSyyzLPGJoEabgEaJQb-4QRIYNttHXGN6IZ4VU5QEuyKvgMeu2aV3wBTmdB0LJrCm7pkk_5P1p4hUWlOGcx5E6hm2DQScn2V_z6Se5EHrRo2oA0s/20160323103722jpg.webp</v>
+      </c>
+      <c r="D123" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F123" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/379</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B124" t="str">
+        <v>R$ 159.990</v>
+      </c>
+      <c r="C124" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJonvkiAzYquUOwcUVZl2RFbXHMZ0X6ho8PUnlac/whatsappimage2024-10-09at1520021jpeg.webp</v>
+      </c>
+      <c r="D124" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F124" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-1-quarto-a-venda-e-1-vaga-bairro-distrito-industrial-em-santa-cruz-do-sul/162416666</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Rauber</v>
+      </c>
+      <c r="B125" t="str">
+        <v>R$ 160.000</v>
+      </c>
+      <c r="C125" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfliQ41jyYnWVvNklm2YWZHfok6F0WKRocJ8MiEs/whatsappimage2025-01-03at1843241jpeg.webp</v>
+      </c>
+      <c r="D125" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F125" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-5-quartos-a-venda-e-2-vagas-bairro-rauber-em-santa-cruz-do-sul/VB60</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B126" t="str">
+        <v>R$ 162.600</v>
+      </c>
+      <c r="C126" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGqBWX1veaqyxU7NL0zmgGEXQ/j6santaceciliajpg.webp</v>
+      </c>
+      <c r="D126" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F126" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS09</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B127" t="str">
+        <v>R$ 163.800</v>
+      </c>
+      <c r="C127" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGUW7rqHWerlBU4mL3ctTU9HQ/jssantaceciliajpg.webp</v>
+      </c>
+      <c r="D127" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F127" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS67</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B128" t="str">
+        <v>R$ 166.000</v>
+      </c>
+      <c r="C128" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGUmvpL4rgKixQ7v70JEfu9eA/j3santaceciliajpg.webp</v>
+      </c>
+      <c r="D128" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F128" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS56</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B129" t="str">
+        <v>R$ 169.070</v>
+      </c>
+      <c r="C129" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61RToqIwe0ihU5Gb3Idw7Ybw/img20210408164331jpg.webp</v>
+      </c>
+      <c r="D129" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F129" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/16246</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B130" t="str">
+        <v>R$ 169.070</v>
+      </c>
+      <c r="C130" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61WyTrIuc1VRQ6lr1T7M0cHQ/img20210408164401jpg.webp</v>
+      </c>
+      <c r="D130" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F130" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/165068</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B131" t="str">
+        <v>R$ 169.500</v>
+      </c>
+      <c r="C131" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAKhQEhglxESrrGYlNWdplVkGUzF1TvdrJOgBIkY/img8546jpeg.webp</v>
+      </c>
+      <c r="D131" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F131" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB363</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B132" t="str">
+        <v>R$ 170.000</v>
+      </c>
+      <c r="C132" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJuB-Cq9zut2ss_lruthmRHd3VB51XANo_uoP-OE/whatsappimage2024-01-30at0912303jpeg.webp</v>
+      </c>
+      <c r="D132" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Loft</v>
+      </c>
+      <c r="F132" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/loft-com-1-quarto-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ale36</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B133" t="str">
+        <v>R$ 171.000</v>
+      </c>
+      <c r="C133" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUKEubeF0Szrbwyd15abvhYaXIlF0UiNrxL-1Eqc/terrenogreenvillagejpeg.webp</v>
+      </c>
+      <c r="D133" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F133" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB25</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Schulz</v>
+      </c>
+      <c r="B134" t="str">
+        <v>R$ 171.500</v>
+      </c>
+      <c r="C134" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcCFgLSCqBVvrTQhqShluiycPTT90SctrKV3EW3g/whatsappimage2024-03-16at1015092jpeg.webp</v>
+      </c>
+      <c r="D134" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F134" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-schulz-em-santa-cruz-do-sul/FS18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B135" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C135" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8t5qhCVqoyer1BU66L1gAJpbSA/img20210408164109jpg.webp</v>
+      </c>
+      <c r="D135" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F135" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/624165</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B136" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C136" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l41RPrqYnn1FBQ4pL1qZjaucA/img20210408164035jpg.webp</v>
+      </c>
+      <c r="D136" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F136" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/16240</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B137" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C137" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61mjtKfWZ1VBQ4Tr0F89wfBg/img20210408164305jpg.webp</v>
+      </c>
+      <c r="D137" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F137" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/41651</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B138" t="str">
+        <v>R$ 174.370</v>
+      </c>
+      <c r="C138" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61hOQ1PHl1CxU7Q71rk5r0Sg/img20210408164228jpg.webp</v>
+      </c>
+      <c r="D138" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F138" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/162450</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B139" t="str">
+        <v>R$ 176.490</v>
+      </c>
+      <c r="C139" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l615VtLPOZ0ihQ5kL3tTg-hBQ/img20210408164438jpg.webp</v>
+      </c>
+      <c r="D139" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F139" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/162001</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Progresso</v>
+      </c>
+      <c r="B140" t="str">
+        <v>R$ 179.000</v>
+      </c>
+      <c r="C140" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPkg815rBDs1HHl1VRgV2qu5q5E7nZvD1Q/64c6a344-4c3c-42c1-a33b-76a143ea8c4djpg.webp</v>
+      </c>
+      <c r="D140" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F140" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-progresso-em-santa-cruz-do-sul/MF022</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B141" t="str">
+        <v>R$ 179.000</v>
+      </c>
+      <c r="C141" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8Jl-0x_KCko0jAEV9TdIVJiYbcB0VAloa_Ay5G4/whatsappimage2024-11-14at094912jpeg.webp</v>
+      </c>
+      <c r="D141" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F141" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/LK219</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B142" t="str">
+        <v>R$ 180.000</v>
+      </c>
+      <c r="C142" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBikuA1nKgzo7fQH6S8Y5JJgn3HF1W3ZoZU3tPjo/whatsappimage2023-09-15at095906jpeg.webp</v>
+      </c>
+      <c r="D142" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F142" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/Ale25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B143" t="str">
+        <v>R$ 180.000</v>
+      </c>
+      <c r="C143" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJoc_CxGF1cTbsjblO0hPWvmObBB1VrdoRQbQjM0/dji0209jpg.webp</v>
+      </c>
+      <c r="D143" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F143" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/LK218</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B144" t="str">
+        <v>R$ 180.200</v>
+      </c>
+      <c r="C144" t="str">
+        <v>https://s01.jetimgs.com/tnkeRxUvLclyoxtNjMVUBd4hA5PGrE1PfIIKYT-HpUu5hgG9bDlrmbT1I9xRPMDwuGpYK4bLA0cLxnz4eDm0zhB2AC-ivwTREbWvUM_oiAfOQZwsvEp0pVq6scXHDt3Qeg/wp20160420180936projpg.webp</v>
+      </c>
+      <c r="D144" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F144" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/CB138</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B145" t="str">
+        <v>R$ 181.000</v>
+      </c>
+      <c r="C145" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7iehYpi7A3QVg9ia1F_uReiOI4d0VS9oE0D0O8Q/torre1jpg.webp</v>
+      </c>
+      <c r="D145" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F145" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/BR012</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B146" t="str">
+        <v>R$ 184.333</v>
+      </c>
+      <c r="C146" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbimvXRGbtFzqcmDrdDYv9Tn2I791UIFoZZKy7Vc/20240903140349jpg.webp</v>
+      </c>
+      <c r="D146" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F146" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/LK204</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B147" t="str">
+        <v>R$ 187.000</v>
+      </c>
+      <c r="C147" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEIih6l51RaX0Q_itxB82JRiINL50USFoS8XqN0E/kelly-1jpg.webp</v>
+      </c>
+      <c r="D147" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F147" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ADS0009</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B148" t="str">
+        <v>R$ 187.090</v>
+      </c>
+      <c r="C148" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMWRQNFWh__kdNutqc9yEFc1AVbvPZXFgLLY1g8rcOsZ6petEgBc4EMzQTxxSwdrmQo_aId6-kOVwXMZnCGc558XjUB2yJeR2rijpQ/img20201111151559jpg.webp</v>
+      </c>
+      <c r="D148" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F148" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB146</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B149" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C149" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbljuHZ_qi-sVY9kVO18X1Zjpk890VuxrjK9uYuQ/whatsappimage2023-05-18at1316202jpeg.webp</v>
+      </c>
+      <c r="D149" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F149" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/LK116</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B150" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C150" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GZhc59qxOX1vbkrVBU6D71XOU7Epw/whatsappimage2021-04-01at1009331jpeg.webp</v>
+      </c>
+      <c r="D150" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F150" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB350</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B151" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C151" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoPnfA1HLe4W17Gjrm2jPxYCIMvF1VTxrhWuUMX8/2bbc8c9c-2dd5-4ad1-b8cb-d9558a1cda73jpg.webp</v>
+      </c>
+      <c r="D151" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F151" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/OB16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B152" t="str">
+        <v>R$ 190.000</v>
+      </c>
+      <c r="C152" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqHgo4BKC3VkEgc6DQbWciHWo_B0VNRoOVcfH9o/whatsappimage2023-07-19at121659jpeg.webp</v>
+      </c>
+      <c r="D152" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F152" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-bonfim-em-santa-cruz-do-sul/LK128</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B153" t="str">
+        <v>R$ 190.000</v>
+      </c>
+      <c r="C153" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsOmmcpmSBXssraDbzJfGk3fonT90WxloWLbPRrQ/whatsappimage2025-01-02at112631jpeg.webp</v>
+      </c>
+      <c r="D153" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F153" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416681</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B154" t="str">
+        <v>R$ 191.000</v>
+      </c>
+      <c r="C154" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OF_DLi1lAVUcleURBZomyE2Y8Z1UMBoZMknvg4/f88a7d0a-ca3c-4cb7-84c9-09102eddd12fjpeg.webp</v>
+      </c>
+      <c r="D154" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F154" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-esmeralda-em-santa-cruz-do-sul/162416642</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B155" t="str">
+        <v>R$ 192.390</v>
+      </c>
+      <c r="C155" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rmjsr4iZ0ixQHw71b44z40g/dsc02910jpg.webp</v>
+      </c>
+      <c r="D155" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F155" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/16241647</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B156" t="str">
+        <v>R$ 194.510</v>
+      </c>
+      <c r="C156" t="str">
+        <v>https://s01.jetimgs.com/tnkeSAcrLcluoxtJtEHLqmICbhM4bQcoMJZSYfMcyfFaVKGI7X6_woUY5rPy8kWC-hEkFYWOFjawyCZs4BEJg2WEngbOv6a_Ti9O8THBWsh9YVAsMaE_tK0/img20201111151037jpg.webp</v>
+      </c>
+      <c r="D156" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F156" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB147</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B157" t="str">
+        <v>R$ 195.000</v>
+      </c>
+      <c r="C157" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Kb_88CrWztrorhrFBQGnrz1ubu5fg/b3be187d-6e64-49f2-84d8-efb84ce60513jpg.webp</v>
+      </c>
+      <c r="D157" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F157" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-margarida-em-santa-cruz-do-sul/T61</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Faxinal</v>
+      </c>
+      <c r="B158" t="str">
+        <v>R$ 195.000</v>
+      </c>
+      <c r="C158" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8BbQXN_6hbTaAgG7Csg3mwDZHQ50T6ZrHcjfAYk/img7596jpeg.webp</v>
+      </c>
+      <c r="D158" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F158" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-faxinal-em-santa-cruz-do-sul/CB310</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B159" t="str">
+        <v>R$ 198.000</v>
+      </c>
+      <c r="C159" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qbpcf6uBEFUVE_JaUWsiohaAvTId0VrNoQmcjuWo/img1843jpeg.webp</v>
+      </c>
+      <c r="D159" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F159" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/CB343</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B160" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C160" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYLl-814rmjtLfOar6hgV2qu3TZaRpag8hw/img20180412091206475jpg.webp</v>
+      </c>
+      <c r="D160" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F160" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/77922</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B161" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C161" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoPcnA2DKtFyamuAFbBY29SDXYvF0Wepo9hW1dfg/img20220512162036jpg.webp</v>
+      </c>
+      <c r="D161" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F161" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB262</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B162" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C162" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAAlnXCHq9FxbjWl6zb9p9CZmVLF0Vh9rgdY4p-Q/img6761jpeg.webp</v>
+      </c>
+      <c r="D162" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F162" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB325</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B163" t="str">
+        <v>R$ 200.000</v>
+      </c>
+      <c r="C163" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5pdn7U8ShFsbPQk7jYZW1HlvE7B1UT9rz95ngy0/1bfe654d-8e02-4d86-b145-b30e35919d4ajpg.webp</v>
+      </c>
+      <c r="D163" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F163" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/MF080</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B164" t="str">
+        <v>R$ 200.000</v>
+      </c>
+      <c r="C164" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3rj-_VhLel0Vu6B7zBZZklfWbK51YkNpaKM10fc/52417639-d212-444a-8c54-c28132ec9fb0jpg.webp</v>
+      </c>
+      <c r="D164" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F164" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-1-quarto-a-venda-e-1-vaga-bairro-distrito-industrial-em-santa-cruz-do-sul/PJ35</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B165" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C165" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c78r5VsqvAZqlBQEIL1_0tXBpw/img20201113102755jpg.webp</v>
+      </c>
+      <c r="D165" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F165" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B166" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C166" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c7-qBXurPfkqyxQHzL1sfKFWoA/img20201113104050jpg.webp</v>
+      </c>
+      <c r="D166" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F166" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB145</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B167" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C167" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rxfpLIrmrihUFPL1vj9rtSw/dsc02910jpg.webp</v>
+      </c>
+      <c r="D167" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F167" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/62167</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B168" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C168" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHjheXMAqC4qqHRh7hWmv0yCZQz50VDNoVgdT-S8/a4bce758-b1fc-48e4-a5b6-a7c2d0654056jpg.webp</v>
+      </c>
+      <c r="D168" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F168" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/PJ51</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B169" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C169" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5mc_3A9EtSoUMgetOxn5xNb5ok91UwBrOU1O5l8/whatsappimage2024-09-10at133848jpeg.webp</v>
+      </c>
+      <c r="D169" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F169" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/162416659</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B170" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C170" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GY_ssB0hLt0o3l0lRUHqbzGipsN4w/72553ad6-c6a7-4f7a-9fd9-a821d45ef9edjpg.webp</v>
+      </c>
+      <c r="D170" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F170" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/162416663</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B171" t="str">
+        <v>R$ 214.650</v>
+      </c>
+      <c r="C171" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8t7qxfor_GarVRQ4gb3JvL66ow/img20210408163946jpg.webp</v>
+      </c>
+      <c r="D171" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F171" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/62416</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B172" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C172" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPm-c1_qhDtromfqShgV2qu0XZars7oa2A/fachadajpg.webp</v>
+      </c>
+      <c r="D172" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F172" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-a-venda-e-1-vaga-bairro-jardim-europa-em-santa-cruz-do-sul/MF259</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Santa Vitória</v>
+      </c>
+      <c r="B173" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C173" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXiehM2-LGurMrBkbTJmWlXd5rL90UHtrg2i4RJU/whatsappimage2023-11-27at1508571jpeg.webp</v>
+      </c>
+      <c r="D173" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F173" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-santa-vitoria-em-santa-cruz-do-sul/162416630</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B174" t="str">
+        <v>R$ 217.830</v>
+      </c>
+      <c r="C174" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rRXoqIufrVRUFWL1pGFfNGQ/dsc02910jpg.webp</v>
+      </c>
+      <c r="D174" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F174" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/41647</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B175" t="str">
+        <v>R$ 219.000</v>
+      </c>
+      <c r="C175" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3unRrODyhTWqe5jkdEc3mxdnkt91VvxoazCpnkg/whatsappimage2023-07-31at1115035jpeg.webp</v>
+      </c>
+      <c r="D175" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F175" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-1-quarto-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale17</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B176" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C176" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHkhLcHqRfp0vTlrihQFaL1iwEfDEg/824eb800-fce6-4e56-b089-40744a78d6b6jpeg.webp</v>
+      </c>
+      <c r="D176" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F176" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-senai-em-santa-cruz-do-sul/62A</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B177" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C177" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsBcuDB4SNFRb83ak1GdWlfaJUzB0TX9rJhCeuZI/casacarlosjpeg.webp</v>
+      </c>
+      <c r="D177" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F177" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/VB42</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B178" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C178" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIFkhAl8S5MvqDKBs6whoU2H3go50TvNr4TQ-tfQ/whatsapp-image-2020-03-07-at-09jpg.webp</v>
+      </c>
+      <c r="D178" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F178" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-universitario-em-santa-cruz-do-sul/MEB02</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B179" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C179" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QMNcnAm6S6sRaDaYaBeipZKjZ1N50UaRrpekBYuQ/aptobarcelonajpeg.webp</v>
+      </c>
+      <c r="D179" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F179" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/VB44</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B180" t="str">
+        <v>R$ 229.000</v>
+      </c>
+      <c r="C180" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjljnreFlSl2kAmh6igc2Sll4EoZ1VLFoSZi3WSk/010jpg.webp</v>
+      </c>
+      <c r="D180" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F180" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/162416657</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B181" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C181" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KbBrcAqxfprvGZ0lBU4lr0xjPAgNg/whatsappimage2021-05-05at160310jpeg.webp</v>
+      </c>
+      <c r="D181" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F181" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-senai-em-santa-cruz-do-sul/RB31</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B182" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C182" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcObQA84a4nVVA4ks1AmoRRaPYwd0UXJrk07m_OQ/whatsappimage2022-10-31at1730371jpeg.webp</v>
+      </c>
+      <c r="D182" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F182" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416572</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B183" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C183" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcAEh7BG6WzsqojkLzCiZ5bnu43F0Tchr7y4hKCE/whatsappimage2023-08-17at101309jpeg.webp</v>
+      </c>
+      <c r="D183" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F183" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-senai-em-santa-cruz-do-sul/val008</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B184" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C184" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QZocmbMFrRas0OvctxV8pmvdvkl90VutoYBUbGuc/img9761jpeg.webp</v>
+      </c>
+      <c r="D184" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F184" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/A121</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B185" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C185" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBrZwCpEzGiq1wlkl6xgX6ieuoqF0W-NocqgjjDY/jpeg1jpg.webp</v>
+      </c>
+      <c r="D185" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F185" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/162416603</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Higienópolis</v>
+      </c>
+      <c r="B186" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C186" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcIawLJ-SVXT0QohkyoaW9CZn4791SOlrP-ZsI50/whatsappimage2023-12-12at105633jpeg.webp</v>
+      </c>
+      <c r="D186" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F186" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-higienopolis-em-santa-cruz-do-sul/LK158</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B187" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C187" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBtf-KxBKhIvsrSD1RDeWkiCZLaB1WCFo6GaGoXk/jpgjpeg.webp</v>
+      </c>
+      <c r="D187" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F187" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/162416676</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B188" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C188" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qrmcm8lhKQjvV7fgkmjhYhWEmzFF1VO5oc5vJlPo/1jpg.webp</v>
+      </c>
+      <c r="D188" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F188" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-independencia-em-santa-cruz-do-sul/FS36</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B189" t="str">
+        <v>R$ 232.000</v>
+      </c>
+      <c r="C189" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqBni847-6ulszZVNAj2CiYHw591WZZoI6mXOdg/terrenohenriqueschuster2jpg.webp</v>
+      </c>
+      <c r="D189" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F189" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-margarida-em-santa-cruz-do-sul/LD07</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B190" t="str">
+        <v>R$ 232.000</v>
+      </c>
+      <c r="C190" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJmfvai6rQ7qqzPe6u2j3GhjW3b51UYhrjMgXXsw/5c1542da-e707-47e0-b869-f040966138a4jfif.webp</v>
+      </c>
+      <c r="D190" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F190" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-sao-joao-em-santa-cruz-do-sul/162416598</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B191" t="str">
+        <v>R$ 233.568</v>
+      </c>
+      <c r="C191" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbb70W-Wq_Plq6hU5J73eLg0QHw/a14jpg.webp</v>
+      </c>
+      <c r="D191" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F191" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/AE126</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B192" t="str">
+        <v>R$ 235.000</v>
+      </c>
+      <c r="C192" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsFhxbA_zGgvqTAFqG2j5qxaoPF51TflrErBxAgA/imagemdowhatsappde2024-06-25as0919439a70e4d21jpg.webp</v>
+      </c>
+      <c r="D192" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F192" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-margarida-em-santa-cruz-do-sul/162416658</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Bom Jesus</v>
+      </c>
+      <c r="B193" t="str">
+        <v>R$ 235.000</v>
+      </c>
+      <c r="C193" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfnnnDME1RXzqMicldB5Wkqm2kkZ0UMZrn_I09LY/whatsappimage2025-02-04at145450jpeg.webp</v>
+      </c>
+      <c r="D193" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F193" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-bom-jesus-em-santa-cruz-do-sul/162416685</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B194" t="str">
+        <v>R$ 238.930</v>
+      </c>
+      <c r="C194" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZ-LR812qQqvWbqChU71L3PUBUMzA/fachadajpg.webp</v>
+      </c>
+      <c r="D194" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F194" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/CB340</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B195" t="str">
+        <v>R$ 239.000</v>
+      </c>
+      <c r="C195" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDhbfLS8FdHq7G5YVu2kYqodZ1QZ1TExr2MEDfls/whatsappimage2023-07-31at111538jpeg.webp</v>
+      </c>
+      <c r="D195" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F195" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B196" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C196" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0HYRrECVQztFQ4DkBcc3SojmnYB1UWhrvDVmpKY/whatsappimage2023-08-28at0942561jpeg.webp</v>
+      </c>
+      <c r="D196" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F196" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/RB60</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B197" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C197" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_vcvAh5EQ0qbsvY0e99n9ai2wo50Uppry2UqJ9s/1f7cb544-b1a8-4d2d-85ce-e9166532865ajpg.webp</v>
+      </c>
+      <c r="D197" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F197" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-ana-nery-em-santa-cruz-do-sul/AE193</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B198" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C198" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QkIHu_Rn7hHy6siB65BbmS4EGM091VpNoaLwdVkY/whatsappimage2024-04-03at103045amjpeg.webp</v>
+      </c>
+      <c r="D198" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F198" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-arroio-grande-em-santa-cruz-do-sul/LK184</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B199" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C199" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjhhxU7mzBVW6YuBqmyfu1HYozI90VJ1rmKg9w8s/vivazjpg.webp</v>
+      </c>
+      <c r="D199" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E199" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F199" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-goias-em-santa-cruz-do-sul/FS23</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B200" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C200" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GagDb_rBFs0faYrSxU5Pr3o7iqaEA/001jpeg.webp</v>
+      </c>
+      <c r="D200" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F200" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-centro-em-santa-cruz-do-sul/DS4064</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B201" t="str">
+        <v>R$ 240.237</v>
+      </c>
+      <c r="C201" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUPgnYk_69epku1nl9J4mVXn44pF1Vdlrn-WOBpY/fachadajpg.webp</v>
+      </c>
+      <c r="D201" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F201" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/MF172</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B202" t="str">
+        <v>R$ 244.330</v>
+      </c>
+      <c r="C202" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rBSQrfLlqixUEo71xGIRhgQ/dsc02910jpg.webp</v>
+      </c>
+      <c r="D202" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F202" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B203" t="str">
+        <v>R$ 244.700</v>
+      </c>
+      <c r="C203" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEDZequ-SarXVY6nV5SdoKxm2HE90WrxoGD9PjzM/whatsappimage2025-02-10at213617jpeg.webp</v>
+      </c>
+      <c r="D203" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F203" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/LK182</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B204" t="str">
+        <v>R$ 245.000</v>
+      </c>
+      <c r="C204" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPnhrd60SKe6HD8OTgdl2VCgBMXVwCfD/img20171003160959057hdrjpg.webp</v>
+      </c>
+      <c r="D204" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F204" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/48006</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B205" t="str">
+        <v>R$ 246.960</v>
+      </c>
+      <c r="C205" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJrme6t511SRrc_hbtIdO9NbYVf50VdhoU6851Bo/01porticoef-1-scaledjpg.webp</v>
+      </c>
+      <c r="D205" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F205" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416562</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B206" t="str">
+        <v>R$ 247.510</v>
+      </c>
+      <c r="C206" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c7915VuqfeZrFBQFdr0RhXODUQ/img20201113101454jpg.webp</v>
+      </c>
+      <c r="D206" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F206" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB142</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B207" t="str">
+        <v>R$ 247.510</v>
+      </c>
+      <c r="C207" t="str">
+        <v>https://s01.jetimgs.com/tnkeSAcrLcluoxtJ8EHLf5GRzus35A6epSY09CfXUL6u8OsRTRX9Rm_6Dd05ZfPJ2uhT4EsCQTTFH-wUHooijJa48ACba0JKzXocYsP9EaFyZgYslis_LeY/img20201111145226jpg.webp</v>
+      </c>
+      <c r="D207" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F207" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB143</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B208" t="str">
+        <v>R$ 249.000</v>
+      </c>
+      <c r="C208" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GbgrMFr5PpKfGYKVBU4uL3d1ot5JA/dscn6979jpg.webp</v>
+      </c>
+      <c r="D208" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F208" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/Ale54</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B209" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C209" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8rrvhyowtNlDcXGqP4edMxviUHfT7Tcf1ZW1ExJ4h_7bJR505GWfGwrNh3Gw3x0aQBgRZG08C2PZJjzMXAEvsld2Zsl3P2u91GBS9i3w5A0VosOyiu9b3oKuU4288/dscn3103jpg.webp</v>
+      </c>
+      <c r="D209" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F209" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-senai-em-santa-cruz-do-sul/MF153</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B210" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C210" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcPYQPBEalMWaMvYtlTnvClmuzZ91UlFof9f94q0/233294ed-9935-4b7f-8477-6abd3f434421jpg.webp</v>
+      </c>
+      <c r="D210" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F210" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/AE165</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B211" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C211" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJrjAXSG69epUExl16wZGKvjpVY51VX9oR7eL0nM/img20220121155421532hdrjpg.webp</v>
+      </c>
+      <c r="D211" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F211" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF101</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B212" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C212" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qnpdw80C1at0kY2kaRMlupTeOIs90VtloYatnXZw/3f308c20-06ff-42f7-8d9c-13bf93ec6c5djpg.webp</v>
+      </c>
+      <c r="D212" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F212" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-renascenca-em-santa-cruz-do-sul/PJ31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Castelo Branco</v>
+      </c>
+      <c r="B213" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C213" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8LbwA9C0FfzVDWkEFVb32oEoTc51TKlrqcAmh-A/8fc7ca9d-be74-4e7e-8324-9a51a632f272jfif.webp</v>
+      </c>
+      <c r="D213" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F213" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-a-venda-bairro-castelo-branco-em-santa-cruz-do-sul/03600</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B214" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C214" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QLuaQ41GFNPWt_fc7C55Ja6n3ko90TsdrNWidO90/casaaajfif.webp</v>
+      </c>
+      <c r="D214" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F214" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-alianca-em-santa-cruz-do-sul/Val33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B215" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C215" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3thQHJ-6mrRULQErOpfHq2Y51HB1V3trvg2viUM/whatsappimage2024-07-29at221655jpeg.webp</v>
+      </c>
+      <c r="D215" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F215" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-3-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/ANG035</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B216" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C216" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8BhQLFH62spaQ1hrura3JZaIM3F0U85rEPtHVys/whatsappimage2024-07-30at1924271jpeg.webp</v>
+      </c>
+      <c r="D216" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F216" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/ANG037</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B217" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C217" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7rdGKlG1NQRKswn7zTlnZfnWkq50UJtrq2kbaP4/whatsappimage2024-07-27at151840jpeg.webp</v>
+      </c>
+      <c r="D217" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F217" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/AN43</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B218" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C218" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDpnmXJhFu8UUjVh1m9f5Uuh2Ex90X0NoEFu_vTQ/whatsappimage2023-08-28at0942561jpeg.webp</v>
+      </c>
+      <c r="D218" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F218" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/RB59</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B219" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C219" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_tYgXKB1-kqs4um6xclGhRjmlb91UbNoY-1J_Xo/whatsappimage2021-10-28at150355jpeg.webp</v>
+      </c>
+      <c r="D219" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F219" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/FT043</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Margarida - Aurora</v>
+      </c>
+      <c r="B220" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C220" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIGFm3CGrSzq0vVl7iikoKuHnA051UMlr3SISH78/whatsappimage2023-07-05at160047jpeg.webp</v>
+      </c>
+      <c r="D220" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F220" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-margarida-aurora-em-santa-cruz-do-sul/LK127</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B221" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C221" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYKYe7JFKNKo6gmB7jclZ21bX3EF1TB9r-OnOOGU/001jpeg.webp</v>
+      </c>
+      <c r="D221" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F221" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/DS003</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B222" t="str">
+        <v>R$ 259.000</v>
+      </c>
+      <c r="C222" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnvjOU5DFG7s1O7Zb5d5PiyBoVMZ1WQRoyCleINQ/whatsappimage2024-03-28at161439jpeg.webp</v>
+      </c>
+      <c r="D222" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F222" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416654</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B223" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C223" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYFdfEr6KFNzacumbtBbXFCjmU650UHlrowk-6tw/whatsappimage2024-03-05at163602jpeg.webp</v>
+      </c>
+      <c r="D223" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F223" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/FS16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B224" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C224" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXuAxotnFlHy1HOgMW1lpRVbowqZ1VXlroMzlUQs/terrenoruadinamarcajpeg.webp</v>
+      </c>
+      <c r="D224" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F224" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/VB28</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Vila Schultz</v>
+      </c>
+      <c r="B225" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C225" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAADRUi5Etfwbm9isCjn2qrmOw9F0VCxoI5eHVX4/whatsappimage2024-06-06at120430jpeg.webp</v>
+      </c>
+      <c r="D225" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F225" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-vila-schultz-em-santa-cruz-do-sul/Val32</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B226" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C226" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfjlvkxHySrrlQ7YVCmZpxRaO3QF0VdhrtDA3N0g/51dd9874-cdd2-4065-9782-bf5dd8d9d400jpg.webp</v>
+      </c>
+      <c r="D226" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F226" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF265</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B227" t="str">
+        <v>R$ 262.000</v>
+      </c>
+      <c r="C227" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIIlxchjFwzzkgpiMSscpRZaHLVB0VXdoaCaRk9A/14-portaria-parquedasoliveirasjpg.webp</v>
+      </c>
+      <c r="D227" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E227" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F227" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/MF233</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B228" t="str">
+        <v>R$ 264.000</v>
+      </c>
+      <c r="C228" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3pg-HKGaA7xss6n0DOmYq6bXHYZ1XEpoqhXrlvM/whatsappimage2024-08-21at2015546jpeg.webp</v>
+      </c>
+      <c r="D228" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F228" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/AN22</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B229" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C229" t="str">
+        <v>https://s01.jetimgs.com/tnkeRxUvLclyoxtNjMVBnlezXJLG3iub4acxNJse1ezScDjgvKFj4xQg3PIdutNczuuE_wfNCMG7SJjABYWvXMf84sBzcPCswCicBq2ZYRv3pOpE2YUSq1ymjMVFVD6qFw/dsc03306jpg.webp</v>
+      </c>
+      <c r="D229" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F229" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-6-vagas-bairro-alianca-em-santa-cruz-do-sul/MF019</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B230" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C230" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAHfeotA7a0WkzOCsumfZ9OenPDF1UM1rqctCSzU/whatsappimage2023-08-16at100342jpeg.webp</v>
+      </c>
+      <c r="D230" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E230" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F230" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-centro-em-santa-cruz-do-sul/val006</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B231" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C231" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDmin7U5rBT1t8hZqBNhmeulYQoB0UcNrHn93p-0/a97a91e1-f3ce-4d64-bc7b-9f2533c29901jpg.webp</v>
+      </c>
+      <c r="D231" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E231" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F231" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/MF241</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B232" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C232" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEHnHbdErdQS7veAbilfpSpmoTb91UbNropQnbrc/whatsappimage2025-02-15at1000399jpeg.webp</v>
+      </c>
+      <c r="D232" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E232" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F232" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/PAT004</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Castelo Branco</v>
+      </c>
+      <c r="B233" t="str">
+        <v>R$ 266.000</v>
+      </c>
+      <c r="C233" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Pevc5n1al20gqFU7Wf2Wre4HB50W1JoAWt_dNM/whatsappimage2024-02-07at080528jpeg.webp</v>
+      </c>
+      <c r="D233" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E233" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F233" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-castelo-branco-em-santa-cruz-do-sul/LK169</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B234" t="str">
+        <v>R$ 269.000</v>
+      </c>
+      <c r="C234" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHtY_syAz5GulciGtBR_Ok-nmUy50WHdo5fz-B9k/8bb3c980-fb58-4c73-bcd5-48aecffec982jpg.webp</v>
+      </c>
+      <c r="D234" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E234" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F234" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/JS026</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B235" t="str">
+        <v>R$ 269.000</v>
+      </c>
+      <c r="C235" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXgFnIzgFVYWUowkLuz7m1BkHraZ1XthoyRiZI-0/img2639jpeg.webp</v>
+      </c>
+      <c r="D235" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E235" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F235" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/JS027</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B236" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C236" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXlfQ_J7ldHxUrKm1DaioU4eJY3F1U4xr5Ji7Q9o/17abe718-bed9-489c-b7a9-61181eff816cjpg.webp</v>
+      </c>
+      <c r="D236" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E236" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F236" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-bonfim-em-santa-cruz-do-sul/MF160</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B237" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C237" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEIGQ0iCSG2ubgpj6m8gmJWbpHB90W-prkbhy6yE/whatsappimage2024-03-20at180155jpeg.webp</v>
+      </c>
+      <c r="D237" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E237" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F237" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/MF226</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B238" t="str">
+        <v>R$ 271.850</v>
+      </c>
+      <c r="C238" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJpbebTGrCwU7cxgtzIhJ64gXrMF0VPloUR6Eqf0/652bc486-bced-4f3e-a582-e9cbfd466bfajpg.webp</v>
+      </c>
+      <c r="D238" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E238" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F238" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/JS79</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B239" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C239" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GZhDN80hSU0o3kqShQ4hL04CvqSNA/jpg19jpg.webp</v>
+      </c>
+      <c r="D239" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E239" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F239" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/162416638</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B240" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C240" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYCjADdjyC0pKO1lqBNYuRWb3VXB0Ux5rpiHj39k/terrenobelleville4jpeg.webp</v>
+      </c>
+      <c r="D240" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E240" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F240" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB39</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B241" t="str">
+        <v>R$ 277.000</v>
+      </c>
+      <c r="C241" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4BjfDJjllAsszIgsxIjXVWhXYnF1UExrtfM69k4/whatsappimage2024-11-05at170117jpeg.webp</v>
+      </c>
+      <c r="D241" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E241" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F241" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale55</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B242" t="str">
+        <v>R$ 278.000</v>
+      </c>
+      <c r="C242" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcODh3eEKRIRNQ7lkFRmXa3lYgx90VPdoLAdYtnc/whatsappimage2024-07-24at1133182jpeg.webp</v>
+      </c>
+      <c r="D242" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E242" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F242" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/ANG029</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B243" t="str">
+        <v>R$ 279.000</v>
+      </c>
+      <c r="C243" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUKdvE5hr--SrOgZtRNgXS7f2YsB0VkprgYsdmOo/whatsappimage2023-01-03at0957202jpeg.webp</v>
+      </c>
+      <c r="D243" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F243" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/BM93</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B244" t="str">
+        <v>R$ 279.125</v>
+      </c>
+      <c r="C244" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbb70W6Rq_QcKlBQ5dL3ZUPJwCw/j5jardimeuropajpg.webp</v>
+      </c>
+      <c r="D244" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F244" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/JS906</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B245" t="str">
+        <v>R$ 279.567</v>
+      </c>
+      <c r="C245" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZhDV-URFqqHbhqVRQ-xL31d7wuGQ/fachadajpg.webp</v>
+      </c>
+      <c r="D245" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E245" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F245" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/MF174</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B246" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C246" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd_rCxiQBKZurA-GwZRQcZbjKym_2q_i8yb1bBTEDhWYNMs/img20221206181108917jpg.webp</v>
+      </c>
+      <c r="D246" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F246" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/LK77</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B247" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C247" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHmkw3M50G71lbLYExCc2K3n4Q651UBpriqEb214/whatsappimage2023-01-16at095746jpeg.webp</v>
+      </c>
+      <c r="D247" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E247" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F247" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/LK82</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Germânia</v>
+      </c>
+      <c r="B248" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C248" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0CiRrd_LY7VrDOg6FWbX5Sf4vKd0TAxrxXyVqyY/88cbc5e0-5a7f-48fa-b377-fd8f8c087279jfif.webp</v>
+      </c>
+      <c r="D248" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E248" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F248" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-germania-em-santa-cruz-do-sul/162416596</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B249" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C249" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OY_sp5rmrv1HaeryxQEXr1ordDbTQ/whatsappimage2021-06-09at1153211jpeg.webp</v>
+      </c>
+      <c r="D249" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F249" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/03601</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Vila Schultz</v>
+      </c>
+      <c r="B250" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C250" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcCAQIk4rVXqlenZVBDiWatiuvR90UAhoRcG07mA/img4207jpeg.webp</v>
+      </c>
+      <c r="D250" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E250" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F250" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-3-vagas-bairro-vila-schultz-em-santa-cruz-do-sul/CS105</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B251" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C251" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0Pmwou-btUvaA9j6Wpju9CeYo0d1U2RrHadRZts/whatsappimage2024-07-02at0918231jpeg.webp</v>
+      </c>
+      <c r="D251" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E251" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F251" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-bairro-centro-em-santa-cruz-do-sul/Mb22</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B252" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C252" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QZoEvctnF42vNfJctjWnmK_mGPU90XcNo0KiA7bQ/img20180728161801828jpg.webp</v>
+      </c>
+      <c r="D252" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F252" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/162416650</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Schulz</v>
+      </c>
+      <c r="B253" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C253" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBtmRUkDzRNVEcxc6DdgZlCfX3f90WwtrnQTk5gI/site1jpg.webp</v>
+      </c>
+      <c r="D253" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E253" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F253" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-schulz-em-santa-cruz-do-sul/MF267</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B254" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C254" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhDcGV5CXm3M5Cxkn-zwE_823B/img20210414161750jpg.webp</v>
+      </c>
+      <c r="D254" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E254" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F254" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/CB113</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B255" t="str">
+        <v>R$ 287.000</v>
+      </c>
+      <c r="C255" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhcp-UBXvqPXi16hU5Wr3JLdWvSw/whatsappimage2021-04-07at1457321jpeg.webp</v>
+      </c>
+      <c r="D255" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E255" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F255" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/RB25</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B256" t="str">
+        <v>R$ 288.000</v>
+      </c>
+      <c r="C256" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJpkfK-FyRAXqfAmVS9k2FdlpvTF0WhVrhdgxZi0/whatsappimage2024-04-18at1356162jpeg.webp</v>
+      </c>
+      <c r="D256" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E256" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F256" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ANG007</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B257" t="str">
+        <v>R$ 289.000</v>
+      </c>
+      <c r="C257" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8IjHbe47e1UtPQAqdbfZm4AZ7fF1V5podgrOnhU/img-20250103-wa0004jpg.webp</v>
+      </c>
+      <c r="D257" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E257" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F257" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/BR006</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Zona Rural</v>
+      </c>
+      <c r="B258" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C258" t="str">
+        <v>https://s01.jetimgs.com/tnkeSI8oLcluoxvThBfaLQyEHFLW0x2Rejo1tC81xpeAn0sEPWr45oVYgzt0pUObE1X7dFTpkBR-lljt-lbZBe8lNJHcjigpnettrOlypPKSesl23lVmpF2p9sVZy23vTQ/dsc2159jpg.webp</v>
+      </c>
+      <c r="D258" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E258" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F258" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-zona-rural-em-santa-cruz-do-sul/6926</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B259" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C259" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QhuBxDGHKRHrq-qnti2imSyd2tf91V5RoaU3F_Uc/img4321jpg.webp</v>
+      </c>
+      <c r="D259" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E259" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F259" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/JB10</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B260" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C260" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QvtavAy4Lg3RLs3hq6ynX9JavM450Ub9r-jh5dq8/j21jpg.webp</v>
+      </c>
+      <c r="D260" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E260" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F260" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-santo-inacio-em-santa-cruz-do-sul/FS32</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B261" t="str">
+        <v>R$ 293.000</v>
+      </c>
+      <c r="C261" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KiwK27lg0WVDGfU2okn-7n4QsF1Uulr6Q3OvRY/8443c42c-d89a-45fa-b6ce-d90e10176f40jpg.webp</v>
+      </c>
+      <c r="D261" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E261" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F261" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/JS769</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B262" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C262" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMU9TM8KxpIm_kZMqs9yEFc1Ru-Pn0sERGrREaUAObabWuBwPSQTtB4MRcbQNqBB9bRZrOtF8jAvuuVp_TN8GKd6CfbTpBOhSZnZRmK1zjzzZctt/imagensimoveisfoto197716071jpg.webp</v>
+      </c>
+      <c r="D262" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E262" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F262" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/AE203</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B263" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C263" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUBfGDB6LxKT07KZ7OheXBdYuEjB1TSdrAkKCflk/imagensimoveisfoto197716072jpg.webp</v>
+      </c>
+      <c r="D263" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E263" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F263" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/AE204</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B264" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C264" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QhgAfCm71xUrkc_dUbSj5FKaZUwd1VDZrpt0WaUg/cecbfd8c-5cfc-446f-aeb6-430ce2b89364jpg.webp</v>
+      </c>
+      <c r="D264" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E264" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F264" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/MF250</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B265" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C265" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5mghArmFO-QrDaittIgW6icpU5F1Vfhrp5h19oI/jpgjfif.webp</v>
+      </c>
+      <c r="D265" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E265" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F265" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/val37</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B266" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C266" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qhlhh_a9FSv364vYtNWdPa5bmo3B0VOZoKvy8i2Y/jpgjfif.webp</v>
+      </c>
+      <c r="D266" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E266" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F266" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/val38</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B267" t="str">
+        <v>R$ 297.359</v>
+      </c>
+      <c r="C267" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDjk-7Z_KhLWb_OgsxVe589iprXB0Umxr3P0loiU/86515608-e001-4e70-a373-4b32eee44a30jpeg.webp</v>
+      </c>
+      <c r="D267" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E267" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F267" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/CB287</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B268" t="str">
+        <v>R$ 297.800</v>
+      </c>
+      <c r="C268" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QECfxk4FyW_QsvWGthSn5Czh4rU91VtdoTg_P53A/whatsappimage2024-09-04at1123152jpeg.webp</v>
+      </c>
+      <c r="D268" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E268" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F268" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/LK203</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B269" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C269" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZgDN90WuTq_Qe0yhQ5A73XwcqfmA/img20220121155421532hdrjpg.webp</v>
+      </c>
+      <c r="D269" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E269" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F269" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF227</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B270" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C270" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_lhwrOBk6ns0A1ctumcXqnbYg1B0VnBrlAWdeL0/whatsappimage2024-01-19at0953112jpeg.webp</v>
+      </c>
+      <c r="D270" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E270" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F270" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-avenida-em-santa-cruz-do-sul/LK164</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B271" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C271" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqgQAuFyAipq8xmaxWYpW1YGHQ91VaFrntcMtCQ/whatsappimage2025-01-20at1144253jpeg.webp</v>
+      </c>
+      <c r="D271" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E271" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F271" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/VB62</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B272" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C272" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAAjvEhGVxKobM4CqCum3kokpw1F0TlNrJh4vCq8/165d66c0-d587-4c57-a7ff-05da319f0f78jpg.webp</v>
+      </c>
+      <c r="D272" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E272" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F272" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF264</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B273" t="str">
+        <v>R$ 299.000</v>
+      </c>
+      <c r="C273" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7mGwLCFqdAr6jQGamyiW66Dmzcd1V9JoWijUZPo/1-externa01baixajpg.webp</v>
+      </c>
+      <c r="D273" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E273" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F273" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-universitario-em-santa-cruz-do-sul/B001</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B274" t="str">
+        <v>R$ 299.000</v>
+      </c>
+      <c r="C274" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7vY-3OHza1XkPJYrBNcmC6cm4zF1UBZr_uzZl4w/whatsappimage2024-11-07at145114jpeg.webp</v>
+      </c>
+      <c r="D274" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E274" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F274" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB53</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B275" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C275" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5nbh684z-ys7_Dn1-9ipEmEvNQd1V9RoIq-fCUc/whatsappimage2022-01-14at0945083jpeg.webp</v>
+      </c>
+      <c r="D275" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E275" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F275" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-margarida-em-santa-cruz-do-sul/FT028</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B276" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C276" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsDbefdEkmjWbAlkUCljoJLj246B0Uw1rHTU9y2A/61061720-84d4-480b-9a4b-021dde552239jpg.webp</v>
+      </c>
+      <c r="D276" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E276" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F276" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-universitario-em-santa-cruz-do-sul/JS591</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B277" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C277" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoKihM7_0-6UrbHhUtCdGi_aZk_50Ttpr8RoCYS8/whatsappimage2023-09-05at1044441jpeg.webp</v>
+      </c>
+      <c r="D277" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E277" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F277" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/LK142</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B278" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C278" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEJnxEyA11ATETJia1BeYRahuoid0UPxoZqd2p0w/img2071jpeg.webp</v>
+      </c>
+      <c r="D278" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E278" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="F278" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/CB345</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B279" t="str">
+        <v>R$ 80.000</v>
+      </c>
+      <c r="C279" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
+      </c>
+      <c r="D279" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E279" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F279" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B280" t="str">
+        <v>R$ 85.900</v>
+      </c>
+      <c r="C280" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
+      </c>
+      <c r="D280" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E280" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F280" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B281" t="str">
+        <v>R$ 96.000</v>
+      </c>
+      <c r="C281" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
+      </c>
+      <c r="D281" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E281" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F281" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Sob consulta</v>
+      </c>
+      <c r="C282" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
+      </c>
+      <c r="D282" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E282" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F282" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B283" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C283" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
+      </c>
+      <c r="D283" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E283" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F283" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B284" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C284" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
+      </c>
+      <c r="D284" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E284" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F284" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Avenida, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Por: R$ 139.000</v>
+      </c>
+      <c r="C285" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
+      </c>
+      <c r="D285" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E285" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F285" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Germânia, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B286" t="str">
+        <v>R$ 145.000</v>
+      </c>
+      <c r="C286" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
+      </c>
+      <c r="D286" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E286" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F286" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B287" t="str">
+        <v>R$ 150.000</v>
+      </c>
+      <c r="C287" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
+      </c>
+      <c r="D287" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E287" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F287" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B288" t="str">
+        <v>R$ 160.000</v>
+      </c>
+      <c r="C288" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
+      </c>
+      <c r="D288" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E288" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F288" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B289" t="str">
+        <v>R$ 165.000</v>
+      </c>
+      <c r="C289" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
+      </c>
+      <c r="D289" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E289" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F289" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Germânia, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B290" t="str">
+        <v>R$ 170.000</v>
+      </c>
+      <c r="C290" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
+      </c>
+      <c r="D290" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E290" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F290" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B291" t="str">
+        <v>R$ 170.000</v>
+      </c>
+      <c r="C291" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
+      </c>
+      <c r="D291" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E291" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F291" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Independência, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B292" t="str">
+        <v>R$ 181.000</v>
+      </c>
+      <c r="C292" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
+      </c>
+      <c r="D292" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E292" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F292" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B293" t="str">
+        <v>R$ 185.000</v>
+      </c>
+      <c r="C293" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
+      </c>
+      <c r="D293" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E293" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F293" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B294" t="str">
+        <v>R$ 195.000</v>
+      </c>
+      <c r="C294" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
+      </c>
+      <c r="D294" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E294" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F294" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Sob consulta</v>
+      </c>
+      <c r="C295" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
+      </c>
+      <c r="D295" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E295" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F295" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B296" t="str">
+        <v>R$ 195.000</v>
+      </c>
+      <c r="C296" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
+      </c>
+      <c r="D296" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E296" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F296" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B297" t="str">
+        <v>R$ 200.000</v>
+      </c>
+      <c r="C297" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/493327/i3AR986Vew7F5q431Ks11_49332767363ecbac244_p.jpg</v>
+      </c>
+      <c r="D297" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E297" t="str">
+        <v>JK/Kitnet</v>
+      </c>
+      <c r="F297" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B298" t="str">
+        <v>R$ 202.000</v>
+      </c>
+      <c r="C298" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/644042/in49gLj7x9148H362rc_64404266ec2f526a6e3_p.jpg</v>
+      </c>
+      <c r="D298" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E298" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F298" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B299" t="str">
+        <v>R$ 202.000</v>
+      </c>
+      <c r="C299" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/245743/i875gGX8qS5lRB423qQ2u_245743661e6dc89e975_p.jpg</v>
+      </c>
+      <c r="D299" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E299" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F299" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B300" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C300" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680202/iP1M3x6KE_680202679d2a927f938_p.jpg</v>
+      </c>
+      <c r="D300" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E300" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F300" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B301" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C301" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680129/iMz4gS6_680129679ce08634d64_p.jpg</v>
+      </c>
+      <c r="D301" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E301" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F301" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B302" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C302" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/241049/ihA0l35x814B3W22_24104962c71248720fb_p.jpg</v>
+      </c>
+      <c r="D302" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E302" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F302" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B303" t="str">
+        <v>R$ 213.000</v>
+      </c>
+      <c r="C303" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/522592/iv1G7gt4i74wZOPFFlOLz_522592664372263d4a5_p.jpg</v>
+      </c>
+      <c r="D303" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E303" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F303" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Goiás, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B304" t="str">
+        <v>R$ 213.000</v>
+      </c>
+      <c r="C304" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/420660/iiG8tP9qJB3A6yU9V15_4206606494812a624b5_p.jpg</v>
+      </c>
+      <c r="D304" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E304" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F304" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B305" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C305" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/130672/i934cr_1306725f889f100c157_p.jpg</v>
+      </c>
+      <c r="D305" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E305" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F305" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B306" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C306" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/126418/iH5qj85afh66e4_126418613269229e2cc_p.jpg</v>
+      </c>
+      <c r="D306" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E306" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F306" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B307" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C307" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/647449/izkV3adyf4G99_647449671beeb228e45_p.jpg</v>
+      </c>
+      <c r="D307" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E307" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F307" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B308" t="str">
+        <v>R$ 228.000</v>
+      </c>
+      <c r="C308" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/207229/iPV7pzen_207229614a233242738_p.jpg</v>
+      </c>
+      <c r="D308" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E308" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F308" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B309" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C309" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/678706/iU53s1N2_6787066797ca434733f_p.jpg</v>
+      </c>
+      <c r="D309" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E309" t="str">
+        <v>JK/Kitnet</v>
+      </c>
+      <c r="F309" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B310" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C310" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/470289/i1eo4V96q9jM6W954b472_470289655f9f55d021c_p.jpg</v>
+      </c>
+      <c r="D310" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E310" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F310" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B311" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C311" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118082/i4H67weEtdJQI1_1180826026e062d8b65_p.jpg</v>
+      </c>
+      <c r="D311" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E311" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F311" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B312" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C312" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680324/i8xnd_68032467a0b56d7cfe4_p.jpg</v>
+      </c>
+      <c r="D312" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E312" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F312" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B313" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C313" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/656283/iHZ97Lp1GY159Bq_6562836741d5b588135_p.jpg</v>
+      </c>
+      <c r="D313" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E313" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F313" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Sob consulta</v>
+      </c>
+      <c r="C314" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/644518/i356EXgHDF17f_64451866f45291e5e69_p.jpg</v>
+      </c>
+      <c r="D314" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E314" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F314" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B315" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C315" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/641500/i52t46IJ_64150066d871cbcf7d6_p.jpg</v>
+      </c>
+      <c r="D315" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E315" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F315" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B316" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C316" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/306472/iK48rz7w_3064726411f45819e81_p.jpg</v>
+      </c>
+      <c r="D316" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E316" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F316" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B317" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C317" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/276773/i72555yGHFP735L3ePmv_2767736781744d0748c_p.jpg</v>
+      </c>
+      <c r="D317" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E317" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F317" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B318" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C318" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/208124/i3111I0T73a5_208124615f5f2c71c9a_p.jpg</v>
+      </c>
+      <c r="D318" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E318" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F318" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B319" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C319" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/136729/iJy86qwr_1367296026de841c1e7_p.jpg</v>
+      </c>
+      <c r="D319" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E319" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F319" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B320" t="str">
+        <v>R$ 244.445</v>
+      </c>
+      <c r="C320" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/474489/iL7274uu_4744896564fde223663_p.jpg</v>
+      </c>
+      <c r="D320" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E320" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F320" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B321" t="str">
+        <v>R$ 245.000</v>
+      </c>
+      <c r="C321" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/641116/i33v2U13_64111666d708856b928_p.jpg</v>
+      </c>
+      <c r="D321" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E321" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F321" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B322" t="str">
+        <v>R$ 245.000</v>
+      </c>
+      <c r="C322" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/137684/i307L020zH921aG_1376846054a1157979b_p.jpg</v>
+      </c>
+      <c r="D322" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E322" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F322" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B323" t="str">
+        <v>R$ 248.000</v>
+      </c>
+      <c r="C323" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/217027/i87513KMaB_21702762097efa8e8c1_p.jpg</v>
+      </c>
+      <c r="D323" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E323" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F323" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Avenida, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B324" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C324" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/673482/im9L1q_6734826759ca16c781b_p.jpg</v>
+      </c>
+      <c r="D324" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E324" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F324" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Goiás, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B325" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C325" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118123/i2Ew22nY8_1181235decfb2784103_p.jpg</v>
+      </c>
+      <c r="D325" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E325" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F325" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Independência, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B326" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C326" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/203610/i79951b3O06pcryxi_20361061006ecb78b3a_p.jpg</v>
+      </c>
+      <c r="D326" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E326" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F326" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B327" t="str">
+        <v>R$ 258.000</v>
+      </c>
+      <c r="C327" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/650544/iNrXPjX7sjooV7spZhH_65054467129d296c1ae_p.jpg</v>
+      </c>
+      <c r="D327" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E327" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F327" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Avenida, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B328" t="str">
+        <v>Por: R$ 260.000</v>
+      </c>
+      <c r="C328" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/522711/iZ7y77t_52271166451ef0dc082_p.jpg</v>
+      </c>
+      <c r="D328" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E328" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F328" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B329" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C329" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/519815/i61G1dgc_5198156621824b2e1d4_p.jpg</v>
+      </c>
+      <c r="D329" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E329" t="str">
+        <v>Casa Geminada</v>
+      </c>
+      <c r="F329" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Goiás, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B330" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C330" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496719/i5C1N_49671965a5c29312f05_p.jpg</v>
+      </c>
+      <c r="D330" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E330" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F330" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Goiás, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B331" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C331" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/434705/iAZ3966W3tF238033cL_43470564c95734874ab_p.jpg</v>
+      </c>
+      <c r="D331" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E331" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F331" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B332" t="str">
+        <v>R$ 266.000</v>
+      </c>
+      <c r="C332" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/675283/i7u9x375395_675283677bdb295b80e_p.jpg</v>
+      </c>
+      <c r="D332" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E332" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F332" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B333" t="str">
+        <v>R$ 266.000</v>
+      </c>
+      <c r="C333" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/640478/ivm88Y16xG99431Lg_64047866d201653940e_p.jpg</v>
+      </c>
+      <c r="D333" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E333" t="str">
+        <v>Casa Duplex</v>
+      </c>
+      <c r="F333" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Independência, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B334" t="str">
+        <v>R$ 268.395</v>
+      </c>
+      <c r="C334" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322818/ik87hiJ101_32281864481990646f5_p.jpg</v>
+      </c>
+      <c r="D334" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E334" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F334" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B335" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C335" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/653877/i857CL7_653877675736524a029_p.jpg</v>
+      </c>
+      <c r="D335" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E335" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F335" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B336" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C336" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643298/i7612_64329866e48ca78bd99_p.jpg</v>
+      </c>
+      <c r="D336" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E336" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F336" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B337" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C337" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/504960/iP6T8221neUl234w4U74O_50496065ce62e481825_p.jpg</v>
+      </c>
+      <c r="D337" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E337" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F337" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B338" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C338" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/474731/i7T46388hM7g98359g79W_4747316567446dad5c9_p.jpg</v>
+      </c>
+      <c r="D338" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E338" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F338" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B339" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C339" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/201562/iClE5770R9_20156260d49e27067dd_p.jpg</v>
+      </c>
+      <c r="D339" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E339" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F339" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B340" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C340" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/682154/i98691ST2sN8MdZ_68215467ae2a3c06ea1_p.jpg</v>
+      </c>
+      <c r="D340" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E340" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F340" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B341" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C341" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/259126/iM93gFi39T96p68X_25912663923709828a1_p.jpg</v>
+      </c>
+      <c r="D341" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E341" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F341" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B342" t="str">
+        <v>R$ 277.000</v>
+      </c>
+      <c r="C342" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/611368/i658Sn25817LoReyfv_61136866aa335db1e4f_p.jpg</v>
+      </c>
+      <c r="D342" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E342" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F342" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B343" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C343" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/524597/iSjPOe4M57_5245976647a8c9b2657_p.jpg</v>
+      </c>
+      <c r="D343" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E343" t="str">
+        <v>Casa Geminada</v>
+      </c>
+      <c r="F343" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B344" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C344" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/524593/i2618i4G8BeVth2f86F_5245936647a63d4d2d9_p.jpg</v>
+      </c>
+      <c r="D344" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E344" t="str">
+        <v>Casa Geminada</v>
+      </c>
+      <c r="F344" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B345" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C345" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/516465/i9789PCy98_5164656605753399745_p.jpg</v>
+      </c>
+      <c r="D345" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E345" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F345" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B346" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C346" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/469644/iR4gmY9_4696446539a6baa92b4_p.jpg</v>
+      </c>
+      <c r="D346" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E346" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F346" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B347" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C347" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/304480/i14M3dXlQQ_30448063fd1797cffa1_p.jpg</v>
+      </c>
+      <c r="D347" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E347" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F347" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B348" t="str">
+        <v>R$ 281.637</v>
+      </c>
+      <c r="C348" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/258302/iM58nR_2583026390c1bbe5c23_p.jpg</v>
+      </c>
+      <c r="D348" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E348" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F348" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Goiás, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B349" t="str">
+        <v>R$ 289.864</v>
+      </c>
+      <c r="C349" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/212616/itI9B7631gp_2126166622d479d58af_p.jpg</v>
+      </c>
+      <c r="D349" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E349" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F349" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B350" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C350" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/506979/izZVTi776Cy19_50697965dd25cfd7780_p.jpg</v>
+      </c>
+      <c r="D350" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E350" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F350" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B351" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C351" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/233561/isj4D850Tm7_23356162571be0a3f03_p.jpg</v>
+      </c>
+      <c r="D351" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E351" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F351" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B352" t="str">
+        <v>R$ 293.000</v>
+      </c>
+      <c r="C352" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/514548/iej4G_51454865f47609d05d2_p.jpg</v>
+      </c>
+      <c r="D352" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E352" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F352" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B353" t="str">
+        <v>Por: R$ 295.000</v>
+      </c>
+      <c r="C353" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/464741/i0248aTn5FPitFl84_464741651041c325d61_p.jpg</v>
+      </c>
+      <c r="D353" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E353" t="str">
+        <v>Loja</v>
+      </c>
+      <c r="F353" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B354" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C354" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/639579/i2vf83YD6Uy_63957966c8e9cfcfb9a_p.jpg</v>
+      </c>
+      <c r="D354" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E354" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F354" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Renascença, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B355" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C355" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/307892/i4880cVr4Z_307892641de326af078_p.jpg</v>
+      </c>
+      <c r="D355" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E355" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F355" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Germânia, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B356" t="str">
+        <v>R$ 297.920</v>
+      </c>
+      <c r="C356" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/439487/iN621r4866CF6k4_43948764f08a6b9f5e2_p.jpg</v>
+      </c>
+      <c r="D356" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E356" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F356" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Avenida, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B357" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C357" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496750/iAX34189D7B8g6kro_49675065a6865d5ac1b_p.jpg</v>
+      </c>
+      <c r="D357" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E357" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F357" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B358" t="str">
+        <v>R$ 299.000</v>
+      </c>
+      <c r="C358" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/238288/i6FkNn9Cn_238288629e1baf50f30_p.jpg</v>
+      </c>
+      <c r="D358" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E358" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F358" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B359" t="str">
+        <v>R$ 299.055</v>
+      </c>
+      <c r="C359" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422340/ikp231htsO127_42234064a4662866da0_p.jpg</v>
+      </c>
+      <c r="D359" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E359" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F359" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B360" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C360" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/439386/i1a98o5nx571w_43938665849f2adefa2_p.jpg</v>
+      </c>
+      <c r="D360" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E360" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F360" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B361" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C361" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/362674/iRnNz0Uf7MA80y80fOK7_36267464877467b21f8_p.jpg</v>
+      </c>
+      <c r="D361" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E361" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F361" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Centro, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B362" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C362" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/306285/i52jn7n3Uc6Y_3062856410bb23a4798_p.jpg</v>
+      </c>
+      <c r="D362" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E362" t="str">
+        <v>Sala/Conjunto Comercial</v>
+      </c>
+      <c r="F362" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B363" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C363" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/305056/i7122n51T6_3050566401f9a2c602b_p.jpg</v>
+      </c>
+      <c r="D363" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E363" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F363" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Universitário, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B364" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C364" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/253171/iy479d_253171635bdc75d7ebe_p.jpg</v>
+      </c>
+      <c r="D364" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E364" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F364" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Santo Inácio, Santa Cruz Do Sul</v>
+      </c>
+      <c r="B365" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C365" t="str">
+        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117517/i32I2_1175175ddfd7141ba8f_p.jpg</v>
+      </c>
+      <c r="D365" t="str">
+        <v>creditoreal</v>
+      </c>
+      <c r="E365" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F365" t="str">
+        <v>https://www.creditoreal.com.br</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B366" t="str">
+        <v>R$ 205.000,00</v>
+      </c>
+      <c r="C366" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005025_86548.jpg</v>
+      </c>
+      <c r="D366" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E366" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F366" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005025</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B367" t="str">
+        <v>R$ 210.000,00</v>
+      </c>
+      <c r="C367" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1447901_138120.jpg</v>
+      </c>
+      <c r="D367" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E367" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F367" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/1447901</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B368" t="str">
+        <v>R$ 215.000,00</v>
+      </c>
+      <c r="C368" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005026_86549.jpg</v>
+      </c>
+      <c r="D368" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E368" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F368" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005026</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B369" t="str">
+        <v>R$ 224.160,87</v>
+      </c>
+      <c r="C369" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012361_159405.jpg</v>
+      </c>
+      <c r="D369" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E369" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F369" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Renascenca/Santa-Cruz-Do-Sul/RS/10012361</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B370" t="str">
+        <v>R$ 230.000,00</v>
+      </c>
+      <c r="C370" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/158601_131433.jpg</v>
+      </c>
+      <c r="D370" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E370" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F370" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/158601</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B371" t="str">
+        <v>R$ 240.000,00</v>
+      </c>
+      <c r="C371" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011968_147449.jpg</v>
+      </c>
+      <c r="D371" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E371" t="str">
+        <v>Kitnet</v>
+      </c>
+      <c r="F371" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Kitnet/Centro/Santa-Cruz-Do-Sul/RS/10011968</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B372" t="str">
+        <v>R$ 240.000,00</v>
+      </c>
+      <c r="C372" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10003667_167079.jpg</v>
+      </c>
+      <c r="D372" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E372" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F372" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10003667</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B373" t="str">
+        <v>R$ 245.000,00</v>
+      </c>
+      <c r="C373" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31024_133771.jpg</v>
+      </c>
+      <c r="D373" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E373" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F373" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/31024</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B374" t="str">
+        <v>R$ 245.000,00</v>
+      </c>
+      <c r="C374" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/9999966_168354.jpg</v>
+      </c>
+      <c r="D374" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E374" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F374" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/9999966</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B375" t="str">
+        <v>R$ 248.000,00</v>
+      </c>
+      <c r="C375" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/258601_162112.jpg</v>
+      </c>
+      <c r="D375" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E375" t="str">
+        <v>Alvenaria</v>
+      </c>
+      <c r="F375" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Alvenaria/Centro/Santa-Cruz-Do-Sul/RS/258601</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B376" t="str">
+        <v>R$ 250.000,00</v>
+      </c>
+      <c r="C376" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2692701_159670.jpg</v>
+      </c>
+      <c r="D376" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E376" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F376" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2692701</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B377" t="str">
+        <v>R$ 259.000,00</v>
+      </c>
+      <c r="C377" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012676_168123.jpg</v>
+      </c>
+      <c r="D377" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E377" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="F377" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10012676</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B378" t="str">
+        <v>R$ 265.000,00</v>
+      </c>
+      <c r="C378" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1208403_134957.jpg</v>
+      </c>
+      <c r="D378" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E378" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F378" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1208403</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B379" t="str">
+        <v>R$ 270.000,00</v>
+      </c>
+      <c r="C379" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011726_137618.jpg</v>
+      </c>
+      <c r="D379" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E379" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F379" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10011726</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B380" t="str">
+        <v>R$ 276.000,00</v>
+      </c>
+      <c r="C380" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1545701_94932.jpg</v>
+      </c>
+      <c r="D380" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E380" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F380" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/1545701</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B381" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C381" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10010883_149021.jpg</v>
+      </c>
+      <c r="D381" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E381" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="F381" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10010883</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B382" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C382" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011932_146006.jpg</v>
+      </c>
+      <c r="D382" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E382" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F382" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10011932</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B383" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C383" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012655_167569.jpg</v>
+      </c>
+      <c r="D383" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E383" t="str">
+        <v>Chale</v>
+      </c>
+      <c r="F383" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10012655</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B384" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C384" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10004210_152143.jpg</v>
+      </c>
+      <c r="D384" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E384" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F384" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10004210</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B385" t="str">
+        <v>R$ 285.000,00</v>
+      </c>
+      <c r="C385" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/467503_154417.jpg</v>
+      </c>
+      <c r="D385" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E385" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F385" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/467503</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B386" t="str">
+        <v>R$ 285.000,00</v>
+      </c>
+      <c r="C386" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/322204_162101.jpg</v>
+      </c>
+      <c r="D386" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E386" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F386" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/322204</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B387" t="str">
+        <v>R$ 286.500,00</v>
+      </c>
+      <c r="C387" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1492401_112321.jpg</v>
+      </c>
+      <c r="D387" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E387" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="F387" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/1492401</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B388" t="str">
+        <v>R$ 289.863,83</v>
+      </c>
+      <c r="C388" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011744_138938.jpg</v>
+      </c>
+      <c r="D388" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E388" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F388" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Goias/Santa-Cruz-Do-Sul/RS/10011744</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B389" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C389" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31008_165692.jpg</v>
+      </c>
+      <c r="D389" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E389" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F389" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31008</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B390" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C390" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/220501_122461.jpg</v>
+      </c>
+      <c r="D390" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E390" t="str">
+        <v>Chale</v>
+      </c>
+      <c r="F390" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Centro/Santa-Cruz-Do-Sul/RS/220501</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B391" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C391" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2019701_165126.jpg</v>
+      </c>
+      <c r="D391" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E391" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F391" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2019701</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B392" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C392" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012074_150861.jpg</v>
+      </c>
+      <c r="D392" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E392" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F392" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10012074</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B393" t="str">
+        <v>R$ 292.500,00</v>
+      </c>
+      <c r="C393" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012413_163832.jpg</v>
+      </c>
+      <c r="D393" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E393" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F393" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10012413</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B394" t="str">
+        <v>R$ 295.000,00</v>
+      </c>
+      <c r="C394" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1502_158230.jpg</v>
+      </c>
+      <c r="D394" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E394" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F394" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1502</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B395" t="str">
+        <v>R$ 299.000,00</v>
+      </c>
+      <c r="C395" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012507_163993.jpg</v>
+      </c>
+      <c r="D395" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E395" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F395" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Centro/Santa-Cruz-Do-Sul/RS/10012507</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B396" t="str">
         <v>R$ 300.000,00</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C396" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31004_160983.jpg</v>
+      </c>
+      <c r="D396" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E396" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F396" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31004</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B397" t="str">
+        <v>R$ 300.000,00</v>
+      </c>
+      <c r="C397" t="str">
         <v>https://www.imobel.com.br/viasw/fotos/thumbs/131002_165623.jpg</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D397" t="str">
         <v>imobel</v>
       </c>
-      <c r="E33" t="str">
-        <v>Apartamento</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E397" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F397" t="str">
         <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/131002</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B398" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C398" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4Obgc0F1xPoqvKdrSxU4Vr2b6xSyzQ/71f429c9-a8a5-4dbc-a16c-c500bd0b7db0jpg.webp</v>
+      </c>
+      <c r="D398" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E398" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="F398" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/sala-comercial-a-venda-31m2-bairro-centro-em-santa-cruz-do-sul/SLC-356</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B399" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C399" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Qvoiucu6qG4v0reHqi0emJBc3Q790VRJrmXGS6XM/40903521924216583180232991018822581896790562njpg.webp</v>
+      </c>
+      <c r="D399" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E399" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F399" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/TE-1966-04</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B400" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C400" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPm-LJ90BHurYriqChgV2qusAJbZtP3xKQ/39ce0cdd-1737-4db3-a3ff-7bc4af13ccccjpg.webp</v>
+      </c>
+      <c r="D400" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E400" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F400" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/TE-1713-04</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B401" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C401" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QbiBPDFgrGwub_CfV7Fn3i6jYDAZ1VdFoSOFaOqc/6aad1a57-bad1-4af8-aeae-6b0cd9f9e917jpg.webp</v>
+      </c>
+      <c r="D401" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E401" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F401" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/casa-com-3-quartos-a-venda-bairro-renascenca-em-santa-cruz-do-sul/CM-776</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B402" t="str">
+        <v>R$ 185.000</v>
+      </c>
+      <c r="C402" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QLlg_XJkK-ssqepkMVOdnkukmMs51X51o80Skimo/9e99dc7c-e16d-4b41-a76f-225c9db630dbjpg.webp</v>
+      </c>
+      <c r="D402" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E402" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F402" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2333</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B403" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C403" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QptjBKr6laysVugdahNinZYkZFPF1V1BrpdUl1QI/piratini1752jpg.webp</v>
+      </c>
+      <c r="D403" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E403" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F403" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B404" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C404" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPk_rMG15SQ0vHh0yxkV2qu5MpE09npx_w/img-3373jpg.webp</v>
+      </c>
+      <c r="D404" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E404" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F404" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-1970</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B405" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C405" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYGYg3I9K4lxKY3dq1RfmKzho0wF1TWBrOpTQWPU/66d491de-e232-4dc5-9e0f-588da86047acjpg.webp</v>
+      </c>
+      <c r="D405" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E405" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F405" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B406" t="str">
+        <v>R$ 242.000</v>
+      </c>
+      <c r="C406" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q5paw8-AEirxUO6G1xBf4BGjYYo51WY1oJ-fhx1c/p1040474jpg.webp</v>
+      </c>
+      <c r="D406" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E406" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F406" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/DP-657</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B407" t="str">
+        <v>R$ 248.000</v>
+      </c>
+      <c r="C407" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPbPqk41lCUU4ynbbOi42unmA551U6Rr3mi4EyI/125da871-7c5d-4654-8f3f-8ae6318656bcjpg.webp</v>
+      </c>
+      <c r="D407" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E407" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F407" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/AP-2260</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B408" t="str">
+        <v>R$ 253.000</v>
+      </c>
+      <c r="C408" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QAJfRAuFyirw08yiEeiZvEyhXEzB0VD9oJ_0rsDk/p1040473jpg.webp</v>
+      </c>
+      <c r="D408" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E408" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F408" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B409" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C409" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4GZ_7J51hLs0PDkrSxU4SL3PI8THDQ/b25858f8-86f3-48ed-9089-17609dcc0833jpg.webp</v>
+      </c>
+      <c r="D409" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E409" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F409" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/DP-707</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B410" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C410" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4GHOqtCrNfU1uglUZFhJUmA2VDF1WgBoGt3ofDI/0b6288e3-f11a-4820-ae82-dba5c2911376jpeg.webp</v>
+      </c>
+      <c r="D410" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E410" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F410" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-goias-em-santa-cruz-do-sul/DP-711</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B411" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C411" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYDm-DMF0hXtL4_hqRpZd2Ku3O5aaLw749g/te142503-013e3941ccc311668jpg.webp</v>
+      </c>
+      <c r="D411" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E411" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F411" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-universitario-em-santa-cruz-do-sul/TE-1425-03</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B412" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C412" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QfmaQAjnzxPrlPeik-j-pCrbuzT50UvVrvDSfYPY/ec6efb89-eb62-4b1d-b082-f69443be6115jpg.webp</v>
+      </c>
+      <c r="D412" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E412" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="F412" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/AL-1769-04</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B413" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C413" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QXoYgvRl1NVT0zHZrurY5UzcH40d0Tcxr8q0dsPo/screenshot1jpg.webp</v>
+      </c>
+      <c r="D413" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E413" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F413" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/TE-1965-02</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B414" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C414" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QANYuI8Aqe1wqc2ANRGjH-4lYPb50Vd1oI7OPPnI/screenshot3jpg.webp</v>
+      </c>
+      <c r="D414" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E414" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F414" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2431</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B415" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C415" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q5qYvqzn1mjw7rRnbZVavBSHuoq91WnNoCzgLo1I/1f53084e-e061-4172-9162-a6e5e63ed9f5jpeg.webp</v>
+      </c>
+      <c r="D415" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E415" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="F415" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-avenida-em-santa-cruz-do-sul/DP-710</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B416" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C416" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QHmYRAuHL47rMAmcNFJ4ZBIY4HK91W4NoSIMLXUk/screenshot2jpg.webp</v>
+      </c>
+      <c r="D416" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E416" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F416" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B417" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C417" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Qpph-vLF1C-pNQun6DJmXq4lugh50W-9oPJn-Ams/screenshot2jpg.webp</v>
+      </c>
+      <c r="D417" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E417" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F417" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B418" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C418" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QZnnfCjm1WsQ0_KC0Ct8ZSylmlB51XcJo2tRLGZ8/fachadajpg.webp</v>
+      </c>
+      <c r="D418" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E418" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="F418" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/sala-comercial-a-venda-67m2-bairro-centro-em-santa-cruz-do-sul/SLC-360</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B419" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C419" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QIGfgEp8EdDVFI2laDKYWU5hZ7P50TuhoYTZpcts/jpgjpg.webp</v>
+      </c>
+      <c r="D419" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E419" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F419" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2396</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B420" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C420" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QvnY_rGDF1XrrM5nsmkdJC3dplIZ0Uz9r1rsQDOY/te-1797-03jpg.webp</v>
+      </c>
+      <c r="D420" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E420" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F420" t="str">
+        <v>https://www.predilarimoveis.com.br/</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B421" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C421" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYNlf3E87G8r6G_kLNTc5Kjdn0vB1Vy1rsQ5CadQ/561164fe-8bf5-4626-9630-fa89860d8376jpg.webp</v>
+      </c>
+      <c r="D421" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E421" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="F421" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2200</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B422" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C422" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYOe_reD05AXUY-k11T-WE4aZnUB1U6JrsBTAdsQ/4386fa11-1e7f-4a03-87ab-dfdd85f098a9jpeg.webp</v>
+      </c>
+      <c r="D422" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E422" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="F422" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-goias-em-santa-cruz-do-sul/TE-1977-01</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F422"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:F446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,1491 +416,9005 @@
         <v>nomeSite</v>
       </c>
       <c r="E1" t="str">
+        <v>linkImovel</v>
+      </c>
+      <c r="F1" t="str">
         <v>imagem</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B2" t="str">
-        <v>R$ 80.000</v>
+        <v>R$ 40.000</v>
       </c>
       <c r="C2" t="str">
-        <v>Terreno</v>
+        <v>Box</v>
       </c>
       <c r="D2" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E2" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496304/ioCoPvog37WDgP_49630465a04361759cd_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/box-a-venda-bairro-centro-em-santa-cruz-do-sul/BOX-001</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMWAIjqyXIiw5Z2_bOizcy_h_sLJFqEOpAMzlEVgyPzktZQdCtEPLQ1VgMUI9prz4KglANI-NGB-8kaRbdOBX5vi11swQk2wuyAXXnM9zvw8UDOi/2d-165jpg.webp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B3" t="str">
-        <v>R$ 85.900</v>
+        <v>R$ 115.674</v>
       </c>
       <c r="C3" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D3" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E3" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/254031/ikRbb3ZY0cAwv9_254031636abc4246ca6_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-931</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCCuY6Cqg8TsctZbeyepmqAY4sZ0WU5oB7d0Kak/img2481jpg.webp</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B4" t="str">
-        <v>R$ 96.000</v>
+        <v>R$ 119.465</v>
       </c>
       <c r="C4" t="str">
         <v>Terreno</v>
       </c>
       <c r="D4" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E4" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322994/i2P055dL8dXwE9X8_322994644944a1a5bba_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-785</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvhiQEqEl1YSUg7gs2yd5CqiIvTF0WphoWC6aMWg/ferq7832jpg.webp</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B5" t="str">
-        <v>Sob consulta</v>
+        <v>R$ 120.000</v>
       </c>
       <c r="C5" t="str">
         <v>Terreno</v>
       </c>
       <c r="D5" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E5" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118403/in8ghmh7p1_1184035df177a6aaa01_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B6" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 125.000</v>
       </c>
       <c r="C6" t="str">
         <v>Terreno</v>
       </c>
       <c r="D6" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E6" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496375/iE8l6S427CCC_49637565a14376cae59_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-904</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrhcgAtCT9VykumlVGic4SuHZwjB0VpJoQz1RQ5E/terrenosantacruzlinhasantacruz3jpeg.webp</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B7" t="str">
-        <v>R$ 130.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C7" t="str">
         <v>Terreno</v>
       </c>
       <c r="D7" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E7" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422814/iw59229142_42281464a7f93a393b0_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1270</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QDulg6m_FSgtNPSn07J65lYEHM9F1UChrtU5j3M0/img0723jpg.webp</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Avenida, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B8" t="str">
-        <v>Por: R$ 139.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C8" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D8" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E8" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/602017/i8N47SE14gRI7131S98_602017666afed187821_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1289</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4GZgrB70WiU0PCa0yhQ43b0tcfQFyQ/lotps9jpg.webp</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Germânia, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B9" t="str">
-        <v>R$ 145.000</v>
+        <v>R$ 130.000</v>
       </c>
       <c r="C9" t="str">
         <v>Terreno</v>
       </c>
       <c r="D9" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E9" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680306/i19iUob6m51s57X_680306679f74db58391_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1293</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4Pdfs67rlETtIiHl68d2VOHnjKB0V7xoajSe3Dc/2jpg.webp</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B10" t="str">
-        <v>R$ 150.000</v>
+        <v>R$ 135.000</v>
       </c>
       <c r="C10" t="str">
         <v>Terreno</v>
       </c>
       <c r="D10" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E10" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643186/i175V_64318666e43d9103b7a_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1075</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7hbOot5k5KUrgqaa2mfZVCBuUoZ0TwFrD6e4OPE/foto01jpg.webp</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B11" t="str">
-        <v>R$ 160.000</v>
+        <v>R$ 138.000</v>
       </c>
       <c r="C11" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D11" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E11" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680561/i291951i4z3k82_68056167a2539a0509f_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1110</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoNg_vNkEmsvVQ9hVi6mXFNaolKZ1VWloSVOVRyo/dji0356jpg.webp</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Avenida</v>
       </c>
       <c r="B12" t="str">
-        <v>R$ 165.000</v>
+        <v>R$ 139.000</v>
       </c>
       <c r="C12" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="D12" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E12" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680194/i1s5Z82_680194679d25316d75b_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-36m2-bairro-avenida-em-santa-cruz-do-sul/SC-067</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QILcgnb77Sj3UzGCrmyb5muD4Es91SIBrPgdNh_g/img-20240619-wa0063jpg.webp</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Germânia, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B13" t="str">
-        <v>R$ 170.000</v>
+        <v>R$ 145.000</v>
       </c>
       <c r="C13" t="str">
         <v>Terreno</v>
       </c>
       <c r="D13" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E13" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/120173/i6QEa10pr7IY664e_1201735e2b278b2cd7d_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-1245</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7ocxY2CaVKVEchmlOhnvU9Y3k950UTdrvLB59Aw/img9982jpeg.webp</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B14" t="str">
-        <v>R$ 170.000</v>
+        <v>R$ 160.000</v>
       </c>
       <c r="C14" t="str">
-        <v>Casa</v>
+        <v>Terreno</v>
       </c>
       <c r="D14" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E14" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117829/iA50g01OrvEI19yKk52_1178295de6c34bc9d12_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1301</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qpra-7CA1VbsrsikNGsk4hNgmtKd1TTtr0J1Plx8/whatsappimage2024-12-19at153004jpeg.webp</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Independência, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B15" t="str">
-        <v>R$ 181.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C15" t="str">
-        <v>Casa</v>
+        <v>Terreno</v>
       </c>
       <c r="D15" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E15" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/465820/iTo169f6R2Q9_46582065189f8b10129_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1276</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QBtbn4p-TSzqV_YBs9R8oy1ipMr50WzBoUfS6Ex4/img0718jpg.webp</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Arroio Grande</v>
       </c>
       <c r="B16" t="str">
-        <v>R$ 185.000</v>
+        <v>R$ 165.000</v>
       </c>
       <c r="C16" t="str">
         <v>Apartamento</v>
       </c>
       <c r="D16" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E16" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679903/i71837_679903679b7f0571232_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/2D-884</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QDpiQHFB76_UtrWea9de20pY5XQ50ULhrgz3gG0g/c0af0389-45d8-4cb2-8bde-0ec2fe9e28bajpg.webp</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Arroio Grande</v>
       </c>
       <c r="B17" t="str">
-        <v>R$ 195.000</v>
+        <v>R$ 179.000</v>
       </c>
       <c r="C17" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D17" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E17" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/679793/ieqB3i3gOEg5B_679793679a6f9c58271_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/T-1097</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYOafEuAECot1TXl1hFloSrlozZ51Uttr3X78ouQ/terrenohv1jpeg.webp</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B18" t="str">
-        <v>Sob consulta</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C18" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="D18" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E18" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/601842/iy1pa3v14_6018426669a317f0b67_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-31m2-bairro-centro-em-santa-cruz-do-sul/SC-062</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd8rS9iQUiAXrXDGiBPZEAl6BL541GDMQif1VvvEFZ4-Rjk/img4651jpeg.webp</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B19" t="str">
-        <v>R$ 195.000</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C19" t="str">
         <v>Terreno</v>
       </c>
       <c r="D19" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E19" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/242505/iQbxON559E9fTN_24250562d947f56bc11_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/T-1282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B20" t="str">
-        <v>R$ 200.000</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C20" t="str">
-        <v>JK/Kitnet</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="D20" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E20" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/493327/i3AR986Vew7F5q431Ks11_49332767363ecbac244_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-44m2-bairro-centro-em-santa-cruz-do-sul/SC-071</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvvbBXFm6QjX6AnjVuqnua7bokkF0V_9r3hp6v-o/img4832jpeg.webp</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B21" t="str">
-        <v>R$ 202.000</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C21" t="str">
-        <v>Terreno</v>
+        <v>Sala Comercial</v>
       </c>
       <c r="D21" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E21" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/644042/in49gLj7x9148H362rc_64404266ec2f526a6e3_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/sala-comercial-a-venda-41m2-bairro-centro-em-santa-cruz-do-sul/SC-072</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrrlwHWCywuQ1EgfklcYZkieX1N51Wz9oFtlkRLg/img4837jpeg.webp</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B22" t="str">
-        <v>R$ 202.000</v>
+        <v>R$ 180.000</v>
       </c>
       <c r="C22" t="str">
         <v>Terreno</v>
       </c>
       <c r="D22" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E22" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/245743/i875gGX8qS5lRB423qQ2u_245743661e6dc89e975_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/T-1285</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qnvin7A_zy3zF-hdkheknKnZuLM90WpJoF39Dz0o/aaajpg.webp</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B23" t="str">
-        <v>R$ 210.000</v>
+        <v>R$ 190.000</v>
       </c>
       <c r="C23" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D23" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E23" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680202/iP1M3x6KE_680202679d2a927f938_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-979</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4IewnEDklPzqI6eaBKZ4Kne2ElF1SbRrUYwD8lc/semplacajpg.webp</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Santo Inácio</v>
       </c>
       <c r="B24" t="str">
-        <v>R$ 210.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C24" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D24" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E24" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680129/iMz4gS6_680129679ce08634d64_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-966</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ocm7aGyhfwt7RmU2weoE9i4Eh91W0FoSWhw8VI/dji0071jpg.webp</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>São João</v>
       </c>
       <c r="B25" t="str">
-        <v>R$ 210.000</v>
+        <v>R$ 195.000</v>
       </c>
       <c r="C25" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D25" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E25" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/241049/ihA0l35x814B3W22_24104962c71248720fb_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/T-1295</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3ojQLRmze32qm_gkej9G8haGTHB0WR1o5HnFASI/whatsappimage2024-11-27at1851191jpeg.webp</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B26" t="str">
-        <v>R$ 213.000</v>
+        <v>R$ 196.000</v>
       </c>
       <c r="C26" t="str">
         <v>Terreno</v>
       </c>
       <c r="D26" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E26" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/522592/iv1G7gt4i74wZOPFFlOLz_522592664372263d4a5_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1185</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvlYR6w6ywrz78uCbG5-4mxh3nMZ0WrJo6bwL6YI/20230829155544jpg.webp</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Goiás, Santa Cruz Do Sul</v>
+        <v>São João</v>
       </c>
       <c r="B27" t="str">
-        <v>R$ 213.000</v>
+        <v>R$ 208.000</v>
       </c>
       <c r="C27" t="str">
-        <v>Terreno</v>
+        <v>Geminado</v>
       </c>
       <c r="D27" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E27" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/420660/iiG8tP9qJB3A6yU9V15_4206606494812a624b5_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/GEM-115</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q0OBGYtEKmlxU7FekOue3W_YY7EB0WIRoOCSPFA0/whatsappimage2024-08-23at155706jpeg.webp</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B28" t="str">
-        <v>R$ 220.000</v>
+        <v>R$ 210.000</v>
       </c>
       <c r="C28" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D28" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E28" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/130672/i934cr_1306725f889f100c157_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-901</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QbtauC4FK5LpFDeCtjVZHFXlZwnB0VSBob1EzN5E/image00016jpeg.webp</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B29" t="str">
-        <v>R$ 220.000</v>
+        <v>R$ 210.000</v>
       </c>
       <c r="C29" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D29" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E29" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/126418/iH5qj85afh66e4_126418613269229e2cc_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-902</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q3qdQvGGrm3ukkyhbGt9HBGaYjNB0UhRr9PU81Jc/image00017jpeg.webp</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B30" t="str">
-        <v>R$ 225.000</v>
+        <v>R$ 215.000</v>
       </c>
       <c r="C30" t="str">
         <v>Terreno</v>
       </c>
       <c r="D30" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E30" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/647449/izkV3adyf4G99_647449671beeb228e45_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1128</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QIGnuUy_1O3y14ye1hN6pJAFplU51UGVoYeD8fpA/img7412jpg.webp</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B31" t="str">
-        <v>R$ 228.000</v>
+        <v>R$ 220.000</v>
       </c>
       <c r="C31" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D31" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E31" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/207229/iPV7pzen_207229614a233242738_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1310</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUCEe6kAk6gpkTKC0WmlpS9aWTEd1WztoK6RGZv4/1000210888jpg.webp</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B32" t="str">
-        <v>R$ 230.000</v>
+        <v>R$ 223.000</v>
       </c>
       <c r="C32" t="str">
-        <v>JK/Kitnet</v>
+        <v>Terreno</v>
       </c>
       <c r="D32" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E32" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/678706/iU53s1N2_6787066797ca434733f_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1076</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qhpj-Iznzm700o6crlZYmpYYoXY51X7doRWwwIos/img0297jpg.webp</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B33" t="str">
-        <v>R$ 230.000</v>
+        <v>R$ 225.000</v>
       </c>
       <c r="C33" t="str">
         <v>Terreno</v>
       </c>
       <c r="D33" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E33" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/470289/i1eo4V96q9jM6W954b472_470289655f9f55d021c_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1129</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QvqkhY-HLSzwasyELDad4lPimI6F1VRxrieLWR0k/img7416jpg.webp</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B34" t="str">
-        <v>R$ 230.000</v>
+        <v>R$ 225.000</v>
       </c>
       <c r="C34" t="str">
-        <v>Casa</v>
+        <v>Geminado</v>
       </c>
       <c r="D34" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E34" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118082/i4H67weEtdJQI1_1180826026e062d8b65_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/GEM-111</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q5tg-fBgStHvFsndlChlnKniWHMF1VMdrj6kCSPo/d592f707-0659-4f42-bcef-2d1a9722e545jpg.webp</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Jardim Europa</v>
       </c>
       <c r="B35" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 230.000</v>
       </c>
       <c r="C35" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D35" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E35" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/680324/i8xnd_68032467a0b56d7cfe4_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/T-1234</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QntZ-HN51OrusjeisBZ6nBfdYrF90UYprlyP8iNQ/28d8deb6-d097-4e11-807b-c8a6953883f5jpeg.webp</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B36" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 230.000</v>
       </c>
       <c r="C36" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D36" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E36" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/656283/iHZ97Lp1GY159Bq_6562836741d5b588135_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1296</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoImn3ZG0RXxaLFkUdcfPq1luLV91UAxoE_p5VjQ/1000177823jpg.webp</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B37" t="str">
-        <v>Sob consulta</v>
+        <v>R$ 230.000</v>
       </c>
       <c r="C37" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="D37" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E37" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/644518/i356EXgHDF17f_64451866f45291e5e69_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/GEM-118</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QfiDxa4_0WgqqcqB6FcZZJXaPrMd0VzFoR54mArM/todos2jpg.webp</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Santo Inácio</v>
       </c>
       <c r="B38" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 235.000</v>
       </c>
       <c r="C38" t="str">
         <v>Terreno</v>
       </c>
       <c r="D38" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E38" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/641500/i52t46IJ_64150066d871cbcf7d6_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-1207</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QcKGmE9gy61xLGmab5Cm2xaZmMgF0We1riUJ-nxY/img2891jpeg.webp</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Goiás</v>
       </c>
       <c r="B39" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 240.000</v>
       </c>
       <c r="C39" t="str">
         <v>Apartamento</v>
       </c>
       <c r="D39" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E39" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/306472/iK48rz7w_3064726411f45819e81_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-goias-em-santa-cruz-do-sul/1D-271</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYBgfDNCk6_pMjNYrRReoEjmGw1F0TeJrEbI9tVA/a32e405a-4bf4-425a-ba9f-3565e7c9dfcejpg.webp</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B40" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 245.000</v>
       </c>
       <c r="C40" t="str">
         <v>Apartamento</v>
       </c>
       <c r="D40" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E40" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/276773/i72555yGHFP735L3ePmv_2767736781744d0748c_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/1D-260</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7ijvK67ku6QUmugEyr-pGzivA1B0VA9oQXImsvQ/fachadajpg.webp</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B41" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 248.000</v>
       </c>
       <c r="C41" t="str">
         <v>Terreno</v>
       </c>
       <c r="D41" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E41" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/208124/i3111I0T73a5_208124615f5f2c71c9a_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1190</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QpjYuq7CliyrFbBdVe7_ZercuQwF0V8prr0FwpoA/01porticoefjpg.webp</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Ana Nery</v>
       </c>
       <c r="B42" t="str">
-        <v>R$ 240.000</v>
+        <v>R$ 249.000</v>
       </c>
       <c r="C42" t="str">
-        <v>Casa</v>
+        <v>Apartamento</v>
       </c>
       <c r="D42" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E42" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/136729/iJy86qwr_1367296026de841c1e7_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-3-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/3D-534</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QLljuqhGK62pLO_j11Z9ZU2iYLXB0WmloBVB7wsE/whatsappimage2025-01-03at1545021jpeg.webp</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B43" t="str">
-        <v>R$ 244.445</v>
+        <v>R$ 250.000</v>
       </c>
       <c r="C43" t="str">
         <v>Terreno</v>
       </c>
       <c r="D43" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E43" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/474489/iL7274uu_4744896564fde223663_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1209</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QALZuC9klg3x6O5eNVJmZZGAvUsF1VSxob3Clf3A/t-853jpg.webp</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B44" t="str">
-        <v>R$ 245.000</v>
+        <v>R$ 250.000</v>
       </c>
       <c r="C44" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D44" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E44" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/641116/i33v2U13_64111666d708856b928_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1273</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QhoixcsEzhWtFQ6kNBN9G8oiPVIB1WeNowcY7LT8/whatsappimage2024-08-12at173033jpeg.webp</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B45" t="str">
-        <v>R$ 245.000</v>
+        <v>R$ 260.000</v>
       </c>
       <c r="C45" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="D45" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E45" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/137684/i307L020zH921aG_1376846054a1157979b_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/Gem-101</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QZifQam_KOvp1jfa1zR850ynXo5F1VYpoS-GHQ-A/0a3b141f-baf6-45e7-9d53-4ca6811e6699jpg.webp</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Linha Santa Cruz</v>
       </c>
       <c r="B46" t="str">
-        <v>R$ 248.000</v>
+        <v>R$ 260.000</v>
       </c>
       <c r="C46" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="D46" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E46" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/217027/i87513KMaB_21702762097efa8e8c1_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/GEM-098</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QhtiR8iG7CzTUGqCsOufmm2nX0_51XfdooTUrlIM/1jpg.webp</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Avenida, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B47" t="str">
-        <v>R$ 250.000</v>
+        <v>R$ 260.000</v>
       </c>
       <c r="C47" t="str">
         <v>Terreno</v>
       </c>
       <c r="D47" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E47" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/673482/im9L1q_6734826759ca16c781b_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1218</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QoDeQMm_Kw_xVexk1G182mmbuXKZ1VJlo7QV-BJo/dji0309jpg.webp</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Goiás, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B48" t="str">
-        <v>R$ 250.000</v>
+        <v>R$ 260.000</v>
       </c>
       <c r="C48" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D48" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E48" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/118123/i2Ew22nY8_1181235decfb2784103_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1262</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHldOUr-ka-t64_iUlJnWizYGbUZ0Vx5oRSMFSLk/11njpeg.webp</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Independência, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B49" t="str">
-        <v>R$ 255.000</v>
+        <v>R$ 260.000</v>
       </c>
       <c r="C49" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D49" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E49" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/203610/i79951b3O06pcryxi_20361061006ecb78b3a_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1263</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qfoew66CUtdyqDWF7ZKZX-9huo_51Vm5oLQ3pLjk/12njpeg.webp</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B50" t="str">
-        <v>R$ 258.000</v>
+        <v>R$ 265.000</v>
       </c>
       <c r="C50" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D50" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E50" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/650544/iNrXPjX7sjooV7spZhH_65054467129d296c1ae_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-645</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDR91RDu1PKd0lRkV2quiNpbawls0JA/fachadajpg.webp</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Avenida, Santa Cruz Do Sul</v>
+        <v>Santo Inácio</v>
       </c>
       <c r="B51" t="str">
-        <v>Por: R$ 260.000</v>
+        <v>R$ 266.000</v>
       </c>
       <c r="C51" t="str">
         <v>Terreno</v>
       </c>
       <c r="D51" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E51" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/522711/iZ7y77t_52271166451ef0dc082_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-990</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QsPhfcxkLy3rl-pjVTdfvlRkYov51WeVo6stswmU/b64b8b65-8e51-4347-b1e5-8a5dea24d319jpeg.webp</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Santo Inácio</v>
       </c>
       <c r="B52" t="str">
-        <v>R$ 260.000</v>
+        <v>R$ 267.000</v>
       </c>
       <c r="C52" t="str">
-        <v>Casa Geminada</v>
+        <v>Terreno</v>
       </c>
       <c r="D52" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E52" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/519815/i61G1dgc_5198156621824b2e1d4_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/T-1169</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8PfAisALtLx7rQZ79Jno1IH443F0TOBrPnxJS2o/img2483jpeg.webp</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Goiás, Santa Cruz Do Sul</v>
+        <v>Independência</v>
       </c>
       <c r="B53" t="str">
-        <v>R$ 260.000</v>
+        <v>R$ 270.190</v>
       </c>
       <c r="C53" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="D53" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E53" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496719/i5C1N_49671965a5c29312f05_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/1D-194</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHl_DB7rWnorHSb1ihUE0b1pV-gPuQ/53b1a70d-b0e1-468a-9c70-94c1ee6b01e71jpg.webp</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Goiás, Santa Cruz Do Sul</v>
+        <v>Centro</v>
       </c>
       <c r="B54" t="str">
-        <v>R$ 260.000</v>
+        <v>R$ 275.000</v>
       </c>
       <c r="C54" t="str">
-        <v>Terreno</v>
+        <v>Apartamento</v>
       </c>
       <c r="D54" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E54" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/434705/iAZ3966W3tF238033cL_43470564c95734874ab_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/1D-247</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QkNkxI-6SFeWsTOe0jCeuBFZuVL51VAVo6f2YsN4/ddb02324-3ee7-4991-9256-6a9de4633a5fjpeg.webp</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Jardim Europa</v>
       </c>
       <c r="B55" t="str">
-        <v>R$ 266.000</v>
+        <v>R$ 278.000</v>
       </c>
       <c r="C55" t="str">
         <v>Terreno</v>
       </c>
       <c r="D55" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E55" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/675283/i7u9x375395_675283677bdb295b80e_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/T-1268</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QICEffY9KC6UVjKdki5muZBiIHMB1URJr6PJzwSc/img3925jpeg.webp</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Universitário</v>
       </c>
       <c r="B56" t="str">
-        <v>R$ 266.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C56" t="str">
-        <v>Casa Duplex</v>
+        <v>Terreno</v>
       </c>
       <c r="D56" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E56" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/640478/ivm88Y16xG99431Lg_64047866d201653940e_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-universitario-em-santa-cruz-do-sul/T-376</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYIegc781WuVKPXk16xkV2qurf5aXSeUSpQ/img2025jpg.webp</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Independência, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B57" t="str">
-        <v>R$ 268.395</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C57" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D57" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E57" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/322818/ik87hiJ101_32281864481990646f5_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-661</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDd805GT1_SfrVBkV2qutS5bFKkeiWw/fachadajpg.webp</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B58" t="str">
-        <v>R$ 270.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C58" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D58" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E58" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/653877/i857CL7_653877675736524a029_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-652</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPmgDd9rRHtKfWZ1FBgV2qutbZbANbD1Zw/fachadajpg.webp</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B59" t="str">
-        <v>R$ 270.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C59" t="str">
-        <v>Duplex</v>
+        <v>Terreno</v>
       </c>
       <c r="D59" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E59" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/643298/i7612_64329866e48ca78bd99_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-685</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHkhbcG0mvs04yZrlBQFZb1fTF_yJA/img8647jpg.webp</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B60" t="str">
-        <v>R$ 270.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C60" t="str">
         <v>Terreno</v>
       </c>
       <c r="D60" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E60" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/504960/iP6T8221neUl234w4U74O_50496065ce62e481825_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-974</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYBZh0hA6esotw3cMxR6W5GHZ3E90UKpoVxNNVKo/image00014jpeg.webp</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B61" t="str">
-        <v>R$ 270.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C61" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D61" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E61" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/474731/i7T46388hM7g98359g79W_4747316567446dad5c9_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-986</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHulRHJ47ynvb7blk7VgZ1aeYlQF0TyZrdl7Y0H8/img0306jpg.webp</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B62" t="str">
-        <v>R$ 270.000</v>
+        <v>R$ 280.000</v>
       </c>
       <c r="C62" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D62" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E62" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/201562/iClE5770R9_20156260d49e27067dd_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1010</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8GnPPAFF-4Qb7Bk0iynZyiCWQ551UBhrm3rSvlU/image00007jpeg.webp</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B63" t="str">
-        <v>R$ 275.000</v>
+        <v>R$ 285.000</v>
       </c>
       <c r="C63" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D63" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E63" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/682154/i98691ST2sN8MdZ_68215467ae2a3c06ea1_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1064</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QrimnnZ_1w3x7wyeNtAio9FamTD51UXFrqleUzqk/95caa919-db04-4a7e-a9f8-537ed4631272jpeg.webp</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B64" t="str">
-        <v>R$ 275.000</v>
+        <v>R$ 285.000</v>
       </c>
       <c r="C64" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D64" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E64" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/259126/iM93gFi39T96p68X_25912663923709828a1_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1213</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QUGE-fVnkSjoboxm0tJhpFDhv3I50V6Frhe2RE_w/whatsappimage2023-11-30at105004jpeg.webp</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Bonfim</v>
       </c>
       <c r="B65" t="str">
-        <v>R$ 277.000</v>
+        <v>R$ 285.000</v>
       </c>
       <c r="C65" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Apartamento</v>
       </c>
       <c r="D65" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E65" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/611368/i658Sn25817LoReyfv_61136866aa335db1e4f_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/1D-268</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QMNlfnBC0GwotHXjrDB_nBKinVL90UIlocY8s2OQ/img3435jpeg.webp</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B66" t="str">
-        <v>R$ 280.000</v>
+        <v>R$ 287.000</v>
       </c>
       <c r="C66" t="str">
-        <v>Casa Geminada</v>
+        <v>Terreno</v>
       </c>
       <c r="D66" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E66" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/524597/iSjPOe4M57_5245976647a8c9b2657_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-792</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qntiu3SGKlfVUeicaOzb4cmm4bAF0W1Boa8IISMU/img0301jpg.webp</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B67" t="str">
-        <v>R$ 280.000</v>
+        <v>R$ 288.000</v>
       </c>
       <c r="C67" t="str">
-        <v>Casa Geminada</v>
+        <v>Terreno</v>
       </c>
       <c r="D67" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E67" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/524593/i2618i4G8BeVth2f86F_5245936647a63d4d2d9_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-971</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8Pimk1k6tAXbQnhald6WxFiHUoB1WKNoAotLkDQ/belle-ville-09142035alencar-da-rosajpg.webp</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B68" t="str">
-        <v>R$ 280.000</v>
+        <v>R$ 288.000</v>
       </c>
       <c r="C68" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D68" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E68" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/516465/i9789PCy98_5164656605753399745_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1308</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qbmmfq9CFG1zaQvg07YnP-9dntP91X3ForPkoTjs/image00004jpeg.webp</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B69" t="str">
-        <v>R$ 280.000</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C69" t="str">
         <v>Terreno</v>
       </c>
       <c r="D69" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E69" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/469644/iR4gmY9_4696446539a6baa92b4_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-762</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHnB7J-1mnurfLgqlRQ4C70xeGr0zg/t-645jpg.webp</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B70" t="str">
-        <v>R$ 280.000</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C70" t="str">
         <v>Terreno</v>
       </c>
       <c r="D70" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E70" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/304480/i14M3dXlQQ_30448063fd1797cffa1_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-763</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYHnB7EBrGntKPCaqyhQFQb08eM__DQ/t-645jpg.webp</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B71" t="str">
-        <v>R$ 281.637</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C71" t="str">
-        <v>Terreno</v>
+        <v>Geminado</v>
       </c>
       <c r="D71" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E71" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/258302/iM58nR_2583026390c1bbe5c23_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/GEM-086</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QsOhvMy_lmtS0grYUi6Y52vgHVd90UFhoctcUbp8/ubqt3406jpg.webp</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Goiás, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B72" t="str">
-        <v>R$ 289.864</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C72" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="D72" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E72" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/212616/itI9B7631gp_2126166622d479d58af_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/GEM-089</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QHnanXB9ExbTabai0e9bpBTkvMkF1TeZrLpWKNKI/image00005jpeg.webp</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B73" t="str">
-        <v>R$ 290.000</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C73" t="str">
         <v>Terreno</v>
       </c>
       <c r="D73" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E73" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/506979/izZVTi776Cy19_50697965dd25cfd7780_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1193</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q7qlGbG7rFeRE7bgURV_OC9nXjU50VA9o6-DBcjI/dji0306jpg.webp</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B74" t="str">
-        <v>R$ 290.000</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C74" t="str">
         <v>Terreno</v>
       </c>
       <c r="D74" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E74" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/233561/isj4D850Tm7_23356162571be0a3f03_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1283</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QAOnR4o66wt1MO6hbSh_4mtZXE050UCtrvVkzLRQ/dio33921-copiajpg.webp</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>João Alves</v>
       </c>
       <c r="B75" t="str">
-        <v>R$ 293.000</v>
+        <v>R$ 290.000</v>
       </c>
       <c r="C75" t="str">
-        <v>Apartamento</v>
+        <v>Geminado</v>
       </c>
       <c r="D75" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E75" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/514548/iej4G_51454865f47609d05d2_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/GEM-117</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QLjdv6q8S-lVLe9hVC6f45SbmDEZ0VfFoS8cDUw0/whatsappimage2024-11-06at1515551jpeg.webp</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B76" t="str">
-        <v>Por: R$ 295.000</v>
+        <v>R$ 295.000</v>
       </c>
       <c r="C76" t="str">
-        <v>Loja</v>
+        <v>Terreno</v>
       </c>
       <c r="D76" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E76" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/464741/i0248aTn5FPitFl84_464741651041c325d61_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-650</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYPm-Mh_qWmTrfAarRpZd2Kuw6JF2sxs6xQ/img2292jpg.webp</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B77" t="str">
-        <v>R$ 297.000</v>
+        <v>R$ 295.000</v>
       </c>
       <c r="C77" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D77" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E77" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/639579/i2vf83YD6Uy_63957966c8e9cfcfb9a_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1049</v>
+      </c>
+      <c r="F77" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QpmBREkA7WrXbs5hs7Wav0vjnbIF0XeVovihOoCA/whatsappimage2024-05-31at054725jpeg.webp</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Renascença, Santa Cruz Do Sul</v>
+        <v>Linha João Alves</v>
       </c>
       <c r="B78" t="str">
-        <v>R$ 297.000</v>
+        <v>R$ 295.000</v>
       </c>
       <c r="C78" t="str">
-        <v>Terreno</v>
+        <v>Geminado</v>
       </c>
       <c r="D78" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E78" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/307892/i4880cVr4Z_307892641de326af078_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-joao-alves-em-santa-cruz-do-sul/GEM-110</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q8Fk_KqGK60U0DGAkdDnGa3iIo6Z0X3do74zc8-U/whatsappimage2024-03-27at54654pm2jpeg.webp</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Germânia, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B79" t="str">
-        <v>R$ 297.920</v>
+        <v>R$ 298.000</v>
       </c>
       <c r="C79" t="str">
-        <v>Casa</v>
+        <v>Terreno</v>
       </c>
       <c r="D79" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E79" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/439487/iN621r4866CF6k4_43948764f08a6b9f5e2_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1121</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QBoa-nc409VpKfCEEet5ZRTev1T51Tp9rwi8lFAc/tabelaaltosdoparquejpg.webp</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Avenida, Santa Cruz Do Sul</v>
+        <v>Bonfim</v>
       </c>
       <c r="B80" t="str">
-        <v>R$ 298.000</v>
+        <v>R$ 298.000</v>
       </c>
       <c r="C80" t="str">
         <v>Terreno</v>
       </c>
       <c r="D80" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E80" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/496750/iAX34189D7B8g6kro_49675065a6865d5ac1b_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-bonfim-em-santa-cruz-do-sul/T-1130</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QYDehnd6kg7wqsmCqmhgm26l3zIB1ShFrfTrHTiM/image00002jpegjpg.webp</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B81" t="str">
-        <v>R$ 299.000</v>
+        <v>R$ 298.000</v>
       </c>
       <c r="C81" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D81" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E81" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/238288/i6FkNn9Cn_238288629e1baf50f30_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1297</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q0Dl-agGF5Mpq_SY6y7c5xdjpDc50TotrRfa4Ze0/01porticoefjpg.webp</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B82" t="str">
-        <v>R$ 299.055</v>
+        <v>R$ 300.000</v>
       </c>
       <c r="C82" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D82" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E82" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/422340/ikp231htsO127_42234064a4662866da0_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-940</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q4KY-cp50mvsr4mbqCxU6rr06xXJrCw/photo-2021-07-24-08-46-33jpg.webp</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B83" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 300.000</v>
       </c>
       <c r="C83" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D83" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E83" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/439386/i1a98o5nx571w_43938665849f2adefa2_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-975</v>
+      </c>
+      <c r="F83" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QbqD-k09kVVS7onk6bRgW5LZWU691V6JruIacrEg/image00013jpeg.webp</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B84" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 300.000</v>
       </c>
       <c r="C84" t="str">
         <v>Terreno</v>
       </c>
       <c r="D84" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E84" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/362674/iRnNz0Uf7MA80y80fOK7_36267464877467b21f8_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1114</v>
+      </c>
+      <c r="F84" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Qnlnws1H0Y6V0Y4n0esa4xGY4go51W0lrifMHyAc/photo-2021-07-24-08-46-33jpg.webp</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Centro, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B85" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 300.000</v>
       </c>
       <c r="C85" t="str">
-        <v>Sala/Conjunto Comercial</v>
+        <v>Terreno</v>
       </c>
       <c r="D85" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E85" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/306285/i52jn7n3Uc6Y_3062856410bb23a4798_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1196</v>
+      </c>
+      <c r="F85" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071QcJbn_GA14zr0ure0TWk28uA4jId0VtFoBOlOVus/img0303jpg.webp</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Country</v>
       </c>
       <c r="B86" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 300.000</v>
       </c>
       <c r="C86" t="str">
         <v>Terreno</v>
       </c>
       <c r="D86" t="str">
-        <v>creditoreal</v>
+        <v>karnoppimoveis</v>
       </c>
       <c r="E86" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/305056/i7122n51T6_3050566401f9a2c602b_p.jpg</v>
+        <v>https://www.karnoppimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/T-1206</v>
+      </c>
+      <c r="F86" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah8v071Q5uhf6k4FgzSt7Vea9FnHG2iGPMB0Wvhoet3MZ_Q/img0300jpg.webp</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Universitário, Santa Cruz Do Sul</v>
+        <v>Santuário</v>
       </c>
       <c r="B87" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 59.900</v>
       </c>
       <c r="C87" t="str">
-        <v>Apartamento</v>
+        <v>Terreno</v>
       </c>
       <c r="D87" t="str">
-        <v>creditoreal</v>
+        <v>borbaimoveis</v>
       </c>
       <c r="E87" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/253171/iy479d_253171635bdc75d7ebe_p.jpg</v>
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santuario-em-santa-cruz-do-sul/162416548</v>
+      </c>
+      <c r="F87" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIGARClmKRUTVMujreinpGtYuLdF0VUlrkncPTdY/whatsappimage2022-02-14at1028384jpeg.webp</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Santo Inácio, Santa Cruz Do Sul</v>
+        <v>Pedreira</v>
       </c>
       <c r="B88" t="str">
-        <v>R$ 300.000</v>
+        <v>R$ 60.000</v>
       </c>
       <c r="C88" t="str">
         <v>Terreno</v>
       </c>
       <c r="D88" t="str">
-        <v>creditoreal</v>
+        <v>borbaimoveis</v>
       </c>
       <c r="E88" t="str">
-        <v>https://cdn.vistahost.com.br/imoveisc841/vista.imobi/fotos/117517/i32I2_1175175ddfd7141ba8f_p.jpg</v>
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-pedreira-em-santa-cruz-do-sul/162416632</v>
+      </c>
+      <c r="F88" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcFfgLb5F40tkA5e1NRgXFGZmHAF0SIVrTCFRs2w/863383f4-902e-45fe-9a53-bcfd7a8209cejpeg.webp</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Várzea</v>
+      </c>
+      <c r="B89" t="str">
+        <v>R$ 60.000</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D89" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E89" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-varzea-em-santa-cruz-do-sul/FS25</v>
+      </c>
+      <c r="F89" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDoEebFmbmzylGjctxUm5-vdZjc51WPZoNw47F_U/terv2jpg.webp</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B90" t="str">
+        <v>R$ 71.280</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D90" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E90" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/6827</v>
+      </c>
+      <c r="F90" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Kb_bd91WyRKvQfqCxQ7nb3StmxNPA/1719168911020402599424018912747962894774627ojpg.webp</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B91" t="str">
+        <v>R$ 79.000</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D91" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E91" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-distrito-industrial-em-santa-cruz-do-sul/162416643</v>
+      </c>
+      <c r="F91" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_ojh6wAl5PqVPHd1emnvBFfWVA91Ul9rqivBpTM/5907ad55-58eb-4f91-9cfc-642cd17c1168jpeg.webp</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B92" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D92" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E92" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/BM21</v>
+      </c>
+      <c r="F92" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0BiuYp50C-Ubw6clu2ev2xdXwtF0Utdr3oT826I/whatsappimage2021-11-29at105302jpeg.webp</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B93" t="str">
+        <v>R$ 90.000</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D93" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E93" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF109</v>
+      </c>
+      <c r="F93" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnplPYjgFVXqUDQj1Dcmo0ygXVQZ0WwloEmCgWnM/img20220119144924710hdrjpg.webp</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B94" t="str">
+        <v>R$ 95.000</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D94" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E94" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/LK130</v>
+      </c>
+      <c r="F94" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcPfBom-EdMvrvbj7hWduhNcYEnB1SV1rdAL24k4/whatsappimage2023-08-28at1213111jpeg.webp</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B95" t="str">
+        <v>R$ 95.760</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D95" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E95" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB319</v>
+      </c>
+      <c r="F95" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QrjZh7A7EwnUkM1k1-8ku9KBuQr50TQBrqCgGelE/51709c12-8f50-4b5a-a93a-d13849beb3dfjpeg.webp</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B96" t="str">
+        <v>R$ 96.000</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D96" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E96" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416672</v>
+      </c>
+      <c r="F96" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHmbRbZ-bVau68ihrlde3qxeJM4Z0Se5rXU43kO8/fbb3dbf7-29a1-432e-89b2-5991f4349337jpeg.webp</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B97" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D97" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E97" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF228</v>
+      </c>
+      <c r="F97" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEF15Vqq4gY06xU4_L0jGwytpg/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B98" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D98" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E98" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF229</v>
+      </c>
+      <c r="F98" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGV2uR142b1ihQFw7ynRx7Gaw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B99" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D99" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E99" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF230</v>
+      </c>
+      <c r="F99" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVRbt0_Qe1SxQ4yr3S7ZqOSw/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B100" t="str">
+        <v>R$ 99.000</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D100" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E100" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF231</v>
+      </c>
+      <c r="F100" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OagrEGVBTqr_aaqShU-Pb28PF2nUA/whatsappimage2023-02-02at1241111jpeg.webp</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B101" t="str">
+        <v>R$ 102.000</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D101" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E101" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/6995</v>
+      </c>
+      <c r="F101" t="str">
+        <v>https://s01.jetimgs.com/tnkeSI8oLcluoxvThNeBKaKvSXFW0x2Qejo1tC81xu6An8sEP3rTHaUAubabOgFvrG6MjgiZSN_-xKBrYYlWjnRe1yau5vzDyIiIG-Q1hFvuzq7BGRFmpF29hsWAT2d-jw/20150916073407jpg.webp</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B102" t="str">
+        <v>R$ 106.000</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D102" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E102" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB290</v>
+      </c>
+      <c r="F102" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd_rCxiQpBiX3J45YQIx4En90n_I66-7DNj0b27EQmWKRro/7919554e-d449-461c-a4b3-3d0a989df32ejpeg.webp</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B103" t="str">
+        <v>R$ 108.200</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D103" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E103" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB307</v>
+      </c>
+      <c r="F103" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXufOEt_6yj3bwmD12t9I8phmk791VZtoIh3D94A/acdf5bba-1b92-423a-a110-e2b76dfbe2e0jpeg.webp</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B104" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D104" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E104" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/MF056</v>
+      </c>
+      <c r="F104" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDua_YpAqVWWb-yCEbFg4hfbnTM90V2Brie79w40/whatsappimage2021-07-20at1044352jpeg.webp</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B105" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D105" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E105" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/MF145</v>
+      </c>
+      <c r="F105" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0NfAE9mFRDpU4pbVTJbX05low_B0UGFrklrvW60/ce8f08a6-4af3-4ede-9518-6197966205cfjpg.webp</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B106" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D106" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E106" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB41</v>
+      </c>
+      <c r="F106" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcKjh4rmUmvStjPdtxJ7oiicpzY50Uu9rz_H6CmM/terrenoallesgutjpeg.webp</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B107" t="str">
+        <v>R$ 110.000</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D107" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E107" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416673</v>
+      </c>
+      <c r="F107" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7jng_F_ywjslOnasiie3E-D2g950UPloTy2_P5w/8c813453-6deb-4236-bc1e-3cc0f5fb7de5jpeg.webp</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B108" t="str">
+        <v>R$ 116.999</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D108" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E108" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/BR002</v>
+      </c>
+      <c r="F108" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbogeUwCVg1VVbOnbW2m5KpZpvQd1VGZoaTVGU44/img-20241220-wa0076jpg.webp</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B109" t="str">
+        <v>R$ 120.000</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D109" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E109" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/NE016</v>
+      </c>
+      <c r="F109" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0PqBd_rCxiQatmn1T4Ib_2g_xnMZGi2itDsk-f0bW_El2BKoAo/8d2546f9-5d4e-487d-8822-c7faede8dd3ajpg.webp</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B110" t="str">
+        <v>R$ 123.500</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D110" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E110" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/LKG02</v>
+      </c>
+      <c r="F110" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoOgv6rAlmjr0whgsBTZmlZfp1AZ0UIJrnbn9u-8/whatsappimage2022-09-26at092649jpeg.webp</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B111" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D111" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E111" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS2001</v>
+      </c>
+      <c r="F111" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjqDfkpk6CwVV7Bj7CtcXlWh3jQ50WCloOg4U258/fb695008-2b19-4e71-8006-ba12a1e381a4jpg.webp</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Linha Travessa Aeroporto</v>
+      </c>
+      <c r="B112" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D112" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E112" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-travessa-aeroporto-em-santa-cruz-do-sul/AE190</v>
+      </c>
+      <c r="F112" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7iBg_VH6WvusYlYtejcZEok4Q391VzpoZwV0D04/chacarajpg.webp</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B113" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D113" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E113" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-alianca-em-santa-cruz-do-sul/VB40</v>
+      </c>
+      <c r="F113" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUGeffbCaOsSa8rZqlWnX-2Du7R91ULZoI4ZKPiA/terrenoallesgut1jpeg.webp</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Rio Pardinho</v>
+      </c>
+      <c r="B114" t="str">
+        <v>R$ 130.000</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D114" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E114" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-rio-pardinho-em-santa-cruz-do-sul/Ale65</v>
+      </c>
+      <c r="F114" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHoFP3Jly5Ssl85hUS7cpavhpNdB0WtJoT2VSJdE/whatsappimage2025-01-14at1550171jpeg.webp</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B115" t="str">
+        <v>R$ 133.800</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D115" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E115" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/JS560</v>
+      </c>
+      <c r="F115" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhc8G15fpLvWfrlRU4ab3dbR6N6Q/monteverdeb1-15jpg.webp</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B116" t="str">
+        <v>R$ 135.000</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D116" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E116" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF263</v>
+      </c>
+      <c r="F116" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QprZg0r405cprc-H6Oj-4RCFmVdF0Tsxr7TvCjDM/e9576d06-9a91-4cca-939a-45c0afac57ddjpg.webp</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Faxinal Menino Deus</v>
+      </c>
+      <c r="B117" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D117" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E117" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-faxinal-menino-deus-em-santa-cruz-do-sul/162416631</v>
+      </c>
+      <c r="F117" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QnigvI57zWzpqGnYMNMc4FKl3Qz51V3RrkBDojVE/29979665-e91b-4d79-9c1f-32f6e09cf85cjpeg.webp</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B118" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D118" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E118" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/val34</v>
+      </c>
+      <c r="F118" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5tgRHF8T4uU6HaA1Rd_pGpfuLY90Wg9oMeum34U/whatsappimage2024-07-03at114536jpeg.webp</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Rio Pardinho</v>
+      </c>
+      <c r="B119" t="str">
+        <v>R$ 150.000</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D119" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E119" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-rio-pardinho-em-santa-cruz-do-sul/CI001</v>
+      </c>
+      <c r="F119" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_cx5rWns1_CdqyhUGX71WxFODHg/7b48940e-ee2a-4d9c-8d3c-71d64abb8cd1jpg.webp</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B120" t="str">
+        <v>R$ 150.000</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D120" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E120" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/T71</v>
+      </c>
+      <c r="F120" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsOhQbb_kQ6plGjntTJlu2qm2nEB0U7Jrq9tp-Ew/2cb28157-1e3c-4930-a36a-81cc68a47c6ejpg.webp</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B121" t="str">
+        <v>R$ 155.263</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D121" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E121" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/3592</v>
+      </c>
+      <c r="F121" t="str">
+        <v>https://s01.jetimgs.com/tnkeSA8rKcluoxtJpNvBBNnhiY_Ioh2UrpsRKW_I_Zv7Kz5dnaStbZe1Sk18jVG-QO1MAVRUpF8em8fyDpBBWKRyFDhB7QU3EAP9T7M2adYn7ps0wZN9n2KqA8Tty4sxmA/santavitoriajpg.webp</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B122" t="str">
+        <v>R$ 159.000</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D122" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E122" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/379</v>
+      </c>
+      <c r="F122" t="str">
+        <v>https://s01.jetimgs.com/tnkeSA8rKclupgtNpNhxSyyzLPGJoEabgEaJQb-4QRIYNttHXGN6IZ4VU5QEuyKvgMeu2aV3wBTmdB0LJrCm7pkk_5P1p4hUWlOGcx5E6hm2DQScn2V_z6Se5EHrRo2oA0s/20160323103722jpg.webp</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Distrito Industrial</v>
+      </c>
+      <c r="B123" t="str">
+        <v>R$ 159.990</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D123" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E123" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-1-quarto-a-venda-e-1-vaga-bairro-distrito-industrial-em-santa-cruz-do-sul/162416666</v>
+      </c>
+      <c r="F123" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJonvkiAzYquUOwcUVZl2RFbXHMZ0X6ho8PUnlac/whatsappimage2024-10-09at1520021jpeg.webp</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B124" t="str">
+        <v>R$ 160.000</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D124" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E124" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416681</v>
+      </c>
+      <c r="F124" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsOmmcpmSBXssraDbzJfGk3fonT90WxloWLbPRrQ/whatsappimage2025-01-02at112631jpeg.webp</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Rauber</v>
+      </c>
+      <c r="B125" t="str">
+        <v>R$ 160.000</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D125" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E125" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-5-quartos-a-venda-e-2-vagas-bairro-rauber-em-santa-cruz-do-sul/VB60</v>
+      </c>
+      <c r="F125" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfliQ41jyYnWVvNklm2YWZHfok6F0WKRocJ8MiEs/whatsappimage2025-01-03at1843241jpeg.webp</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B126" t="str">
+        <v>R$ 162.600</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D126" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E126" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS09</v>
+      </c>
+      <c r="F126" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGqBWX1veaqyxU7NL0zmgGEXQ/j6santaceciliajpg.webp</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B127" t="str">
+        <v>R$ 163.800</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D127" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E127" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS67</v>
+      </c>
+      <c r="F127" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGUW7rqHWerlBU4mL3ctTU9HQ/jssantaceciliajpg.webp</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B128" t="str">
+        <v>R$ 166.000</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D128" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E128" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/JS56</v>
+      </c>
+      <c r="F128" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbcGUmvpL4rgKixQ7v70JEfu9eA/j3santaceciliajpg.webp</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B129" t="str">
+        <v>R$ 169.070</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D129" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E129" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/16246</v>
+      </c>
+      <c r="F129" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61RToqIwe0ihU5Gb3Idw7Ybw/img20210408164331jpg.webp</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B130" t="str">
+        <v>R$ 169.070</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D130" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E130" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/165068</v>
+      </c>
+      <c r="F130" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61WyTrIuc1VRQ6lr1T7M0cHQ/img20210408164401jpg.webp</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B131" t="str">
+        <v>R$ 169.500</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D131" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E131" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB363</v>
+      </c>
+      <c r="F131" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAKhQEhglxESrrGYlNWdplVkGUzF1TvdrJOgBIkY/img8546jpeg.webp</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B132" t="str">
+        <v>R$ 170.000</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Loft</v>
+      </c>
+      <c r="D132" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E132" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/loft-com-1-quarto-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ale36</v>
+      </c>
+      <c r="F132" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJuB-Cq9zut2ss_lruthmRHd3VB51XANo_uoP-OE/whatsappimage2024-01-30at0912303jpeg.webp</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B133" t="str">
+        <v>R$ 171.000</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D133" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E133" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB25</v>
+      </c>
+      <c r="F133" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUKEubeF0Szrbwyd15abvhYaXIlF0UiNrxL-1Eqc/terrenogreenvillagejpeg.webp</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Schulz</v>
+      </c>
+      <c r="B134" t="str">
+        <v>R$ 171.500</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D134" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E134" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-schulz-em-santa-cruz-do-sul/FS18</v>
+      </c>
+      <c r="F134" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcCFgLSCqBVvrTQhqShluiycPTT90SctrKV3EW3g/whatsappimage2024-03-16at1015092jpeg.webp</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B135" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D135" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E135" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/624165</v>
+      </c>
+      <c r="F135" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8t5qhCVqoyer1BU66L1gAJpbSA/img20210408164109jpg.webp</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B136" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D136" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E136" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/16240</v>
+      </c>
+      <c r="F136" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l41RPrqYnn1FBQ4pL1qZjaucA/img20210408164035jpg.webp</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B137" t="str">
+        <v>R$ 172.250</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D137" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E137" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/41651</v>
+      </c>
+      <c r="F137" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61mjtKfWZ1VBQ4Tr0F89wfBg/img20210408164305jpg.webp</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B138" t="str">
+        <v>R$ 174.370</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D138" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E138" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/162450</v>
+      </c>
+      <c r="F138" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l61hOQ1PHl1CxU7Q71rk5r0Sg/img20210408164228jpg.webp</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B139" t="str">
+        <v>R$ 176.490</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D139" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E139" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/162001</v>
+      </c>
+      <c r="F139" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8l615VtLPOZ0ihQ5kL3tTg-hBQ/img20210408164438jpg.webp</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B140" t="str">
+        <v>R$ 179.000</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D140" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E140" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/LK219</v>
+      </c>
+      <c r="F140" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8Jl-0x_KCko0jAEV9TdIVJiYbcB0VAloa_Ay5G4/whatsappimage2024-11-14at094912jpeg.webp</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B141" t="str">
+        <v>R$ 180.000</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D141" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E141" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/Ale25</v>
+      </c>
+      <c r="F141" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBikuA1nKgzo7fQH6S8Y5JJgn3HF1W3ZoZU3tPjo/whatsappimage2023-09-15at095906jpeg.webp</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B142" t="str">
+        <v>R$ 180.000</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D142" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E142" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/LK218</v>
+      </c>
+      <c r="F142" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJoc_CxGF1cTbsjblO0hPWvmObBB1VrdoRQbQjM0/dji0209jpg.webp</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B143" t="str">
+        <v>R$ 180.200</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D143" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E143" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-esmeralda-em-santa-cruz-do-sul/CB138</v>
+      </c>
+      <c r="F143" t="str">
+        <v>https://s01.jetimgs.com/tnkeRxUvLclyoxtNjMVUBd4hA5PGrE1PfIIKYT-HpUu5hgG9bDlrmbT1I9xRPMDwuGpYK4bLA0cLxnz4eDm0zhB2AC-ivwTREbWvUM_oiAfOQZwsvEp0pVq6scXHDt3Qeg/wp20160420180936projpg.webp</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Progresso</v>
+      </c>
+      <c r="B144" t="str">
+        <v>R$ 181.000</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D144" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E144" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-progresso-em-santa-cruz-do-sul/MF022</v>
+      </c>
+      <c r="F144" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPkg815rBDs1HHl1VRgV2qu5q5E7nZvD1Q/64c6a344-4c3c-42c1-a33b-76a143ea8c4djpg.webp</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B145" t="str">
+        <v>R$ 181.000</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D145" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E145" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/BR012</v>
+      </c>
+      <c r="F145" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7iehYpi7A3QVg9ia1F_uReiOI4d0VS9oE0D0O8Q/torre1jpg.webp</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B146" t="str">
+        <v>R$ 184.333</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D146" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E146" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-sao-joao-em-santa-cruz-do-sul/LK204</v>
+      </c>
+      <c r="F146" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbimvXRGbtFzqcmDrdDYv9Tn2I791UIFoZZKy7Vc/20240903140349jpg.webp</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B147" t="str">
+        <v>R$ 187.000</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D147" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E147" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ADS0009</v>
+      </c>
+      <c r="F147" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEIih6l51RaX0Q_itxB82JRiINL50USFoS8XqN0E/kelly-1jpg.webp</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B148" t="str">
+        <v>R$ 187.090</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D148" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E148" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB146</v>
+      </c>
+      <c r="F148" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMWRQNFWh__kdNutqc9yEFc1AVbvPZXFgLLY1g8rcOsZ6petEgBc4EMzQTxxSwdrmQo_aId6-kOVwXMZnCGc558XjUB2yJeR2rijpQ/img20201111151559jpg.webp</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B149" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D149" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E149" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/LK116</v>
+      </c>
+      <c r="F149" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QbljuHZ_qi-sVY9kVO18X1Zjpk890VuxrjK9uYuQ/whatsappimage2023-05-18at1316202jpeg.webp</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B150" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D150" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E150" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB350</v>
+      </c>
+      <c r="F150" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GZhc59qxOX1vbkrVBU6D71XOU7Epw/whatsappimage2021-04-01at1009331jpeg.webp</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B151" t="str">
+        <v>R$ 189.000</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D151" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E151" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/OB16</v>
+      </c>
+      <c r="F151" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoPnfA1HLe4W17Gjrm2jPxYCIMvF1VTxrhWuUMX8/2bbc8c9c-2dd5-4ad1-b8cb-d9558a1cda73jpg.webp</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B152" t="str">
+        <v>R$ 190.000</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D152" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E152" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-bonfim-em-santa-cruz-do-sul/LK128</v>
+      </c>
+      <c r="F152" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqHgo4BKC3VkEgc6DQbWciHWo_B0VNRoOVcfH9o/whatsappimage2023-07-19at121659jpeg.webp</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B153" t="str">
+        <v>R$ 191.000</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D153" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E153" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-esmeralda-em-santa-cruz-do-sul/162416642</v>
+      </c>
+      <c r="F153" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OF_DLi1lAVUcleURBZomyE2Y8Z1UMBoZMknvg4/f88a7d0a-ca3c-4cb7-84c9-09102eddd12fjpeg.webp</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B154" t="str">
+        <v>R$ 192.390</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D154" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E154" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/16241647</v>
+      </c>
+      <c r="F154" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rmjsr4iZ0ixQHw71b44z40g/dsc02910jpg.webp</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B155" t="str">
+        <v>R$ 194.510</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D155" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E155" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB147</v>
+      </c>
+      <c r="F155" t="str">
+        <v>https://s01.jetimgs.com/tnkeSAcrLcluoxtJtEHLqmICbhM4bQcoMJZSYfMcyfFaVKGI7X6_woUY5rPy8kWC-hEkFYWOFjawyCZs4BEJg2WEngbOv6a_Ti9O8THBWsh9YVAsMaE_tK0/img20201111151037jpg.webp</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Faxinal</v>
+      </c>
+      <c r="B156" t="str">
+        <v>R$ 195.000</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D156" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E156" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-faxinal-em-santa-cruz-do-sul/CB310</v>
+      </c>
+      <c r="F156" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8BbQXN_6hbTaAgG7Csg3mwDZHQ50T6ZrHcjfAYk/img7596jpeg.webp</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B157" t="str">
+        <v>R$ 198.000</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D157" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E157" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/CB343</v>
+      </c>
+      <c r="F157" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qbpcf6uBEFUVE_JaUWsiohaAvTId0VrNoQmcjuWo/img1843jpeg.webp</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B158" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D158" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E158" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/77922</v>
+      </c>
+      <c r="F158" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYLl-814rmjtLfOar6hgV2qu3TZaRpag8hw/img20180412091206475jpg.webp</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B159" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D159" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E159" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB262</v>
+      </c>
+      <c r="F159" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoPcnA2DKtFyamuAFbBY29SDXYvF0Wepo9hW1dfg/img20220512162036jpg.webp</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B160" t="str">
+        <v>R$ 199.000</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D160" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E160" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/CB325</v>
+      </c>
+      <c r="F160" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAAlnXCHq9FxbjWl6zb9p9CZmVLF0Vh9rgdY4p-Q/img6761jpeg.webp</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B161" t="str">
+        <v>R$ 200.000</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D161" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E161" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/MF080</v>
+      </c>
+      <c r="F161" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5pdn7U8ShFsbPQk7jYZW1HlvE7B1UT9rz95ngy0/1bfe654d-8e02-4d86-b145-b30e35919d4ajpg.webp</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B162" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D162" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E162" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB144</v>
+      </c>
+      <c r="F162" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c78r5VsqvAZqlBQEIL1_0tXBpw/img20201113102755jpg.webp</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B163" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D163" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E163" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB145</v>
+      </c>
+      <c r="F163" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c7-qBXurPfkqyxQHzL1sfKFWoA/img20201113104050jpg.webp</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B164" t="str">
+        <v>R$ 207.230</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D164" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E164" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/62167</v>
+      </c>
+      <c r="F164" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rxfpLIrmrihUFPL1vj9rtSw/dsc02910jpg.webp</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B165" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D165" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E165" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/PJ51</v>
+      </c>
+      <c r="F165" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHjheXMAqC4qqHRh7hWmv0yCZQz50VDNoVgdT-S8/a4bce758-b1fc-48e4-a5b6-a7c2d0654056jpg.webp</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B166" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D166" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E166" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/162416659</v>
+      </c>
+      <c r="F166" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5mc_3A9EtSoUMgetOxn5xNb5ok91UwBrOU1O5l8/whatsappimage2024-09-10at133848jpeg.webp</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B167" t="str">
+        <v>R$ 210.000</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D167" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E167" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/162416663</v>
+      </c>
+      <c r="F167" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GY_ssB0hLt0o3l0lRUHqbzGipsN4w/72553ad6-c6a7-4f7a-9fd9-a821d45ef9edjpg.webp</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B168" t="str">
+        <v>R$ 214.650</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D168" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E168" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-linha-santa-cruz-em-santa-cruz-do-sul/62416</v>
+      </c>
+      <c r="F168" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYh8t7qxfor_GarVRQ4gb3JvL66ow/img20210408163946jpg.webp</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B169" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D169" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E169" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-a-venda-e-1-vaga-bairro-jardim-europa-em-santa-cruz-do-sul/MF259</v>
+      </c>
+      <c r="F169" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPm-c1_qhDtromfqShgV2qu0XZars7oa2A/fachadajpg.webp</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Santa Vitória</v>
+      </c>
+      <c r="B170" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D170" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E170" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-santa-vitoria-em-santa-cruz-do-sul/162416630</v>
+      </c>
+      <c r="F170" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXiehM2-LGurMrBkbTJmWlXd5rL90UHtrg2i4RJU/whatsappimage2023-11-27at1508571jpeg.webp</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B171" t="str">
+        <v>R$ 217.830</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D171" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E171" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/41647</v>
+      </c>
+      <c r="F171" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rRXoqIufrVRUFWL1pGFfNGQ/dsc02910jpg.webp</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B172" t="str">
+        <v>R$ 219.000</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D172" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E172" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-1-quarto-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale17</v>
+      </c>
+      <c r="F172" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3unRrODyhTWqe5jkdEc3mxdnkt91VvxoazCpnkg/whatsappimage2023-07-31at1115035jpeg.webp</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B173" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D173" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E173" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-senai-em-santa-cruz-do-sul/62A</v>
+      </c>
+      <c r="F173" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHkhLcHqRfp0vTlrihQFaL1iwEfDEg/824eb800-fce6-4e56-b089-40744a78d6b6jpeg.webp</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B174" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D174" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E174" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/VB42</v>
+      </c>
+      <c r="F174" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsBcuDB4SNFRb83ak1GdWlfaJUzB0TX9rJhCeuZI/casacarlosjpeg.webp</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B175" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D175" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E175" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-universitario-em-santa-cruz-do-sul/MEB02</v>
+      </c>
+      <c r="F175" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIFkhAl8S5MvqDKBs6whoU2H3go50TvNr4TQ-tfQ/whatsapp-image-2020-03-07-at-09jpg.webp</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B176" t="str">
+        <v>R$ 225.000</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D176" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E176" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/VB44</v>
+      </c>
+      <c r="F176" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QMNcnAm6S6sRaDaYaBeipZKjZ1N50UaRrpekBYuQ/aptobarcelonajpeg.webp</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B177" t="str">
+        <v>R$ 229.000</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D177" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E177" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/162416657</v>
+      </c>
+      <c r="F177" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjljnreFlSl2kAmh6igc2Sll4EoZ1VLFoSZi3WSk/010jpg.webp</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B178" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D178" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E178" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-senai-em-santa-cruz-do-sul/RB31</v>
+      </c>
+      <c r="F178" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KbBrcAqxfprvGZ0lBU4lr0xjPAgNg/whatsappimage2021-05-05at160310jpeg.webp</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B179" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D179" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E179" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416572</v>
+      </c>
+      <c r="F179" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcObQA84a4nVVA4ks1AmoRRaPYwd0UXJrk07m_OQ/whatsappimage2022-10-31at1730371jpeg.webp</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B180" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D180" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E180" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-senai-em-santa-cruz-do-sul/val008</v>
+      </c>
+      <c r="F180" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcAEh7BG6WzsqojkLzCiZ5bnu43F0Tchr7y4hKCE/whatsappimage2023-08-17at101309jpeg.webp</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B181" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D181" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E181" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/A121</v>
+      </c>
+      <c r="F181" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QZocmbMFrRas0OvctxV8pmvdvkl90VutoYBUbGuc/img9761jpeg.webp</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B182" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D182" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E182" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/162416603</v>
+      </c>
+      <c r="F182" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBrZwCpEzGiq1wlkl6xgX6ieuoqF0W-NocqgjjDY/jpeg1jpg.webp</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Higienópolis</v>
+      </c>
+      <c r="B183" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D183" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E183" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-higienopolis-em-santa-cruz-do-sul/LK158</v>
+      </c>
+      <c r="F183" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcIawLJ-SVXT0QohkyoaW9CZn4791SOlrP-ZsI50/whatsappimage2023-12-12at105633jpeg.webp</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B184" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D184" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E184" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/162416676</v>
+      </c>
+      <c r="F184" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBtf-KxBKhIvsrSD1RDeWkiCZLaB1WCFo6GaGoXk/jpgjpeg.webp</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B185" t="str">
+        <v>R$ 230.000</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D185" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E185" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-independencia-em-santa-cruz-do-sul/FS36</v>
+      </c>
+      <c r="F185" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qrmcm8lhKQjvV7fgkmjhYhWEmzFF1VO5oc5vJlPo/1jpg.webp</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B186" t="str">
+        <v>R$ 232.000</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D186" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E186" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-margarida-em-santa-cruz-do-sul/LD07</v>
+      </c>
+      <c r="F186" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqBni847-6ulszZVNAj2CiYHw591WZZoI6mXOdg/terrenohenriqueschuster2jpg.webp</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B187" t="str">
+        <v>R$ 232.000</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D187" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E187" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-sao-joao-em-santa-cruz-do-sul/162416598</v>
+      </c>
+      <c r="F187" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJmfvai6rQ7qqzPe6u2j3GhjW3b51UYhrjMgXXsw/5c1542da-e707-47e0-b869-f040966138a4jfif.webp</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Monte Verde</v>
+      </c>
+      <c r="B188" t="str">
+        <v>R$ 233.568</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D188" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E188" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-monte-verde-em-santa-cruz-do-sul/AE126</v>
+      </c>
+      <c r="F188" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbb70W-Wq_Plq6hU5J73eLg0QHw/a14jpg.webp</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B189" t="str">
+        <v>R$ 235.000</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D189" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E189" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-margarida-em-santa-cruz-do-sul/162416658</v>
+      </c>
+      <c r="F189" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHoYuUuFkO9RaIgnVtd9XlOn4Fad0Wsxo6cbNrLs/whatsappimage2025-02-20at021654jpeg.webp</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B190" t="str">
+        <v>R$ 238.930</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D190" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E190" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/CB340</v>
+      </c>
+      <c r="F190" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZ-LR812qQqvWbqChU71L3PUBUMzA/fachadajpg.webp</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B191" t="str">
+        <v>R$ 239.000</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D191" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E191" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale18</v>
+      </c>
+      <c r="F191" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDhbfLS8FdHq7G5YVu2kYqodZ1QZ1TExr2MEDfls/whatsappimage2023-07-31at111538jpeg.webp</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B192" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D192" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E192" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/RB60</v>
+      </c>
+      <c r="F192" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0HYRrECVQztFQ4DkBcc3SojmnYB1UWhrvDVmpKY/whatsappimage2023-08-28at0942561jpeg.webp</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B193" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D193" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E193" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-ana-nery-em-santa-cruz-do-sul/AE193</v>
+      </c>
+      <c r="F193" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_vcvAh5EQ0qbsvY0e99n9ai2wo50Uppry2UqJ9s/1f7cb544-b1a8-4d2d-85ce-e9166532865ajpg.webp</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B194" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D194" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E194" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-arroio-grande-em-santa-cruz-do-sul/LK184</v>
+      </c>
+      <c r="F194" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QkIHu_Rn7hHy6siB65BbmS4EGM091VpNoaLwdVkY/whatsappimage2024-04-03at103045amjpeg.webp</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B195" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D195" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E195" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-goias-em-santa-cruz-do-sul/FS23</v>
+      </c>
+      <c r="F195" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QjhhxU7mzBVW6YuBqmyfu1HYozI90VJ1rmKg9w8s/vivazjpg.webp</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B196" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D196" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E196" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-centro-em-santa-cruz-do-sul/DS4064</v>
+      </c>
+      <c r="F196" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GagDb_rBFs0faYrSxU5Pr3o7iqaEA/001jpeg.webp</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B197" t="str">
+        <v>R$ 240.237</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D197" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E197" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/MF172</v>
+      </c>
+      <c r="F197" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUPgnYk_69epku1nl9J4mVXn44pF1Vdlrn-WOBpY/fachadajpg.webp</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B198" t="str">
+        <v>R$ 244.330</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D198" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E198" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/162416</v>
+      </c>
+      <c r="F198" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHk_rB_rBSQrfLlqixUEo71xGIRhgQ/dsc02910jpg.webp</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B199" t="str">
+        <v>R$ 244.700</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D199" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E199" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/LK182</v>
+      </c>
+      <c r="F199" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEDZequ-SarXVY6nV5SdoKxm2HE90WrxoGD9PjzM/whatsappimage2025-02-10at213617jpeg.webp</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B200" t="str">
+        <v>R$ 245.000</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D200" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E200" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/48006</v>
+      </c>
+      <c r="F200" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYPnhrd60SKe6HD8OTgdl2VCgBMXVwCfD/img20171003160959057hdrjpg.webp</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B201" t="str">
+        <v>R$ 246.960</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D201" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E201" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/162416562</v>
+      </c>
+      <c r="F201" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJrme6t511SRrc_hbtIdO9NbYVf50VdhoU6851Bo/01porticoef-1-scaledjpg.webp</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B202" t="str">
+        <v>R$ 247.510</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D202" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E202" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB142</v>
+      </c>
+      <c r="F202" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYHn_c7915VuqfeZrFBQFdr0RhXODUQ/img20201113101454jpg.webp</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B203" t="str">
+        <v>R$ 247.510</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D203" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E203" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/CB143</v>
+      </c>
+      <c r="F203" t="str">
+        <v>https://s01.jetimgs.com/tnkeSAcrLcluoxtJ8EHLf5GRzus35A6epSY09CfXUL6u8OsRTRX9Rm_6Dd05ZfPJ2uhT4EsCQTTFH-wUHooijJa48ACba0JKzXocYsP9EaFyZgYslis_LeY/img20201111145226jpg.webp</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B204" t="str">
+        <v>R$ 249.000</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D204" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E204" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/Ale54</v>
+      </c>
+      <c r="F204" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GbgrMFr5PpKfGYKVBU4uL3d1ot5JA/dscn6979jpg.webp</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Senai</v>
+      </c>
+      <c r="B205" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D205" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E205" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-senai-em-santa-cruz-do-sul/MF153</v>
+      </c>
+      <c r="F205" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8rrvhyowtNlDcXGqP4edMxviUHfT7Tcf1ZW1ExJ4h_7bJR505GWfGwrNh3Gw3x0aQBgRZG08C2PZJjzMXAEvsld2Zsl3P2u91GBS9i3w5A0VosOyiu9b3oKuU4288/dscn3103jpg.webp</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B206" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D206" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E206" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-arroio-grande-em-santa-cruz-do-sul/AE165</v>
+      </c>
+      <c r="F206" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcPYQPBEalMWaMvYtlTnvClmuzZ91UlFof9f94q0/233294ed-9935-4b7f-8477-6abd3f434421jpg.webp</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B207" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D207" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E207" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF101</v>
+      </c>
+      <c r="F207" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJrjAXSG69epUExl16wZGKvjpVY51VX9oR7eL0nM/img20220121155421532hdrjpg.webp</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B208" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D208" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E208" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-renascenca-em-santa-cruz-do-sul/PJ31</v>
+      </c>
+      <c r="F208" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qnpdw80C1at0kY2kaRMlupTeOIs90VtloYatnXZw/3f308c20-06ff-42f7-8d9c-13bf93ec6c5djpg.webp</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Castelo Branco</v>
+      </c>
+      <c r="B209" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D209" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E209" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-a-venda-bairro-castelo-branco-em-santa-cruz-do-sul/03600</v>
+      </c>
+      <c r="F209" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8LbwA9C0FfzVDWkEFVb32oEoTc51TKlrqcAmh-A/8fc7ca9d-be74-4e7e-8324-9a51a632f272jfif.webp</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B210" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D210" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E210" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-alianca-em-santa-cruz-do-sul/Val33</v>
+      </c>
+      <c r="F210" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QLuaQ41GFNPWt_fc7C55Ja6n3ko90TsdrNWidO90/casaaajfif.webp</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B211" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D211" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E211" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-3-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/ANG035</v>
+      </c>
+      <c r="F211" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3thQHJ-6mrRULQErOpfHq2Y51HB1V3trvg2viUM/whatsappimage2024-07-29at221655jpeg.webp</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B212" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D212" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E212" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/ANG037</v>
+      </c>
+      <c r="F212" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8BhQLFH62spaQ1hrura3JZaIM3F0U85rEPtHVys/whatsappimage2024-07-30at1924271jpeg.webp</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B213" t="str">
+        <v>R$ 250.000</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D213" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E213" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/AN43</v>
+      </c>
+      <c r="F213" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7rdGKlG1NQRKswn7zTlnZfnWkq50UJtrq2kbaP4/whatsappimage2024-07-27at151840jpeg.webp</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B214" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D214" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E214" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/RB59</v>
+      </c>
+      <c r="F214" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDpnmXJhFu8UUjVh1m9f5Uuh2Ex90X0NoEFu_vTQ/whatsappimage2023-08-28at0942561jpeg.webp</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B215" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D215" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E215" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/FT043</v>
+      </c>
+      <c r="F215" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_tYgXKB1-kqs4um6xclGhRjmlb91UbNoY-1J_Xo/whatsappimage2021-10-28at150355jpeg.webp</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Margarida - Aurora</v>
+      </c>
+      <c r="B216" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D216" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E216" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-margarida-aurora-em-santa-cruz-do-sul/LK127</v>
+      </c>
+      <c r="F216" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIGFm3CGrSzq0vVl7iikoKuHnA051UMlr3SISH78/whatsappimage2023-07-05at160047jpeg.webp</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B217" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D217" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E217" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/DS003</v>
+      </c>
+      <c r="F217" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYKYe7JFKNKo6gmB7jclZ21bX3EF1TB9r-OnOOGU/001jpeg.webp</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B218" t="str">
+        <v>R$ 255.000</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D218" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E218" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/BR015</v>
+      </c>
+      <c r="F218" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8AkvY5hkFIV0w9aqCrf39IcHnQ50Ubtrw2Ql82A/img-20250224-wa0038jpg.webp</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B219" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D219" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E219" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/FS16</v>
+      </c>
+      <c r="F219" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYFdfEr6KFNzacumbtBbXFCjmU650UHlrowk-6tw/whatsappimage2024-03-05at163602jpeg.webp</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B220" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D220" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E220" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/VB28</v>
+      </c>
+      <c r="F220" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXuAxotnFlHy1HOgMW1lpRVbowqZ1VXlroMzlUQs/terrenoruadinamarcajpeg.webp</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Vila Schultz</v>
+      </c>
+      <c r="B221" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D221" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E221" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-vila-schultz-em-santa-cruz-do-sul/Val32</v>
+      </c>
+      <c r="F221" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAADRUi5Etfwbm9isCjn2qrmOw9F0VCxoI5eHVX4/whatsappimage2024-06-06at120430jpeg.webp</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Linha Santa Cruz</v>
+      </c>
+      <c r="B222" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D222" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E222" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-linha-santa-cruz-em-santa-cruz-do-sul/MF265</v>
+      </c>
+      <c r="F222" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfjlvkxHySrrlQ7YVCmZpxRaO3QF0VdhrtDA3N0g/51dd9874-cdd2-4065-9782-bf5dd8d9d400jpg.webp</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B223" t="str">
+        <v>R$ 262.000</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D223" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E223" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/MF233</v>
+      </c>
+      <c r="F223" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QIIlxchjFwzzkgpiMSscpRZaHLVB0VXdoaCaRk9A/14-portaria-parquedasoliveirasjpg.webp</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B224" t="str">
+        <v>R$ 264.000</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D224" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E224" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/AN22</v>
+      </c>
+      <c r="F224" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q3pg-HKGaA7xss6n0DOmYq6bXHYZ1XEpoqhXrlvM/whatsappimage2024-08-21at2015546jpeg.webp</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B225" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D225" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E225" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-centro-em-santa-cruz-do-sul/val006</v>
+      </c>
+      <c r="F225" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAHfeotA7a0WkzOCsumfZ9OenPDF1UM1rqctCSzU/whatsappimage2023-08-16at100342jpeg.webp</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B226" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D226" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E226" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/MF241</v>
+      </c>
+      <c r="F226" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDmin7U5rBT1t8hZqBNhmeulYQoB0UcNrHn93p-0/a97a91e1-f3ce-4d64-bc7b-9f2533c29901jpg.webp</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B227" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D227" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E227" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/PAT004</v>
+      </c>
+      <c r="F227" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEHnHbdErdQS7veAbilfpSpmoTb91UbNropQnbrc/whatsappimage2025-02-15at1000399jpeg.webp</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Castelo Branco</v>
+      </c>
+      <c r="B228" t="str">
+        <v>R$ 266.000</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D228" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E228" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-castelo-branco-em-santa-cruz-do-sul/LK169</v>
+      </c>
+      <c r="F228" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4Pevc5n1al20gqFU7Wf2Wre4HB50W1JoAWt_dNM/whatsappimage2024-02-07at080528jpeg.webp</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B229" t="str">
+        <v>R$ 269.000</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D229" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E229" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/JS026</v>
+      </c>
+      <c r="F229" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHtY_syAz5GulciGtBR_Ok-nmUy50WHdo5fz-B9k/8bb3c980-fb58-4c73-bcd5-48aecffec982jpg.webp</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B230" t="str">
+        <v>R$ 269.000</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D230" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E230" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/JS027</v>
+      </c>
+      <c r="F230" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXgFnIzgFVYWUowkLuz7m1BkHraZ1XthoyRiZI-0/img2639jpeg.webp</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B231" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D231" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E231" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-4-quartos-a-venda-e-2-vagas-bairro-bonfim-em-santa-cruz-do-sul/MF160</v>
+      </c>
+      <c r="F231" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QXlfQ_J7ldHxUrKm1DaioU4eJY3F1U4xr5Ji7Q9o/17abe718-bed9-489c-b7a9-61181eff816cjpg.webp</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B232" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D232" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E232" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/MF226</v>
+      </c>
+      <c r="F232" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEIGQ0iCSG2ubgpj6m8gmJWbpHB90W-prkbhy6yE/whatsappimage2024-03-20at180155jpeg.webp</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Santo Antônio</v>
+      </c>
+      <c r="B233" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D233" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E233" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-santo-antonio-em-santa-cruz-do-sul/162416638</v>
+      </c>
+      <c r="F233" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4GZhDN80hSU0o3kqShQ4hL04CvqSNA/jpg19jpg.webp</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B234" t="str">
+        <v>R$ 275.000</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D234" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E234" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB39</v>
+      </c>
+      <c r="F234" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QYCjADdjyC0pKO1lqBNYuRWb3VXB0Ux5rpiHj39k/terrenobelleville4jpeg.webp</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B235" t="str">
+        <v>R$ 277.000</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D235" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E235" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/Ale55</v>
+      </c>
+      <c r="F235" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4BjfDJjllAsszIgsxIjXVWhXYnF1UExrtfM69k4/whatsappimage2024-11-05at170117jpeg.webp</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B236" t="str">
+        <v>R$ 278.000</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D236" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E236" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/ANG029</v>
+      </c>
+      <c r="F236" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcODh3eEKRIRNQ7lkFRmXa3lYgx90VPdoLAdYtnc/whatsappimage2024-07-24at1133182jpeg.webp</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B237" t="str">
+        <v>R$ 279.000</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D237" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E237" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/BM93</v>
+      </c>
+      <c r="F237" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUKdvE5hr--SrOgZtRNgXS7f2YsB0VkprgYsdmOo/whatsappimage2023-01-03at0957202jpeg.webp</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Jardim Europa</v>
+      </c>
+      <c r="B238" t="str">
+        <v>R$ 279.125</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D238" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E238" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-jardim-europa-em-santa-cruz-do-sul/JS906</v>
+      </c>
+      <c r="F238" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhbb70W6Rq_QcKlBQ5dL3ZUPJwCw/j5jardimeuropajpg.webp</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Aliança</v>
+      </c>
+      <c r="B239" t="str">
+        <v>R$ 279.567</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D239" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E239" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-alianca-em-santa-cruz-do-sul/MF174</v>
+      </c>
+      <c r="F239" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZhDV-URFqqHbhqVRQ-xL31d7wuGQ/fachadajpg.webp</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B240" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D240" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E240" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/LK77</v>
+      </c>
+      <c r="F240" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqakfQ1UP23uD_a6BKO0NqBd_rCxiQBKZurA-GwZRQcZbjKym_2q_i8yb1bBTEDhWYNMs/img20221206181108917jpg.webp</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Esmeralda</v>
+      </c>
+      <c r="B241" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D241" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E241" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-esmeralda-em-santa-cruz-do-sul/LK82</v>
+      </c>
+      <c r="F241" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QHmkw3M50G71lbLYExCc2K3n4Q651UBpriqEb214/whatsappimage2023-01-16at095746jpeg.webp</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Germânia</v>
+      </c>
+      <c r="B242" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D242" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E242" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-germania-em-santa-cruz-do-sul/162416596</v>
+      </c>
+      <c r="F242" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0CiRrd_LY7VrDOg6FWbX5Sf4vKd0TAxrxXyVqyY/88cbc5e0-5a7f-48fa-b377-fd8f8c087279jfif.webp</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B243" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D243" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E243" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-bonfim-em-santa-cruz-do-sul/03601</v>
+      </c>
+      <c r="F243" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OY_sp5rmrv1HaeryxQEXr1ordDbTQ/whatsappimage2021-06-09at1153211jpeg.webp</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Vila Schultz</v>
+      </c>
+      <c r="B244" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D244" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E244" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-3-vagas-bairro-vila-schultz-em-santa-cruz-do-sul/CS105</v>
+      </c>
+      <c r="F244" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QcCAQIk4rVXqlenZVBDiWatiuvR90UAhoRcG07mA/img4207jpeg.webp</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B245" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D245" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E245" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-bairro-centro-em-santa-cruz-do-sul/Mb22</v>
+      </c>
+      <c r="F245" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q0Pmwou-btUvaA9j6Wpju9CeYo0d1U2RrHadRZts/whatsappimage2024-07-02at0918231jpeg.webp</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B246" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D246" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E246" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/162416650</v>
+      </c>
+      <c r="F246" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QZoEvctnF42vNfJctjWnmK_mGPU90XcNo0KiA7bQ/img20180728161801828jpg.webp</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Schulz</v>
+      </c>
+      <c r="B247" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D247" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E247" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-schulz-em-santa-cruz-do-sul/MF267</v>
+      </c>
+      <c r="F247" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QBtmRUkDzRNVEcxc6DdgZlCfX3f90WwtrnQTk5gI/site1jpg.webp</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B248" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D248" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E248" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/CB113</v>
+      </c>
+      <c r="F248" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhDcGV5CXm3M5Cxkn-zwE_823B/img20210414161750jpg.webp</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B249" t="str">
+        <v>R$ 287.000</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D249" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E249" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/RB25</v>
+      </c>
+      <c r="F249" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KYhcp-UBXvqPXi16hU5Wr3JLdWvSw/whatsappimage2021-04-07at1457321jpeg.webp</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B250" t="str">
+        <v>R$ 288.000</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D250" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E250" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/ANG007</v>
+      </c>
+      <c r="F250" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QJpkfK-FyRAXqfAmVS9k2FdlpvTF0WhVrhdgxZi0/whatsappimage2024-04-18at1356162jpeg.webp</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B251" t="str">
+        <v>R$ 289.000</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D251" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E251" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/BR006</v>
+      </c>
+      <c r="F251" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q8IjHbe47e1UtPQAqdbfZm4AZ7fF1V5podgrOnhU/img-20250103-wa0004jpg.webp</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Zona Rural</v>
+      </c>
+      <c r="B252" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D252" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E252" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-zona-rural-em-santa-cruz-do-sul/6926</v>
+      </c>
+      <c r="F252" t="str">
+        <v>https://s01.jetimgs.com/tnkeSI8oLcluoxvThBfaLQyEHFLW0x2Rejo1tC81xpeAn0sEPWr45oVYgzt0pUObE1X7dFTpkBR-lljt-lbZBe8lNJHcjigpnettrOlypPKSesl23lVmpF2p9sVZy23vTQ/dsc2159jpg.webp</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B253" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D253" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E253" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-2-vagas-bairro-joao-alves-em-santa-cruz-do-sul/JB10</v>
+      </c>
+      <c r="F253" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QhuBxDGHKRHrq-qnti2imSyd2tf91V5RoaU3F_Uc/img4321jpg.webp</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B254" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D254" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E254" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-santo-inacio-em-santa-cruz-do-sul/FS32</v>
+      </c>
+      <c r="F254" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QvtavAy4Lg3RLs3hq6ynX9JavM450Ub9r-jh5dq8/j21jpg.webp</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B255" t="str">
+        <v>R$ 293.000</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D255" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E255" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-joao-alves-em-santa-cruz-do-sul/JS769</v>
+      </c>
+      <c r="F255" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4KiwK27lg0WVDGfU2okn-7n4QsF1Uulr6Q3OvRY/8443c42c-d89a-45fa-b6ce-d90e10176f40jpg.webp</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B256" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D256" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E256" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/AE203</v>
+      </c>
+      <c r="F256" t="str">
+        <v>https://s01.jetimgs.com/tnkeSB8vLcluowtNjMU9TM8KxpIm_kZMqs9yEFc1Ru-Pn0sERGrREaUAObabWuBwPSQTtB4MRcbQNqBB9bRZrOtF8jAvuuVp_TN8GKd6CfbTpBOhSZnZRmK1zjzzZctt/imagensimoveisfoto197716071jpg.webp</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B257" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D257" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E257" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/AE204</v>
+      </c>
+      <c r="F257" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QUBfGDB6LxKT07KZ7OheXBdYuEjB1TSdrAkKCflk/imagensimoveisfoto197716072jpg.webp</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Arroio Grande</v>
+      </c>
+      <c r="B258" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D258" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E258" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-arroio-grande-em-santa-cruz-do-sul/MF250</v>
+      </c>
+      <c r="F258" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QhgAfCm71xUrkc_dUbSj5FKaZUwd1VDZrpt0WaUg/cecbfd8c-5cfc-446f-aeb6-430ce2b89364jpg.webp</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B259" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D259" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E259" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/val37</v>
+      </c>
+      <c r="F259" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5mghArmFO-QrDaittIgW6icpU5F1Vfhrp5h19oI/jpgjfif.webp</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B260" t="str">
+        <v>R$ 297.000</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D260" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E260" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/val38</v>
+      </c>
+      <c r="F260" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Qhlhh_a9FSv364vYtNWdPa5bmo3B0VOZoKvy8i2Y/jpgjfif.webp</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B261" t="str">
+        <v>R$ 297.359</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D261" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E261" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/CB287</v>
+      </c>
+      <c r="F261" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QDjk-7Z_KhLWb_OgsxVe589iprXB0Umxr3P0loiU/86515608-e001-4e70-a373-4b32eee44a30jpeg.webp</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>João Alves</v>
+      </c>
+      <c r="B262" t="str">
+        <v>R$ 297.800</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D262" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E262" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-bairro-joao-alves-em-santa-cruz-do-sul/LK203</v>
+      </c>
+      <c r="F262" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QECfxk4FyW_QsvWGthSn5Czh4rU91VtdoTg_P53A/whatsappimage2024-09-04at1123152jpeg.webp</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B263" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D263" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E263" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF227</v>
+      </c>
+      <c r="F263" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q4OZgDN90WuTq_Qe0yhQ5A73XwcqfmA/img20220121155421532hdrjpg.webp</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B264" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D264" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E264" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-avenida-em-santa-cruz-do-sul/LK164</v>
+      </c>
+      <c r="F264" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q_lhwrOBk6ns0A1ctumcXqnbYg1B0VnBrlAWdeL0/whatsappimage2024-01-19at0953112jpeg.webp</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>São João</v>
+      </c>
+      <c r="B265" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D265" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E265" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-sao-joao-em-santa-cruz-do-sul/VB62</v>
+      </c>
+      <c r="F265" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QfqgQAuFyAipq8xmaxWYpW1YGHQ91VaFrntcMtCQ/whatsappimage2025-01-20at1144253jpeg.webp</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B266" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D266" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E266" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-universitario-em-santa-cruz-do-sul/MF264</v>
+      </c>
+      <c r="F266" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QAAjvEhGVxKobM4CqCum3kokpw1F0TlNrJh4vCq8/165d66c0-d587-4c57-a7ff-05da319f0f78jpg.webp</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B267" t="str">
+        <v>R$ 299.000</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D267" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E267" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-1-quarto-a-venda-bairro-universitario-em-santa-cruz-do-sul/B001</v>
+      </c>
+      <c r="F267" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7mGwLCFqdAr6jQGamyiW66Dmzcd1V9JoWijUZPo/1-externa01baixajpg.webp</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Country</v>
+      </c>
+      <c r="B268" t="str">
+        <v>R$ 299.000</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D268" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E268" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/terreno--lote-a-venda-bairro-country-em-santa-cruz-do-sul/VB53</v>
+      </c>
+      <c r="F268" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q7vY-3OHza1XkPJYrBNcmC6cm4zF1UBZr_uzZl4w/whatsappimage2024-11-07at145114jpeg.webp</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Margarida</v>
+      </c>
+      <c r="B269" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D269" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E269" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-2-quartos-a-venda-e-2-vagas-bairro-margarida-em-santa-cruz-do-sul/FT028</v>
+      </c>
+      <c r="F269" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31Q5nbh684z-ys7_Dn1-9ipEmEvNQd1V9RoIq-fCUc/whatsappimage2022-01-14at0945083jpeg.webp</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B270" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D270" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E270" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/casa-com-3-quartos-a-venda-e-2-vagas-bairro-universitario-em-santa-cruz-do-sul/JS591</v>
+      </c>
+      <c r="F270" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QsDbefdEkmjWbAlkUCljoJLj246B0Uw1rHTU9y2A/61061720-84d4-480b-9a4b-021dde552239jpg.webp</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B271" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D271" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E271" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/LK142</v>
+      </c>
+      <c r="F271" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QoKihM7_0-6UrbHhUtCdGi_aZk_50Ttpr8RoCYS8/whatsappimage2023-09-05at1044441jpeg.webp</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Ana Nery</v>
+      </c>
+      <c r="B272" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C272" t="str">
+        <v>Geminado</v>
+      </c>
+      <c r="D272" t="str">
+        <v>borbaimoveis</v>
+      </c>
+      <c r="E272" t="str">
+        <v>https://www.borbaimoveis.com.br/imovel/geminado-com-2-quartos-a-venda-e-1-vaga-bairro-ana-nery-em-santa-cruz-do-sul/CB345</v>
+      </c>
+      <c r="F272" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vk31QEJnxEyA11ATETJia1BeYRahuoid0UPxoZqd2p0w/img2071jpeg.webp</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B273" t="str">
+        <v>R$ 205.000,00</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D273" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E273" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005025</v>
+      </c>
+      <c r="F273" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005025_86548.jpg</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B274" t="str">
+        <v>R$ 210.000,00</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D274" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E274" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/1447901</v>
+      </c>
+      <c r="F274" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1447901_138120.jpg</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B275" t="str">
+        <v>R$ 215.000,00</v>
+      </c>
+      <c r="C275" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D275" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E275" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/10005026</v>
+      </c>
+      <c r="F275" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10005026_86549.jpg</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B276" t="str">
+        <v>R$ 224.160,87</v>
+      </c>
+      <c r="C276" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D276" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E276" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Renascenca/Santa-Cruz-Do-Sul/RS/10012361</v>
+      </c>
+      <c r="F276" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012361_159405.jpg</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B277" t="str">
+        <v>R$ 230.000,00</v>
+      </c>
+      <c r="C277" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D277" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E277" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/158601</v>
+      </c>
+      <c r="F277" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/158601_131433.jpg</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B278" t="str">
+        <v>R$ 240.000,00</v>
+      </c>
+      <c r="C278" t="str">
+        <v>Kitnet</v>
+      </c>
+      <c r="D278" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E278" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Kitnet/Centro/Santa-Cruz-Do-Sul/RS/10011968</v>
+      </c>
+      <c r="F278" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011968_147449.jpg</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B279" t="str">
+        <v>R$ 240.000,00</v>
+      </c>
+      <c r="C279" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D279" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E279" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10003667</v>
+      </c>
+      <c r="F279" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10003667_167079.jpg</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B280" t="str">
+        <v>R$ 245.000,00</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D280" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E280" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Universitario/Santa-Cruz-Do-Sul/RS/31024</v>
+      </c>
+      <c r="F280" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31024_133771.jpg</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B281" t="str">
+        <v>R$ 245.000,00</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D281" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E281" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/9999966</v>
+      </c>
+      <c r="F281" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/9999966_168354.jpg</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B282" t="str">
+        <v>R$ 248.000,00</v>
+      </c>
+      <c r="C282" t="str">
+        <v>Alvenaria</v>
+      </c>
+      <c r="D282" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E282" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Alvenaria/Centro/Santa-Cruz-Do-Sul/RS/258601</v>
+      </c>
+      <c r="F282" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/258601_162112.jpg</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B283" t="str">
+        <v>R$ 250.000,00</v>
+      </c>
+      <c r="C283" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D283" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E283" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2692701</v>
+      </c>
+      <c r="F283" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2692701_159670.jpg</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B284" t="str">
+        <v>R$ 259.000,00</v>
+      </c>
+      <c r="C284" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="D284" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E284" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10012676</v>
+      </c>
+      <c r="F284" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012676_168123.jpg</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B285" t="str">
+        <v>R$ 265.000,00</v>
+      </c>
+      <c r="C285" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D285" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E285" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1208403</v>
+      </c>
+      <c r="F285" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1208403_134957.jpg</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B286" t="str">
+        <v>R$ 270.000,00</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D286" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E286" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10011726</v>
+      </c>
+      <c r="F286" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011726_137618.jpg</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B287" t="str">
+        <v>R$ 276.000,00</v>
+      </c>
+      <c r="C287" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D287" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E287" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/1545701</v>
+      </c>
+      <c r="F287" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1545701_94932.jpg</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B288" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C288" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="D288" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E288" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/10010883</v>
+      </c>
+      <c r="F288" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10010883_149021.jpg</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B289" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C289" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D289" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E289" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10011932</v>
+      </c>
+      <c r="F289" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011932_146006.jpg</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B290" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C290" t="str">
+        <v>Chale</v>
+      </c>
+      <c r="D290" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E290" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Santo-Inacio/Santa-Cruz-Do-Sul/RS/10012655</v>
+      </c>
+      <c r="F290" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012655_167569.jpg</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B291" t="str">
+        <v>R$ 280.000,00</v>
+      </c>
+      <c r="C291" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D291" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E291" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10004210</v>
+      </c>
+      <c r="F291" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10004210_152143.jpg</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B292" t="str">
+        <v>R$ 285.000,00</v>
+      </c>
+      <c r="C292" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D292" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E292" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/467503</v>
+      </c>
+      <c r="F292" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/467503_154417.jpg</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B293" t="str">
+        <v>R$ 285.000,00</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D293" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E293" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/322204</v>
+      </c>
+      <c r="F293" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/322204_162101.jpg</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B294" t="str">
+        <v>R$ 286.500,00</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="D294" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E294" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Sala-Comercial/Centro/Santa-Cruz-Do-Sul/RS/1492401</v>
+      </c>
+      <c r="F294" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1492401_112321.jpg</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B295" t="str">
+        <v>R$ 289.863,83</v>
+      </c>
+      <c r="C295" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D295" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E295" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Goias/Santa-Cruz-Do-Sul/RS/10011744</v>
+      </c>
+      <c r="F295" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10011744_138938.jpg</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B296" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D296" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E296" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31008</v>
+      </c>
+      <c r="F296" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31008_165692.jpg</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B297" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Chale</v>
+      </c>
+      <c r="D297" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E297" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Chale/Centro/Santa-Cruz-Do-Sul/RS/220501</v>
+      </c>
+      <c r="F297" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/220501_122461.jpg</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B298" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C298" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D298" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E298" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/2019701</v>
+      </c>
+      <c r="F298" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/2019701_165126.jpg</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B299" t="str">
+        <v>R$ 290.000,00</v>
+      </c>
+      <c r="C299" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D299" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E299" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Universitario/Santa-Cruz-Do-Sul/RS/10012074</v>
+      </c>
+      <c r="F299" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012074_150861.jpg</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B300" t="str">
+        <v>R$ 292.500,00</v>
+      </c>
+      <c r="C300" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D300" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E300" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/10012413</v>
+      </c>
+      <c r="F300" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012413_163832.jpg</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B301" t="str">
+        <v>R$ 295.000,00</v>
+      </c>
+      <c r="C301" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D301" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E301" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/1502</v>
+      </c>
+      <c r="F301" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/1502_158230.jpg</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B302" t="str">
+        <v>R$ 299.000,00</v>
+      </c>
+      <c r="C302" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D302" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E302" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Terreno/Centro/Santa-Cruz-Do-Sul/RS/10012507</v>
+      </c>
+      <c r="F302" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/10012507_163993.jpg</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B303" t="str">
+        <v>R$ 300.000,00</v>
+      </c>
+      <c r="C303" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D303" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E303" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Avenida/Santa-Cruz-Do-Sul/RS/31004</v>
+      </c>
+      <c r="F303" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/31004_160983.jpg</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B304" t="str">
+        <v>R$ 300.000,00</v>
+      </c>
+      <c r="C304" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D304" t="str">
+        <v>imobel</v>
+      </c>
+      <c r="E304" t="str">
+        <v>https://www.imobel.com.br/Imovel/Venda/Apartamento/Centro/Santa-Cruz-Do-Sul/RS/131002</v>
+      </c>
+      <c r="F304" t="str">
+        <v>https://www.imobel.com.br/viasw/fotos/thumbs/131002_165623.jpg</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B305" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="D305" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E305" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/sala-comercial-a-venda-31m2-bairro-centro-em-santa-cruz-do-sul/SLC-356</v>
+      </c>
+      <c r="F305" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4Obgc0F1xPoqvKdrSxU4Vr2b6xSyzQ/71f429c9-a8a5-4dbc-a16c-c500bd0b7db0jpg.webp</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B306" t="str">
+        <v>R$ 85.000</v>
+      </c>
+      <c r="C306" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D306" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E306" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/TE-1966-04</v>
+      </c>
+      <c r="F306" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Qvoiucu6qG4v0reHqi0emJBc3Q790VRJrmXGS6XM/40903521924216583180232991018822581896790562njpg.webp</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B307" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D307" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E307" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-renascenca-em-santa-cruz-do-sul/TE-1713-04</v>
+      </c>
+      <c r="F307" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPm-LJ90BHurYriqChgV2qusAJbZtP3xKQ/39ce0cdd-1737-4db3-a3ff-7bc4af13ccccjpg.webp</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B308" t="str">
+        <v>R$ 140.000</v>
+      </c>
+      <c r="C308" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D308" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E308" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/casa-com-3-quartos-a-venda-bairro-renascenca-em-santa-cruz-do-sul/CM-776</v>
+      </c>
+      <c r="F308" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QbiBPDFgrGwub_CfV7Fn3i6jYDAZ1VdFoSOFaOqc/6aad1a57-bad1-4af8-aeae-6b0cd9f9e917jpg.webp</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B309" t="str">
+        <v>R$ 185.000</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D309" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E309" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2333</v>
+      </c>
+      <c r="F309" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QLlg_XJkK-ssqepkMVOdnkukmMs51X51o80Skimo/9e99dc7c-e16d-4b41-a76f-225c9db630dbjpg.webp</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B310" t="str">
+        <v>R$ 215.000</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D310" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F310" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QptjBKr6laysVugdahNinZYkZFPF1V1BrpdUl1QI/piratini1752jpg.webp</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B311" t="str">
+        <v>R$ 220.000</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D311" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E311" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-1970</v>
+      </c>
+      <c r="F311" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPk_rMG15SQ0vHh0yxkV2qu5MpE09npx_w/img-3373jpg.webp</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B312" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C312" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D312" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F312" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYGYg3I9K4lxKY3dq1RfmKzho0wF1TWBrOpTQWPU/66d491de-e232-4dc5-9e0f-588da86047acjpg.webp</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B313" t="str">
+        <v>R$ 240.000</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="D313" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E313" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/DP-707</v>
+      </c>
+      <c r="F313" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4GZ_7J51hLs0PDkrSxU4SL3PI8THDQ/b25858f8-86f3-48ed-9089-17609dcc0833jpg.webp</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B314" t="str">
+        <v>R$ 242.000</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="D314" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E314" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/DP-657</v>
+      </c>
+      <c r="F314" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q5paw8-AEirxUO6G1xBf4BGjYYo51WY1oJ-fhx1c/p1040474jpg.webp</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Independência</v>
+      </c>
+      <c r="B315" t="str">
+        <v>R$ 248.000</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D315" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E315" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-independencia-em-santa-cruz-do-sul/AP-2260</v>
+      </c>
+      <c r="F315" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYPbPqk41lCUU4ynbbOi42unmA551U6Rr3mi4EyI/125da871-7c5d-4654-8f3f-8ae6318656bcjpg.webp</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B316" t="str">
+        <v>R$ 253.000</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="D316" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F316" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QAJfRAuFyirw08yiEeiZvEyhXEzB0VD9oJ_0rsDk/p1040473jpg.webp</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B317" t="str">
+        <v>R$ 260.000</v>
+      </c>
+      <c r="C317" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="D317" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E317" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-goias-em-santa-cruz-do-sul/DP-711</v>
+      </c>
+      <c r="F317" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q4GHOqtCrNfU1uglUZFhJUmA2VDF1WgBoGt3ofDI/0b6288e3-f11a-4820-ae82-dba5c2911376jpeg.webp</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B318" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C318" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D318" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E318" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-universitario-em-santa-cruz-do-sul/TE-1425-03</v>
+      </c>
+      <c r="F318" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYDm-DMF0hXtL4_hqRpZd2Ku3O5aaLw749g/te142503-013e3941ccc311668jpg.webp</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Renascença</v>
+      </c>
+      <c r="B319" t="str">
+        <v>R$ 265.000</v>
+      </c>
+      <c r="C319" t="str">
+        <v>Casa</v>
+      </c>
+      <c r="D319" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E319" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/casa-com-3-quartos-a-venda-e-1-vaga-bairro-renascenca-em-santa-cruz-do-sul/AL-1769-04</v>
+      </c>
+      <c r="F319" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QfmaQAjnzxPrlPeik-j-pCrbuzT50UvVrvDSfYPY/ec6efb89-eb62-4b1d-b082-f69443be6115jpg.webp</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B320" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C320" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D320" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E320" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-santo-inacio-em-santa-cruz-do-sul/TE-1965-02</v>
+      </c>
+      <c r="F320" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QXoYgvRl1NVT0zHZrurY5UzcH40d0Tcxr8q0dsPo/screenshot1jpg.webp</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B321" t="str">
+        <v>R$ 270.000</v>
+      </c>
+      <c r="C321" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D321" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E321" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-1-quarto-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2431</v>
+      </c>
+      <c r="F321" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QANYuI8Aqe1wqc2ANRGjH-4lYPb50Vd1oI7OPPnI/screenshot3jpg.webp</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Avenida</v>
+      </c>
+      <c r="B322" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C322" t="str">
+        <v>Duplex</v>
+      </c>
+      <c r="D322" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E322" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/duplex-com-2-quartos-a-venda-e-1-vaga-bairro-avenida-em-santa-cruz-do-sul/DP-710</v>
+      </c>
+      <c r="F322" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Q5qYvqzn1mjw7rRnbZVavBSHuoq91WnNoCzgLo1I/1f53084e-e061-4172-9162-a6e5e63ed9f5jpeg.webp</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Santo Inácio</v>
+      </c>
+      <c r="B323" t="str">
+        <v>R$ 280.000</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D323" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F323" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QHmYRAuHL47rMAmcNFJ4ZBIY4HK91W4NoSIMLXUk/screenshot2jpg.webp</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Bonfim</v>
+      </c>
+      <c r="B324" t="str">
+        <v>R$ 285.000</v>
+      </c>
+      <c r="C324" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D324" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F324" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1Qpph-vLF1C-pNQun6DJmXq4lugh50W-9oPJn-Ams/screenshot2jpg.webp</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B325" t="str">
+        <v>R$ 290.000</v>
+      </c>
+      <c r="C325" t="str">
+        <v>Sala Comercial</v>
+      </c>
+      <c r="D325" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E325" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/sala-comercial-a-venda-67m2-bairro-centro-em-santa-cruz-do-sul/SLC-360</v>
+      </c>
+      <c r="F325" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QZnnfCjm1WsQ0_KC0Ct8ZSylmlB51XcJo2tRLGZ8/fachadajpg.webp</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B326" t="str">
+        <v>R$ 295.000</v>
+      </c>
+      <c r="C326" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D326" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E326" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2396</v>
+      </c>
+      <c r="F326" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QIGfgEp8EdDVFI2laDKYWU5hZ7P50TuhoYTZpcts/jpgjpg.webp</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Universitário</v>
+      </c>
+      <c r="B327" t="str">
+        <v>R$ 298.000</v>
+      </c>
+      <c r="C327" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D327" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="F327" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QvnY_rGDF1XrrM5nsmkdJC3dplIZ0Uz9r1rsQDOY/te-1797-03jpg.webp</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Centro</v>
+      </c>
+      <c r="B328" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C328" t="str">
+        <v>Apartamento</v>
+      </c>
+      <c r="D328" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E328" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/apartamento-com-2-quartos-a-venda-e-1-vaga-bairro-centro-em-santa-cruz-do-sul/AP-2200</v>
+      </c>
+      <c r="F328" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYNlf3E87G8r6G_kLNTc5Kjdn0vB1Vy1rsQ5CadQ/561164fe-8bf5-4626-9630-fa89860d8376jpg.webp</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Goiás</v>
+      </c>
+      <c r="B329" t="str">
+        <v>R$ 300.000</v>
+      </c>
+      <c r="C329" t="str">
+        <v>Terreno</v>
+      </c>
+      <c r="D329" t="str">
+        <v>predilarimoveis</v>
+      </c>
+      <c r="E329" t="str">
+        <v>https://www.predilarimoveis.com.br//imovel/terreno--lote-a-venda-bairro-goias-em-santa-cruz-do-sul/TE-1977-01</v>
+      </c>
+      <c r="F329" t="str">
+        <v>https://s01.jetimgs.com/tnnAwYXphKBPiW3sr35S56TSBu59xTuwOiBGvJNNoNMd29yUZL3dr5Is9mHwU6exwRdqah_vc_1QYOe_reD05AXUY-k11T-WE4aZnUB1U6JrsBTAdsQ/4386fa11-1e7f-4a03-87ab-dfdd85f098a9jpeg.webp</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Bairro Goias, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Consulte</v>
+      </c>
+      <c r="C330" t="str">
+        <v>Ref: 23077 - Apartamento</v>
+      </c>
+      <c r="D330" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E330" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576141/apartamento-venda-santa-cruz-do-sul-rs-bairro-goias</v>
+      </c>
+      <c r="F330" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170531_15639.jpg</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Santa Vitória, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B331" t="str">
+        <v>Consulte</v>
+      </c>
+      <c r="C331" t="str">
+        <v>Ref: 23096 - Sítio</v>
+      </c>
+      <c r="D331" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E331" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576152/sitio-venda-santa-cruz-do-sul-rs-santa-vitoria</v>
+      </c>
+      <c r="F331" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170534_14520.jpg</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Centro, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B332" t="str">
+        <v>Consulte</v>
+      </c>
+      <c r="C332" t="str">
+        <v>Ref: 23183 - Apartamento</v>
+      </c>
+      <c r="D332" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E332" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576209/apartamento-venda-santa-cruz-do-sul-rs-centro</v>
+      </c>
+      <c r="F332" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170550_14571.jpg</v>
+      </c>
+    </row>
+    <row r="333" xml:space="preserve">
+      <c r="A333" t="str">
+        <v>Santuário, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B333" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+60.000</v>
+      </c>
+      <c r="C333" t="str">
+        <v>Ref: 23025 - Terreno</v>
+      </c>
+      <c r="D333" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E333" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576115/terreno-venda-santa-cruz-do-sul-rs-santuario</v>
+      </c>
+      <c r="F333" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170524_13777.jpg</v>
+      </c>
+    </row>
+    <row r="334" xml:space="preserve">
+      <c r="A334" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B334" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+65.000</v>
+      </c>
+      <c r="C334" t="str">
+        <v>Ref: 24088 - Terreno</v>
+      </c>
+      <c r="D334" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E334" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576340/terreno-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F334" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170624_11118.jpg</v>
+      </c>
+    </row>
+    <row r="335" xml:space="preserve">
+      <c r="A335" t="str">
+        <v>Cerro Alegre Baixo, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B335" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+66.000</v>
+      </c>
+      <c r="C335" t="str">
+        <v>Ref: 23174 - Terreno</v>
+      </c>
+      <c r="D335" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E335" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576205/terreno-venda-santa-cruz-do-sul-rs-cerro-alegre-baixo</v>
+      </c>
+      <c r="F335" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170548_16538.jpg</v>
+      </c>
+    </row>
+    <row r="336" xml:space="preserve">
+      <c r="A336" t="str">
+        <v>Carlota, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B336" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+71.000</v>
+      </c>
+      <c r="C336" t="str">
+        <v>Ref: 23098 - Terreno</v>
+      </c>
+      <c r="D336" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E336" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576154/terreno-venda-santa-cruz-do-sul-rs-carlota</v>
+      </c>
+      <c r="F336" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170534_14646.jpg</v>
+      </c>
+    </row>
+    <row r="337" xml:space="preserve">
+      <c r="A337" t="str">
+        <v>Renascença, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B337" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+79.500</v>
+      </c>
+      <c r="C337" t="str">
+        <v>Ref: 24113 - Terreno</v>
+      </c>
+      <c r="D337" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E337" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576359/terreno-venda-santa-cruz-do-sul-rs-renascenca</v>
+      </c>
+      <c r="F337" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170630_1614.jpg</v>
+      </c>
+    </row>
+    <row r="338" xml:space="preserve">
+      <c r="A338" t="str">
+        <v>Faxinal Menino Deus, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B338" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+80.000</v>
+      </c>
+      <c r="C338" t="str">
+        <v>Ref: 23048 - Terreno</v>
+      </c>
+      <c r="D338" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E338" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576129/terreno-venda-santa-cruz-do-sul-rs-faxinal-menino-deus</v>
+      </c>
+      <c r="F338" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170528_13266.jpg</v>
+      </c>
+    </row>
+    <row r="339" xml:space="preserve">
+      <c r="A339" t="str">
+        <v>Centro, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B339" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+85.000</v>
+      </c>
+      <c r="C339" t="str">
+        <v>Ref: 24036 - Salão Comercial</v>
+      </c>
+      <c r="D339" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E339" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576302/salao-comercial-venda-santa-cruz-do-sul-rs-centro</v>
+      </c>
+      <c r="F339" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170615_12320.jpg</v>
+      </c>
+    </row>
+    <row r="340" xml:space="preserve">
+      <c r="A340" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B340" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+86.000</v>
+      </c>
+      <c r="C340" t="str">
+        <v>Ref: 25006 - Terreno</v>
+      </c>
+      <c r="D340" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E340" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576430/terreno-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F340" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170704_16218.jpg</v>
+      </c>
+    </row>
+    <row r="341" xml:space="preserve">
+      <c r="A341" t="str">
+        <v>Esmeralda, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B341" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+89.000</v>
+      </c>
+      <c r="C341" t="str">
+        <v>Ref: 23028 - Terreno</v>
+      </c>
+      <c r="D341" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E341" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576117/terreno-venda-santa-cruz-do-sul-rs-esmeralda</v>
+      </c>
+      <c r="F341" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170524_17706.jpg</v>
+      </c>
+    </row>
+    <row r="342" xml:space="preserve">
+      <c r="A342" t="str">
+        <v>Esmeralda, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B342" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+92.000</v>
+      </c>
+      <c r="C342" t="str">
+        <v>Ref: 24000 - Terreno</v>
+      </c>
+      <c r="D342" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E342" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576283/terreno-venda-santa-cruz-do-sul-rs-esmeralda</v>
+      </c>
+      <c r="F342" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170611_16878.jpg</v>
+      </c>
+    </row>
+    <row r="343" xml:space="preserve">
+      <c r="A343" t="str">
+        <v>Bairro Ohland, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B343" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+95.000</v>
+      </c>
+      <c r="C343" t="str">
+        <v>Ref: 23033 - Terreno</v>
+      </c>
+      <c r="D343" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E343" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576121/terreno-venda-santa-cruz-do-sul-rs-bairro-ohland</v>
+      </c>
+      <c r="F343" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170525_12358.jpg</v>
+      </c>
+    </row>
+    <row r="344" xml:space="preserve">
+      <c r="A344" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B344" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+105.000</v>
+      </c>
+      <c r="C344" t="str">
+        <v>Ref: 23014 - Terreno</v>
+      </c>
+      <c r="D344" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E344" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576110/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F344" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170407_19968.jpg</v>
+      </c>
+    </row>
+    <row r="345" xml:space="preserve">
+      <c r="A345" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B345" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+115.000</v>
+      </c>
+      <c r="C345" t="str">
+        <v>Ref: 23271 - Terreno</v>
+      </c>
+      <c r="D345" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E345" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576247/terreno-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F345" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170602_17201.jpg</v>
+      </c>
+    </row>
+    <row r="346" xml:space="preserve">
+      <c r="A346" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B346" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+120.000</v>
+      </c>
+      <c r="C346" t="str">
+        <v>Ref: 24055 - Terreno</v>
+      </c>
+      <c r="D346" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E346" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576315/terreno-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F346" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170618_1868.jpg</v>
+      </c>
+    </row>
+    <row r="347" xml:space="preserve">
+      <c r="A347" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B347" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+127.200</v>
+      </c>
+      <c r="C347" t="str">
+        <v>Ref: 23023 - Geminado</v>
+      </c>
+      <c r="D347" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E347" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576113/geminado-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F347" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170408_18699.jpg</v>
+      </c>
+    </row>
+    <row r="348" xml:space="preserve">
+      <c r="A348" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B348" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+127.200</v>
+      </c>
+      <c r="C348" t="str">
+        <v>Ref: 24062 - Terreno</v>
+      </c>
+      <c r="D348" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E348" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576320/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F348" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170619_1247.jpg</v>
+      </c>
+    </row>
+    <row r="349" xml:space="preserve">
+      <c r="A349" t="str">
+        <v>Faxinal Menino Deus, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B349" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+128.000</v>
+      </c>
+      <c r="C349" t="str">
+        <v>Ref: 25001 - Casa</v>
+      </c>
+      <c r="D349" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E349" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576425/casa-venda-santa-cruz-do-sul-rs-faxinal-menino-deus</v>
+      </c>
+      <c r="F349" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170703_11183.jpg</v>
+      </c>
+    </row>
+    <row r="350" xml:space="preserve">
+      <c r="A350" t="str">
+        <v>Bairro Goias, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B350" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+130.000</v>
+      </c>
+      <c r="C350" t="str">
+        <v>Ref: 23011 - Terreno</v>
+      </c>
+      <c r="D350" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E350" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576107/terreno-venda-santa-cruz-do-sul-rs-bairro-goias</v>
+      </c>
+      <c r="F350" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170407_14912.jpg</v>
+      </c>
+    </row>
+    <row r="351" xml:space="preserve">
+      <c r="A351" t="str">
+        <v>Várzea, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B351" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+130.000</v>
+      </c>
+      <c r="C351" t="str">
+        <v>Ref: 24090 - Terreno</v>
+      </c>
+      <c r="D351" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E351" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576342/terreno-venda-santa-cruz-do-sul-rs-varzea</v>
+      </c>
+      <c r="F351" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170625_14734.jpg</v>
+      </c>
+    </row>
+    <row r="352" xml:space="preserve">
+      <c r="A352" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B352" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+131.900</v>
+      </c>
+      <c r="C352" t="str">
+        <v>Ref: 23142 - Terreno</v>
+      </c>
+      <c r="D352" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E352" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576186/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F352" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170542_19536.jpg</v>
+      </c>
+    </row>
+    <row r="353" xml:space="preserve">
+      <c r="A353" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B353" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+132.000</v>
+      </c>
+      <c r="C353" t="str">
+        <v>Ref: 24065 - Terreno</v>
+      </c>
+      <c r="D353" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E353" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576324/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F353" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170620_15319.jpg</v>
+      </c>
+    </row>
+    <row r="354" xml:space="preserve">
+      <c r="A354" t="str">
+        <v>Monte Verde, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B354" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+133.800</v>
+      </c>
+      <c r="C354" t="str">
+        <v>Ref: 23121 - Terreno</v>
+      </c>
+      <c r="D354" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E354" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576171/terreno-venda-santa-cruz-do-sul-rs-monte-verde</v>
+      </c>
+      <c r="F354" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170538_17039.jpg</v>
+      </c>
+    </row>
+    <row r="355" xml:space="preserve">
+      <c r="A355" t="str">
+        <v>Esmeralda, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B355" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+140.000</v>
+      </c>
+      <c r="C355" t="str">
+        <v>Ref: 23127 - Terreno</v>
+      </c>
+      <c r="D355" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E355" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576176/terreno-venda-santa-cruz-do-sul-rs-esmeralda</v>
+      </c>
+      <c r="F355" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170540_17187.jpg</v>
+      </c>
+    </row>
+    <row r="356" xml:space="preserve">
+      <c r="A356" t="str">
+        <v>Renascença, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B356" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+140.000</v>
+      </c>
+      <c r="C356" t="str">
+        <v>Ref: 25021 - Terreno</v>
+      </c>
+      <c r="D356" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E356" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3599244/terreno-venda-santa-cruz-do-sul-rs-renascenca</v>
+      </c>
+      <c r="F356" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-202502211103545484.jpeg</v>
+      </c>
+    </row>
+    <row r="357" xml:space="preserve">
+      <c r="A357" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B357" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+142.000</v>
+      </c>
+      <c r="C357" t="str">
+        <v>Ref: 25002 - Terreno</v>
+      </c>
+      <c r="D357" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E357" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576426/terreno-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F357" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170703_14070.jpg</v>
+      </c>
+    </row>
+    <row r="358" xml:space="preserve">
+      <c r="A358" t="str">
+        <v>Monte Verde, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B358" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+142.700</v>
+      </c>
+      <c r="C358" t="str">
+        <v>Ref: 23122 - Terreno</v>
+      </c>
+      <c r="D358" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E358" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576172/terreno-venda-santa-cruz-do-sul-rs-monte-verde</v>
+      </c>
+      <c r="F358" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170538_14845.jpg</v>
+      </c>
+    </row>
+    <row r="359" xml:space="preserve">
+      <c r="A359" t="str">
+        <v>Monte Verde, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B359" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+145.600</v>
+      </c>
+      <c r="C359" t="str">
+        <v>Ref: 23124 - Terreno</v>
+      </c>
+      <c r="D359" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E359" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576174/terreno-venda-santa-cruz-do-sul-rs-monte-verde</v>
+      </c>
+      <c r="F359" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170539_17886.jpg</v>
+      </c>
+    </row>
+    <row r="360" xml:space="preserve">
+      <c r="A360" t="str">
+        <v>Monte Verde, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B360" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+149.900</v>
+      </c>
+      <c r="C360" t="str">
+        <v>Ref: 23120 - Terreno</v>
+      </c>
+      <c r="D360" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E360" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576170/terreno-venda-santa-cruz-do-sul-rs-monte-verde</v>
+      </c>
+      <c r="F360" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170538_11002.jpg</v>
+      </c>
+    </row>
+    <row r="361" xml:space="preserve">
+      <c r="A361" t="str">
+        <v>Várzea, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B361" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+150.000</v>
+      </c>
+      <c r="C361" t="str">
+        <v>Ref: 25005 - Casa</v>
+      </c>
+      <c r="D361" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E361" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576429/casa-venda-santa-cruz-do-sul-rs-varzea</v>
+      </c>
+      <c r="F361" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170704_12419.jpg</v>
+      </c>
+    </row>
+    <row r="362" xml:space="preserve">
+      <c r="A362" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B362" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+152.300</v>
+      </c>
+      <c r="C362" t="str">
+        <v>Ref: 23143 - Terreno</v>
+      </c>
+      <c r="D362" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E362" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576187/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F362" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170543_18516.jpg</v>
+      </c>
+    </row>
+    <row r="363" xml:space="preserve">
+      <c r="A363" t="str">
+        <v>Faxinal Menino Deus, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B363" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+159.000</v>
+      </c>
+      <c r="C363" t="str">
+        <v>Ref: 23057 - Casa</v>
+      </c>
+      <c r="D363" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E363" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576132/casa-venda-santa-cruz-do-sul-rs-faxinal-menino-deus</v>
+      </c>
+      <c r="F363" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170528_13621.jpg</v>
+      </c>
+    </row>
+    <row r="364" xml:space="preserve">
+      <c r="A364" t="str">
+        <v>Santo Inácio, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B364" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+159.000</v>
+      </c>
+      <c r="C364" t="str">
+        <v>Ref: 24150 - Terreno</v>
+      </c>
+      <c r="D364" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E364" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576387/terreno-venda-santa-cruz-do-sul-rs-santo-inacio</v>
+      </c>
+      <c r="F364" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170638_13042.jpg</v>
+      </c>
+    </row>
+    <row r="365" xml:space="preserve">
+      <c r="A365" t="str">
+        <v>Pinheiral, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B365" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+160.000</v>
+      </c>
+      <c r="C365" t="str">
+        <v>Ref: 23321 - Casa</v>
+      </c>
+      <c r="D365" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E365" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576282/casa-venda-santa-cruz-do-sul-rs-pinheiral</v>
+      </c>
+      <c r="F365" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170611_12526.jpg</v>
+      </c>
+    </row>
+    <row r="366" xml:space="preserve">
+      <c r="A366" t="str">
+        <v>Harmonia, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B366" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+160.000</v>
+      </c>
+      <c r="C366" t="str">
+        <v>Ref: 25014 - Casa</v>
+      </c>
+      <c r="D366" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E366" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576438/casa-venda-santa-cruz-do-sul-rs-harmonia</v>
+      </c>
+      <c r="F366" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170707_12077.jpg</v>
+      </c>
+    </row>
+    <row r="367" xml:space="preserve">
+      <c r="A367" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B367" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+162.600</v>
+      </c>
+      <c r="C367" t="str">
+        <v>Ref: 23155 - Terreno</v>
+      </c>
+      <c r="D367" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E367" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576197/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F367" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170546_16768.jpg</v>
+      </c>
+    </row>
+    <row r="368" xml:space="preserve">
+      <c r="A368" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B368" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+163.800</v>
+      </c>
+      <c r="C368" t="str">
+        <v>Ref: 23154 - Terreno</v>
+      </c>
+      <c r="D368" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E368" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576196/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F368" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170545_15744.jpg</v>
+      </c>
+    </row>
+    <row r="369" xml:space="preserve">
+      <c r="A369" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B369" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+164.900</v>
+      </c>
+      <c r="C369" t="str">
+        <v>Ref: 23153 - Terreno</v>
+      </c>
+      <c r="D369" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E369" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576195/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F369" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170545_18354.jpg</v>
+      </c>
+    </row>
+    <row r="370" xml:space="preserve">
+      <c r="A370" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B370" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+165.000</v>
+      </c>
+      <c r="C370" t="str">
+        <v>Ref: 23013 - Terreno</v>
+      </c>
+      <c r="D370" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E370" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576109/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F370" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170407_1813.jpg</v>
+      </c>
+    </row>
+    <row r="371" xml:space="preserve">
+      <c r="A371" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B371" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+166.000</v>
+      </c>
+      <c r="C371" t="str">
+        <v>Ref: 23152 - Terreno</v>
+      </c>
+      <c r="D371" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E371" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576194/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F371" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170545_1325.jpg</v>
+      </c>
+    </row>
+    <row r="372" xml:space="preserve">
+      <c r="A372" t="str">
+        <v>Pedreira, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B372" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+170.000</v>
+      </c>
+      <c r="C372" t="str">
+        <v>Ref: 23141 - Geminado</v>
+      </c>
+      <c r="D372" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E372" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576185/geminado-venda-santa-cruz-do-sul-rs-pedreira</v>
+      </c>
+      <c r="F372" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170542_16667.jpg</v>
+      </c>
+    </row>
+    <row r="373" xml:space="preserve">
+      <c r="A373" t="str">
+        <v>Linha João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B373" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+170.000</v>
+      </c>
+      <c r="C373" t="str">
+        <v>Ref: 23302 - Terreno</v>
+      </c>
+      <c r="D373" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E373" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576267/terreno-venda-santa-cruz-do-sul-rs-linha-joao-alves</v>
+      </c>
+      <c r="F373" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170608_13652.jpg</v>
+      </c>
+    </row>
+    <row r="374" xml:space="preserve">
+      <c r="A374" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B374" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+175.000</v>
+      </c>
+      <c r="C374" t="str">
+        <v>Ref: 24096 - Terreno</v>
+      </c>
+      <c r="D374" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E374" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576347/terreno-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F374" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170626_16735.jpg</v>
+      </c>
+    </row>
+    <row r="375" xml:space="preserve">
+      <c r="A375" t="str">
+        <v>Royal Country, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B375" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+175.536</v>
+      </c>
+      <c r="C375" t="str">
+        <v>Ref: 23224 - Terreno</v>
+      </c>
+      <c r="D375" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E375" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576224/terreno-venda-santa-cruz-do-sul-rs-royal-country</v>
+      </c>
+      <c r="F375" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170554_11513.jpg</v>
+      </c>
+    </row>
+    <row r="376" xml:space="preserve">
+      <c r="A376" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B376" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+185.500</v>
+      </c>
+      <c r="C376" t="str">
+        <v>Ref: 24102 - Terreno</v>
+      </c>
+      <c r="D376" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E376" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576351/terreno-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F376" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170627_16962.jpg</v>
+      </c>
+    </row>
+    <row r="377" xml:space="preserve">
+      <c r="A377" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B377" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+190.000</v>
+      </c>
+      <c r="C377" t="str">
+        <v>Ref: 23012 - Terreno</v>
+      </c>
+      <c r="D377" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E377" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576108/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F377" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170407_11658.jpg</v>
+      </c>
+    </row>
+    <row r="378" xml:space="preserve">
+      <c r="A378" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B378" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+190.000</v>
+      </c>
+      <c r="C378" t="str">
+        <v>Ref: 23106 - Casa</v>
+      </c>
+      <c r="D378" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E378" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576157/casa-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F378" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170535_11943.jpg</v>
+      </c>
+    </row>
+    <row r="379" xml:space="preserve">
+      <c r="A379" t="str">
+        <v>Boa Vista, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B379" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+190.000</v>
+      </c>
+      <c r="C379" t="str">
+        <v>Ref: 24157 - Terreno</v>
+      </c>
+      <c r="D379" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E379" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576393/terreno-venda-santa-cruz-do-sul-rs-boa-vista</v>
+      </c>
+      <c r="F379" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170640_14666.jpg</v>
+      </c>
+    </row>
+    <row r="380" xml:space="preserve">
+      <c r="A380" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B380" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+190.800</v>
+      </c>
+      <c r="C380" t="str">
+        <v>Ref: 23151 - Terreno</v>
+      </c>
+      <c r="D380" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E380" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576193/terreno-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F380" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170545_11059.jpg</v>
+      </c>
+    </row>
+    <row r="381" xml:space="preserve">
+      <c r="A381" t="str">
+        <v>Bomfim, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B381" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+195.000</v>
+      </c>
+      <c r="C381" t="str">
+        <v>Ref: 23262 - Terreno</v>
+      </c>
+      <c r="D381" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E381" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576240/terreno-venda-santa-cruz-do-sul-rs-bomfim</v>
+      </c>
+      <c r="F381" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170559_13364.jpg</v>
+      </c>
+    </row>
+    <row r="382" xml:space="preserve">
+      <c r="A382" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B382" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+198.000</v>
+      </c>
+      <c r="C382" t="str">
+        <v>Ref: 23107 - Casa</v>
+      </c>
+      <c r="D382" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E382" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576158/casa-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F382" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170535_18261.jpg</v>
+      </c>
+    </row>
+    <row r="383" xml:space="preserve">
+      <c r="A383" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B383" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+201.400</v>
+      </c>
+      <c r="C383" t="str">
+        <v>Ref: 24185 - Geminado</v>
+      </c>
+      <c r="D383" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E383" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576421/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F383" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170702_17512.jpg</v>
+      </c>
+    </row>
+    <row r="384" xml:space="preserve">
+      <c r="A384" t="str">
+        <v>Linha João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B384" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+210.000</v>
+      </c>
+      <c r="C384" t="str">
+        <v>Ref: 25023 - Geminado</v>
+      </c>
+      <c r="D384" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E384" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3602065/geminado-venda-santa-cruz-do-sul-rs-linha-joao-alves</v>
+      </c>
+      <c r="F384" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-202502241015058674.jpeg</v>
+      </c>
+    </row>
+    <row r="385" xml:space="preserve">
+      <c r="A385" t="str">
+        <v>Cerro Alegre Baixo, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B385" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+220.000</v>
+      </c>
+      <c r="C385" t="str">
+        <v>Ref: 23165 - Terreno Comercial</v>
+      </c>
+      <c r="D385" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E385" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576201/terreno-comercial-venda-santa-cruz-do-sul-rs-cerro-alegre-baixo</v>
+      </c>
+      <c r="F385" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170547_13058.jpg</v>
+      </c>
+    </row>
+    <row r="386" xml:space="preserve">
+      <c r="A386" t="str">
+        <v>Pinheiral, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B386" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+220.000</v>
+      </c>
+      <c r="C386" t="str">
+        <v>Ref: 23228 - Sítio</v>
+      </c>
+      <c r="D386" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E386" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576226/sitio-venda-santa-cruz-do-sul-rs-pinheiral</v>
+      </c>
+      <c r="F386" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170555_15804.jpg</v>
+      </c>
+    </row>
+    <row r="387" xml:space="preserve">
+      <c r="A387" t="str">
+        <v>Castelo Branco, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B387" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+220.000</v>
+      </c>
+      <c r="C387" t="str">
+        <v>Ref: 23276 - Apartamento</v>
+      </c>
+      <c r="D387" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E387" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576252/apartamento-venda-santa-cruz-do-sul-rs-castelo-branco</v>
+      </c>
+      <c r="F387" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170603_12412.jpg</v>
+      </c>
+    </row>
+    <row r="388" xml:space="preserve">
+      <c r="A388" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B388" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+220.000</v>
+      </c>
+      <c r="C388" t="str">
+        <v>Ref: 24003 - Apartamento</v>
+      </c>
+      <c r="D388" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E388" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576285/apartamento-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F388" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170611_19531.jpg</v>
+      </c>
+    </row>
+    <row r="389" xml:space="preserve">
+      <c r="A389" t="str">
+        <v>Várzea, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B389" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+220.000</v>
+      </c>
+      <c r="C389" t="str">
+        <v>Ref: 25008 - Casa</v>
+      </c>
+      <c r="D389" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E389" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576432/casa-venda-santa-cruz-do-sul-rs-varzea</v>
+      </c>
+      <c r="F389" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170705_19707.jpg</v>
+      </c>
+    </row>
+    <row r="390" xml:space="preserve">
+      <c r="A390" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B390" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+222.000</v>
+      </c>
+      <c r="C390" t="str">
+        <v>Ref: 23279 - Casa</v>
+      </c>
+      <c r="D390" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E390" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576254/casa-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F390" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170604_17272.jpg</v>
+      </c>
+    </row>
+    <row r="391" xml:space="preserve">
+      <c r="A391" t="str">
+        <v>Rio Pardinho, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B391" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+228.000</v>
+      </c>
+      <c r="C391" t="str">
+        <v>Ref: 23206 - Sítio</v>
+      </c>
+      <c r="D391" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E391" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576214/sitio-venda-santa-cruz-do-sul-rs-rio-pardinho</v>
+      </c>
+      <c r="F391" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170551_11472.jpg</v>
+      </c>
+    </row>
+    <row r="392" xml:space="preserve">
+      <c r="A392" t="str">
+        <v>Jardim Europa, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B392" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+230.000</v>
+      </c>
+      <c r="C392" t="str">
+        <v>Ref: 23041 - Terreno</v>
+      </c>
+      <c r="D392" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E392" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576125/terreno-venda-santa-cruz-do-sul-rs-jardim-europa</v>
+      </c>
+      <c r="F392" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170526_19543.jpg</v>
+      </c>
+    </row>
+    <row r="393" xml:space="preserve">
+      <c r="A393" t="str">
+        <v>Margarida, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B393" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+230.000</v>
+      </c>
+      <c r="C393" t="str">
+        <v>Ref: 24077 - Geminado</v>
+      </c>
+      <c r="D393" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E393" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576332/geminado-venda-santa-cruz-do-sul-rs-margarida</v>
+      </c>
+      <c r="F393" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170622_1245.jpg</v>
+      </c>
+    </row>
+    <row r="394" xml:space="preserve">
+      <c r="A394" t="str">
+        <v>Castelo Branco, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B394" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+230.000</v>
+      </c>
+      <c r="C394" t="str">
+        <v>Ref: 24178 - Geminado</v>
+      </c>
+      <c r="D394" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E394" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576412/geminado-venda-santa-cruz-do-sul-rs-castelo-branco</v>
+      </c>
+      <c r="F394" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170646_16255.jpg</v>
+      </c>
+    </row>
+    <row r="395" xml:space="preserve">
+      <c r="A395" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B395" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+230.000</v>
+      </c>
+      <c r="C395" t="str">
+        <v>Ref: 25019 - Geminado</v>
+      </c>
+      <c r="D395" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E395" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3596607/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F395" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-202502201120092516.jpeg</v>
+      </c>
+    </row>
+    <row r="396" xml:space="preserve">
+      <c r="A396" t="str">
+        <v>Faxinal, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B396" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+232.200</v>
+      </c>
+      <c r="C396" t="str">
+        <v>Ref: 24142 - Casa</v>
+      </c>
+      <c r="D396" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E396" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576381/casa-venda-santa-cruz-do-sul-rs-faxinal</v>
+      </c>
+      <c r="F396" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170636_14019.jpg</v>
+      </c>
+    </row>
+    <row r="397" xml:space="preserve">
+      <c r="A397" t="str">
+        <v>Monte Verde, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B397" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+233.568</v>
+      </c>
+      <c r="C397" t="str">
+        <v>Ref: 23119 - Terreno</v>
+      </c>
+      <c r="D397" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E397" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576169/terreno-venda-santa-cruz-do-sul-rs-monte-verde</v>
+      </c>
+      <c r="F397" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170538_16855.jpg</v>
+      </c>
+    </row>
+    <row r="398" xml:space="preserve">
+      <c r="A398" t="str">
+        <v>Bairro Goias, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B398" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+235.000</v>
+      </c>
+      <c r="C398" t="str">
+        <v>Ref: 24021 - Casa</v>
+      </c>
+      <c r="D398" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E398" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576294/casa-venda-santa-cruz-do-sul-rs-bairro-goias</v>
+      </c>
+      <c r="F398" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170613_11935.jpg</v>
+      </c>
+    </row>
+    <row r="399" xml:space="preserve">
+      <c r="A399" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B399" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+240.000</v>
+      </c>
+      <c r="C399" t="str">
+        <v>Ref: 24069 - Casa</v>
+      </c>
+      <c r="D399" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E399" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576327/casa-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F399" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170621_14169.jpg</v>
+      </c>
+    </row>
+    <row r="400" xml:space="preserve">
+      <c r="A400" t="str">
+        <v>Verena, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B400" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+243.800</v>
+      </c>
+      <c r="C400" t="str">
+        <v>Ref: 23114 - Terreno</v>
+      </c>
+      <c r="D400" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E400" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576165/terreno-venda-santa-cruz-do-sul-rs-verena</v>
+      </c>
+      <c r="F400" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170537_16142.jpg</v>
+      </c>
+    </row>
+    <row r="401" xml:space="preserve">
+      <c r="A401" t="str">
+        <v>Esmeralda, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B401" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+245.000</v>
+      </c>
+      <c r="C401" t="str">
+        <v>Ref: 23149 - Casa</v>
+      </c>
+      <c r="D401" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E401" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576191/casa-venda-santa-cruz-do-sul-rs-esmeralda</v>
+      </c>
+      <c r="F401" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170544_17824.jpg</v>
+      </c>
+    </row>
+    <row r="402" xml:space="preserve">
+      <c r="A402" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B402" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+245.000</v>
+      </c>
+      <c r="C402" t="str">
+        <v>Ref: 24027 - Geminado</v>
+      </c>
+      <c r="D402" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E402" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576298/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F402" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170614_1633.jpg</v>
+      </c>
+    </row>
+    <row r="403" xml:space="preserve">
+      <c r="A403" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B403" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+245.000</v>
+      </c>
+      <c r="C403" t="str">
+        <v>Ref: 24067 - Geminado</v>
+      </c>
+      <c r="D403" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E403" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576326/geminado-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F403" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170621_1610.jpg</v>
+      </c>
+    </row>
+    <row r="404" xml:space="preserve">
+      <c r="A404" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B404" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+248.000</v>
+      </c>
+      <c r="C404" t="str">
+        <v>Ref: 23112 - Duplex</v>
+      </c>
+      <c r="D404" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E404" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576163/duplex-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F404" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170536_16570.jpg</v>
+      </c>
+    </row>
+    <row r="405" xml:space="preserve">
+      <c r="A405" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B405" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+249.000</v>
+      </c>
+      <c r="C405" t="str">
+        <v>Ref: 23093 - Geminado</v>
+      </c>
+      <c r="D405" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E405" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576149/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F405" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170533_19290.jpg</v>
+      </c>
+    </row>
+    <row r="406" xml:space="preserve">
+      <c r="A406" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B406" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+250.000</v>
+      </c>
+      <c r="C406" t="str">
+        <v>Ref: 23181 - Geminado</v>
+      </c>
+      <c r="D406" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E406" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576208/geminado-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F406" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170549_11929.jpg</v>
+      </c>
+    </row>
+    <row r="407" xml:space="preserve">
+      <c r="A407" t="str">
+        <v>Centro, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B407" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+250.000</v>
+      </c>
+      <c r="C407" t="str">
+        <v>Ref: 24066 - Apartamento</v>
+      </c>
+      <c r="D407" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E407" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576325/apartamento-venda-santa-cruz-do-sul-rs-centro</v>
+      </c>
+      <c r="F407" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170620_15085.jpg</v>
+      </c>
+    </row>
+    <row r="408" xml:space="preserve">
+      <c r="A408" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B408" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+250.000</v>
+      </c>
+      <c r="C408" t="str">
+        <v>Ref: 24135 - Duplex</v>
+      </c>
+      <c r="D408" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E408" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576375/duplex-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F408" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170635_12208.jpg</v>
+      </c>
+    </row>
+    <row r="409" xml:space="preserve">
+      <c r="A409" t="str">
+        <v>Pedreira, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B409" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+250.000</v>
+      </c>
+      <c r="C409" t="str">
+        <v>Ref: 25013 - Geminado</v>
+      </c>
+      <c r="D409" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E409" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576437/geminado-venda-santa-cruz-do-sul-rs-pedreira</v>
+      </c>
+      <c r="F409" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170706_18037.jpg</v>
+      </c>
+    </row>
+    <row r="410" xml:space="preserve">
+      <c r="A410" t="str">
+        <v>Goiás, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B410" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+255.000</v>
+      </c>
+      <c r="C410" t="str">
+        <v>Ref: 24064 - Apartamento</v>
+      </c>
+      <c r="D410" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E410" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576323/apartamento-venda-santa-cruz-do-sul-rs-goias</v>
+      </c>
+      <c r="F410" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170620_18028.jpg</v>
+      </c>
+    </row>
+    <row r="411" xml:space="preserve">
+      <c r="A411" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B411" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+256.000</v>
+      </c>
+      <c r="C411" t="str">
+        <v>Ref: 23247 - Sítio</v>
+      </c>
+      <c r="D411" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E411" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576232/sitio-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F411" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170556_1289.jpg</v>
+      </c>
+    </row>
+    <row r="412" xml:space="preserve">
+      <c r="A412" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B412" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+260.000</v>
+      </c>
+      <c r="C412" t="str">
+        <v>Ref: 23217 - Casa</v>
+      </c>
+      <c r="D412" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E412" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576221/casa-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F412" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170553_18982.jpg</v>
+      </c>
+    </row>
+    <row r="413" xml:space="preserve">
+      <c r="A413" t="str">
+        <v>Goiás, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B413" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+260.000</v>
+      </c>
+      <c r="C413" t="str">
+        <v>Ref: 24015 - Terreno</v>
+      </c>
+      <c r="D413" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E413" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576292/terreno-venda-santa-cruz-do-sul-rs-goias</v>
+      </c>
+      <c r="F413" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170613_15554.jpg</v>
+      </c>
+    </row>
+    <row r="414" xml:space="preserve">
+      <c r="A414" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B414" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+260.000</v>
+      </c>
+      <c r="C414" t="str">
+        <v>Ref: 24075 - Duplex</v>
+      </c>
+      <c r="D414" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E414" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576330/duplex-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F414" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170622_11253.jpg</v>
+      </c>
+    </row>
+    <row r="415" xml:space="preserve">
+      <c r="A415" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B415" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C415" t="str">
+        <v>Ref: 23132 - Casa</v>
+      </c>
+      <c r="D415" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E415" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576180/casa-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F415" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170541_14474.jpg</v>
+      </c>
+    </row>
+    <row r="416" xml:space="preserve">
+      <c r="A416" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B416" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C416" t="str">
+        <v>Ref: 23273 - Geminado</v>
+      </c>
+      <c r="D416" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E416" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576249/geminado-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F416" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170602_13575.jpg</v>
+      </c>
+    </row>
+    <row r="417" xml:space="preserve">
+      <c r="A417" t="str">
+        <v>Santo Antônio, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B417" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C417" t="str">
+        <v>Ref: 23289 - Duplex</v>
+      </c>
+      <c r="D417" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E417" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576259/duplex-venda-santa-cruz-do-sul-rs-santo-antonio</v>
+      </c>
+      <c r="F417" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170605_19278.jpg</v>
+      </c>
+    </row>
+    <row r="418" xml:space="preserve">
+      <c r="A418" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B418" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C418" t="str">
+        <v>Ref: 23311 - Geminado</v>
+      </c>
+      <c r="D418" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E418" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576274/geminado-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F418" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170609_1317.jpg</v>
+      </c>
+    </row>
+    <row r="419" xml:space="preserve">
+      <c r="A419" t="str">
+        <v>Schulz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B419" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C419" t="str">
+        <v>Ref: 24123 - Terreno</v>
+      </c>
+      <c r="D419" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E419" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576364/terreno-venda-santa-cruz-do-sul-rs-schulz</v>
+      </c>
+      <c r="F419" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170631_17588.jpg</v>
+      </c>
+    </row>
+    <row r="420" xml:space="preserve">
+      <c r="A420" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B420" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+265.000</v>
+      </c>
+      <c r="C420" t="str">
+        <v>Ref: 25020 - Geminado</v>
+      </c>
+      <c r="D420" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E420" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3596600/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F420" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-202502201118325719.jpeg</v>
+      </c>
+    </row>
+    <row r="421" xml:space="preserve">
+      <c r="A421" t="str">
+        <v>Bairro Ohland, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B421" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+269.000</v>
+      </c>
+      <c r="C421" t="str">
+        <v>Ref: 23032 - Casa</v>
+      </c>
+      <c r="D421" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E421" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576120/casa-venda-santa-cruz-do-sul-rs-bairro-ohland</v>
+      </c>
+      <c r="F421" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170525_18918.jpg</v>
+      </c>
+    </row>
+    <row r="422" xml:space="preserve">
+      <c r="A422" t="str">
+        <v>Castelo Branco, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B422" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+270.000</v>
+      </c>
+      <c r="C422" t="str">
+        <v>Ref: 23036 - Duplex</v>
+      </c>
+      <c r="D422" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E422" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576122/duplex-venda-santa-cruz-do-sul-rs-castelo-branco</v>
+      </c>
+      <c r="F422" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170525_1991.jpg</v>
+      </c>
+    </row>
+    <row r="423" xml:space="preserve">
+      <c r="A423" t="str">
+        <v>Santuário, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B423" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+270.000</v>
+      </c>
+      <c r="C423" t="str">
+        <v>Ref: 24143 - Casa</v>
+      </c>
+      <c r="D423" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E423" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576382/casa-venda-santa-cruz-do-sul-rs-santuario</v>
+      </c>
+      <c r="F423" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170637_13675.jpg</v>
+      </c>
+    </row>
+    <row r="424" xml:space="preserve">
+      <c r="A424" t="str">
+        <v>Verena, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B424" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+270.000</v>
+      </c>
+      <c r="C424" t="str">
+        <v>Ref: 24183 - Terreno</v>
+      </c>
+      <c r="D424" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E424" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576419/terreno-venda-santa-cruz-do-sul-rs-verena</v>
+      </c>
+      <c r="F424" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170701_16744.jpg</v>
+      </c>
+    </row>
+    <row r="425" xml:space="preserve">
+      <c r="A425" t="str">
+        <v>Arroio Grande, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B425" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+270.000</v>
+      </c>
+      <c r="C425" t="str">
+        <v>Ref: 24184 - Casa</v>
+      </c>
+      <c r="D425" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E425" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576420/casa-venda-santa-cruz-do-sul-rs-arroio-grande</v>
+      </c>
+      <c r="F425" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170701_15202.jpg</v>
+      </c>
+    </row>
+    <row r="426" xml:space="preserve">
+      <c r="A426" t="str">
+        <v>Várzea, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B426" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+270.000</v>
+      </c>
+      <c r="C426" t="str">
+        <v>Ref: 24187 - Casa</v>
+      </c>
+      <c r="D426" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E426" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576423/casa-venda-santa-cruz-do-sul-rs-varzea</v>
+      </c>
+      <c r="F426" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170702_1712.jpg</v>
+      </c>
+    </row>
+    <row r="427" xml:space="preserve">
+      <c r="A427" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B427" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+275.000</v>
+      </c>
+      <c r="C427" t="str">
+        <v>Ref: 24104 - Geminado</v>
+      </c>
+      <c r="D427" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E427" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576353/geminado-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F427" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170628_16036.jpg</v>
+      </c>
+    </row>
+    <row r="428" xml:space="preserve">
+      <c r="A428" t="str">
+        <v>Bairro Goias, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B428" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+275.000</v>
+      </c>
+      <c r="C428" t="str">
+        <v>Ref: 24151 - Casa</v>
+      </c>
+      <c r="D428" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E428" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576388/casa-venda-santa-cruz-do-sul-rs-bairro-goias</v>
+      </c>
+      <c r="F428" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170639_15460.jpg</v>
+      </c>
+    </row>
+    <row r="429" xml:space="preserve">
+      <c r="A429" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B429" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+279.000</v>
+      </c>
+      <c r="C429" t="str">
+        <v>Ref: 24082 - Sobrado</v>
+      </c>
+      <c r="D429" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E429" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576337/sobrado-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F429" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170623_17827.jpg</v>
+      </c>
+    </row>
+    <row r="430" xml:space="preserve">
+      <c r="A430" t="str">
+        <v>Jardim Europa, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B430" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+279.125</v>
+      </c>
+      <c r="C430" t="str">
+        <v>Ref: 23082 - Terreno</v>
+      </c>
+      <c r="D430" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E430" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576146/terreno-venda-santa-cruz-do-sul-rs-jardim-europa</v>
+      </c>
+      <c r="F430" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170532_18900.jpg</v>
+      </c>
+    </row>
+    <row r="431" xml:space="preserve">
+      <c r="A431" t="str">
+        <v>Bomfim, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B431" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+280.000</v>
+      </c>
+      <c r="C431" t="str">
+        <v>Ref: 23095 - Casa</v>
+      </c>
+      <c r="D431" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E431" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576151/casa-venda-santa-cruz-do-sul-rs-bomfim</v>
+      </c>
+      <c r="F431" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170533_14305.jpg</v>
+      </c>
+    </row>
+    <row r="432" xml:space="preserve">
+      <c r="A432" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B432" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+280.000</v>
+      </c>
+      <c r="C432" t="str">
+        <v>Ref: 24106 - Casa</v>
+      </c>
+      <c r="D432" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E432" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576354/casa-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F432" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170628_18307.jpg</v>
+      </c>
+    </row>
+    <row r="433" xml:space="preserve">
+      <c r="A433" t="str">
+        <v>Centro, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B433" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+280.000</v>
+      </c>
+      <c r="C433" t="str">
+        <v>Ref: 24118 - Geminado</v>
+      </c>
+      <c r="D433" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E433" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576360/geminado-venda-santa-cruz-do-sul-rs-centro</v>
+      </c>
+      <c r="F433" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170630_11599.jpg</v>
+      </c>
+    </row>
+    <row r="434" xml:space="preserve">
+      <c r="A434" t="str">
+        <v>Castelo Branco, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B434" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+285.000</v>
+      </c>
+      <c r="C434" t="str">
+        <v>Ref: 23091 - Duplex</v>
+      </c>
+      <c r="D434" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E434" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576148/duplex-venda-santa-cruz-do-sul-rs-castelo-branco</v>
+      </c>
+      <c r="F434" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170532_1276.jpg</v>
+      </c>
+    </row>
+    <row r="435" xml:space="preserve">
+      <c r="A435" t="str">
+        <v>Renascença, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B435" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+285.000</v>
+      </c>
+      <c r="C435" t="str">
+        <v>Ref: 24110 - Geminado</v>
+      </c>
+      <c r="D435" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E435" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576356/geminado-venda-santa-cruz-do-sul-rs-renascenca</v>
+      </c>
+      <c r="F435" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170629_18104.jpg</v>
+      </c>
+    </row>
+    <row r="436" xml:space="preserve">
+      <c r="A436" t="str">
+        <v>Country, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B436" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+285.000</v>
+      </c>
+      <c r="C436" t="str">
+        <v>Ref: 24169 - Terreno</v>
+      </c>
+      <c r="D436" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E436" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576404/terreno-venda-santa-cruz-do-sul-rs-country</v>
+      </c>
+      <c r="F436" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170643_11809.jpg</v>
+      </c>
+    </row>
+    <row r="437" xml:space="preserve">
+      <c r="A437" t="str">
+        <v>Country, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B437" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+285.000</v>
+      </c>
+      <c r="C437" t="str">
+        <v>Ref: 24188 - Terreno</v>
+      </c>
+      <c r="D437" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E437" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576424/terreno-venda-santa-cruz-do-sul-rs-country</v>
+      </c>
+      <c r="F437" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170703_15330.jpg</v>
+      </c>
+    </row>
+    <row r="438" xml:space="preserve">
+      <c r="A438" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B438" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+286.200</v>
+      </c>
+      <c r="C438" t="str">
+        <v>Ref: 24061 - Casa</v>
+      </c>
+      <c r="D438" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E438" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576319/casa-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F438" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170619_15916.jpg</v>
+      </c>
+    </row>
+    <row r="439" xml:space="preserve">
+      <c r="A439" t="str">
+        <v>Cerro Alegre Alto, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B439" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+290.000</v>
+      </c>
+      <c r="C439" t="str">
+        <v>Ref: 25007 - Chácara</v>
+      </c>
+      <c r="D439" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E439" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576431/chacara-venda-santa-cruz-do-sul-rs-cerro-alegre-alto</v>
+      </c>
+      <c r="F439" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170705_15960.jpg</v>
+      </c>
+    </row>
+    <row r="440" xml:space="preserve">
+      <c r="A440" t="str">
+        <v>Aliança, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B440" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+296.800</v>
+      </c>
+      <c r="C440" t="str">
+        <v>Ref: 23230 - Casa</v>
+      </c>
+      <c r="D440" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E440" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576227/casa-venda-santa-cruz-do-sul-rs-alianca</v>
+      </c>
+      <c r="F440" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170555_14302.jpg</v>
+      </c>
+    </row>
+    <row r="441" xml:space="preserve">
+      <c r="A441" t="str">
+        <v>Rio Pardinho, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B441" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+298.000</v>
+      </c>
+      <c r="C441" t="str">
+        <v>Ref: 25009 - Sítio</v>
+      </c>
+      <c r="D441" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E441" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576433/sitio-venda-santa-cruz-do-sul-rs-rio-pardinho</v>
+      </c>
+      <c r="F441" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170705_19548.jpg</v>
+      </c>
+    </row>
+    <row r="442" xml:space="preserve">
+      <c r="A442" t="str">
+        <v>Linha Santa Cruz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B442" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+299.900</v>
+      </c>
+      <c r="C442" t="str">
+        <v>Ref: 23139 - Casa</v>
+      </c>
+      <c r="D442" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E442" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576183/casa-venda-santa-cruz-do-sul-rs-linha-santa-cruz</v>
+      </c>
+      <c r="F442" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170542_14866.jpg</v>
+      </c>
+    </row>
+    <row r="443" xml:space="preserve">
+      <c r="A443" t="str">
+        <v>João Alves, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B443" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+300.000</v>
+      </c>
+      <c r="C443" t="str">
+        <v>Ref: 23210 - Casa</v>
+      </c>
+      <c r="D443" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E443" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576216/casa-venda-santa-cruz-do-sul-rs-joao-alves</v>
+      </c>
+      <c r="F443" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170552_14157.jpg</v>
+      </c>
+    </row>
+    <row r="444" xml:space="preserve">
+      <c r="A444" t="str">
+        <v>Vila Schultz, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B444" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+300.000</v>
+      </c>
+      <c r="C444" t="str">
+        <v>Ref: 23239 - Duplex</v>
+      </c>
+      <c r="D444" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E444" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576230/duplex-venda-santa-cruz-do-sul-rs-vila-schultz</v>
+      </c>
+      <c r="F444" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170556_13953.jpg</v>
+      </c>
+    </row>
+    <row r="445" xml:space="preserve">
+      <c r="A445" t="str">
+        <v>Bomfim, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B445" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+300.000</v>
+      </c>
+      <c r="C445" t="str">
+        <v>Ref: 23278 - Triplex</v>
+      </c>
+      <c r="D445" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E445" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576253/triplex-venda-santa-cruz-do-sul-rs-bomfim</v>
+      </c>
+      <c r="F445" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170604_12331.jpg</v>
+      </c>
+    </row>
+    <row r="446" xml:space="preserve">
+      <c r="A446" t="str">
+        <v>São João, Santa Cruz do Sul / RS</v>
+      </c>
+      <c r="B446" t="str" xml:space="preserve">
+        <v xml:space="preserve">R$
+300.000</v>
+      </c>
+      <c r="C446" t="str">
+        <v>Ref: 24091 - Casa</v>
+      </c>
+      <c r="D446" t="str">
+        <v>dlimoveis</v>
+      </c>
+      <c r="E446" t="str">
+        <v>https://www.dlimoveis-rs.com.br//imovel/3576343/casa-venda-santa-cruz-do-sul-rs-sao-joao</v>
+      </c>
+      <c r="F446" t="str">
+        <v>https://imgs1.cdn-imobibrasil.com.br/imagens/imoveis/thumb15-20250207170625_11241.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F446"/>
   </ignoredErrors>
 </worksheet>
 </file>